--- a/kri-evaluation/KRI Liver Segmentation Evaluation v1.xlsx
+++ b/kri-evaluation/KRI Liver Segmentation Evaluation v1.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorgue Guerra\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Master thesis\master\kri-evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E19FE5A-4FD3-4D78-8FC7-8A8E94C970D7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FC8D7A-3DC4-41F4-BCB8-75A4C49D7F11}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kri" sheetId="1" r:id="rId1"/>
     <sheet name="kriNN" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="etc" sheetId="2" r:id="rId3"/>
+    <sheet name="exported-results" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">kri!$A$1:$F$104</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -216,6 +217,18 @@
   </si>
   <si>
     <t>Multiple volumes are broken, fragmented. Some preprocessing must be done</t>
+  </si>
+  <si>
+    <t>[SIRT]</t>
+  </si>
+  <si>
+    <t>13.05.2020</t>
+  </si>
+  <si>
+    <t>14.05.2020</t>
+  </si>
+  <si>
+    <t>Automatically computed lowdose</t>
   </si>
 </sst>
 </file>
@@ -657,7 +670,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -809,6 +822,27 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -833,26 +867,29 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -946,16 +983,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>305675</xdr:colOff>
+      <xdr:colOff>29450</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>152687</xdr:rowOff>
+      <xdr:rowOff>143162</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -978,7 +1015,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="742950" y="381000"/>
+          <a:off x="466725" y="371475"/>
           <a:ext cx="6268325" cy="2057687"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5543,7 +5580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFB2F4E-B686-4E60-A852-482BEABCB216}">
   <dimension ref="A1:V192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
     </sheetView>
@@ -5715,10 +5752,10 @@
       <c r="P4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="63" t="s">
+      <c r="R4" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="63"/>
+      <c r="S4" s="55"/>
       <c r="U4" s="27" t="s">
         <v>2</v>
       </c>
@@ -5770,10 +5807,10 @@
         <f>AVERAGEIFS(G2:G104,G2:G104,"&lt;&gt;0",G2:G104,"&lt;50%")</f>
         <v>5.5461624026696348E-2</v>
       </c>
-      <c r="U5" s="54" t="s">
+      <c r="U5" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="51" t="s">
+      <c r="V5" s="58" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5813,8 +5850,8 @@
         <f>STDEV(G2:G104)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U6" s="55"/>
-      <c r="V6" s="52"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="59"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
@@ -5860,8 +5897,8 @@
         <f>AVERAGEIF(H4:H106,"&lt;&gt;0")</f>
         <v>0.89749999999999996</v>
       </c>
-      <c r="U7" s="55"/>
-      <c r="V7" s="52"/>
+      <c r="U7" s="62"/>
+      <c r="V7" s="59"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
@@ -5903,8 +5940,8 @@
       <c r="P8" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="U8" s="55"/>
-      <c r="V8" s="52"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="59"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
@@ -5943,12 +5980,12 @@
         <f t="shared" si="0"/>
         <v>7.5711987127916255E-2</v>
       </c>
-      <c r="R9" s="63" t="s">
+      <c r="R9" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="S9" s="63"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="58"/>
+      <c r="S9" s="55"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="65"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
@@ -5986,10 +6023,10 @@
         <f>AVERAGEIFS(K2:K104,K2:K104,"&lt;&gt;0",K2:K104,"&lt;30%")</f>
         <v>6.3609986190155884E-2</v>
       </c>
-      <c r="U10" s="54" t="s">
+      <c r="U10" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="V10" s="51" t="s">
+      <c r="V10" s="58" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6037,8 +6074,8 @@
         <f>STDEV(K2:K104)</f>
         <v>0.21826631915929956</v>
       </c>
-      <c r="U11" s="55"/>
-      <c r="V11" s="52"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="59"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
@@ -6084,8 +6121,8 @@
         <f>AVERAGEIF(L4:L106,"&lt;&gt;0")</f>
         <v>0.90393372549019602</v>
       </c>
-      <c r="U12" s="55"/>
-      <c r="V12" s="52"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="59"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
@@ -6118,8 +6155,8 @@
       </c>
       <c r="R13"/>
       <c r="S13"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="52"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="59"/>
     </row>
     <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
@@ -6158,12 +6195,12 @@
         <f t="shared" si="0"/>
         <v>4.6106438980548205E-2</v>
       </c>
-      <c r="R14" s="64" t="s">
+      <c r="R14" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="S14" s="65"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="58"/>
+      <c r="S14" s="57"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="65"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
@@ -6201,10 +6238,10 @@
         <f>AVERAGEIFS(O2:O104,O2:O104,"&lt;&gt;0",O2:O104,"&lt;50%")</f>
         <v>0.12434032373984207</v>
       </c>
-      <c r="U15" s="54" t="s">
+      <c r="U15" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="V15" s="51" t="s">
+      <c r="V15" s="58" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6244,8 +6281,8 @@
         <f>STDEV(O2:O104)</f>
         <v>0.14978376778042762</v>
       </c>
-      <c r="U16" s="55"/>
-      <c r="V16" s="52"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="59"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
@@ -6276,8 +6313,8 @@
         <f t="shared" si="0"/>
         <v>4.5371036467268006E-2</v>
       </c>
-      <c r="U17" s="55"/>
-      <c r="V17" s="52"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="59"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
@@ -6308,8 +6345,8 @@
         <f t="shared" si="0"/>
         <v>0.2329903750414869</v>
       </c>
-      <c r="U18" s="55"/>
-      <c r="V18" s="52"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="59"/>
     </row>
     <row r="19" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
@@ -6340,8 +6377,8 @@
         <f t="shared" si="0"/>
         <v>0.26341668729883638</v>
       </c>
-      <c r="U19" s="56"/>
-      <c r="V19" s="53"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="60"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
@@ -9279,10 +9316,10 @@
       <c r="L106" s="32"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B107" s="59" t="s">
+      <c r="B107" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C107" s="60"/>
+      <c r="C107" s="52"/>
       <c r="D107" s="47">
         <f>COUNTIF(D2:D104,"=mr")</f>
         <v>55</v>
@@ -9291,10 +9328,10 @@
       <c r="L107" s="32"/>
     </row>
     <row r="108" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="61" t="s">
+      <c r="B108" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C108" s="62"/>
+      <c r="C108" s="54"/>
       <c r="D108" s="48">
         <f>COUNTIF(D2:D104,"=ct")</f>
         <v>47</v>
@@ -9640,17 +9677,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R14:S14"/>
     <mergeCell ref="V15:V19"/>
     <mergeCell ref="U15:U19"/>
     <mergeCell ref="U5:U9"/>
     <mergeCell ref="V5:V9"/>
     <mergeCell ref="U10:U14"/>
     <mergeCell ref="V10:V14"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R14:S14"/>
   </mergeCells>
   <conditionalFormatting sqref="O2:O104">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
@@ -9677,7 +9714,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9687,59 +9724,1713 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DLCPolicyLabelClientValue xmlns="e2656bbd-0e15-4aa0-af00-25744e385561">{_UIVersionString}</DLCPolicyLabelClientValue>
-    <_dlc_BarcodeImage xmlns="e2656bbd-0e15-4aa0-af00-25744e385561">iVBORw0KGgoAAAANSUhEUgAAAYIAAABtCAYAAACsn2ZqAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAABp9SURBVHhe7ZvBihzbsiz3///0eeiBgeGE54qsTA0uSgMfWLt3aA2aqpH++9/Hx8fHxz/N90Xw8fHx8Y/zfRF8fHx8/ON8XwQfHx8f/zjfF8HHx8fHP873RfDx8fHxj/P6F8F///33/zORHe7ApgNvWjdx2uIOnNy0rQNPuwnvc7d1B9JN2zqwdWciO+9bB97c6Ux2W3cg3Zy2uAObbqJtHWjuQLrxPne/ujORXXMH0k3bOrDp3ub1i1cPzQ53YNOBN62bOG1xB05u2taBp92E97nbugPppm0d2LozkZ33rQNv7nQmu607kG5OW9yBTTfRtg40dyDdeJ+7X92ZyK65A+mmbR3YdG/z+sWrh2aHO7DpwJvWTZy2uAMnN23rwNNuwvvcbd2BdNO2DmzdmcjO+9aBN3c6k93WHUg3py3uwKabaFsHmjuQbrzP3a/uTGTX3IF007YObLq3ef3i1UOzwx3YdOBN6yZOW9yBk5u2deBpN+F97rbuQLppWwe27kxk533rwJs7nclu6w6km9MWd2DTTbStA80dSDfe5+5Xdyaya+5AumlbBzbd27x+8eqh2eEObDrwpnUTpy3uwMlN2zrwtJvwPndbdyDdtK0DW3cmsvO+deDNnc5kt3UH0s1pizuw6Sba1oHmDqQb73P3qzsT2TV3IN20rQOb7m1ev3j10OxwBzYdeNO6idMWd+Dkpm0deNpNeJ+7rTuQbtrWga07E9l53zrw5k5nstu6A+nmtMUd2HQTbetAcwfSjfe5+9WdieyaO5Bu2taBTfc2r1+8emh2uAObDrxp3cRpiztwctO2DjztJrzP3dYdSDdt68DWnYnsvG8deHOnM9lt3YF0c9riDmy6ibZ1oLkD6cb73P3qzkR2zR1IN23rwKZ7m9cvXj00O9yBTQfetG7itMUdOLlpWweedhPe527rDqSbtnVg685Edt63Dry505nstu5AujltcQc23UTbOtDcgXTjfe5+dWciu+YOpJu2dWDTvc3rF68emh3uwKYDb1o3cdriDpzctK0DT7sJ73O3dQfSTds6sHVnIjvvWwfe3OlMdlt3IN2ctrgDm26ibR1o7kC68T53v7ozkV1zB9JN2zqw6d7m9YtXD80Od2DTgTetmzhtcQdObtrWgafdhPe527oD6aZtHdi6M5Gd960Db+50JrutO5BuTlvcgU030bYONHcg3Xifu1/dmciuuQPppm0d2HRv8/rFq4dmhzuw6cCb1k2ctrgDJzdt68DTbsL73G3dgXTTtg5s3ZnIzvvWgTd3OpPd1h1IN6ct7sCmm2hbB5o7kG68z92v7kxk19yBdNO2Dmy6t3n94tVDs8Md2HTgTesmTlvcgZObtnXgaTfhfe627kC6aVsHtu5MZOd968CbO53JbusOpJvTFndg0020rQPNHUg33ufuV3cmsmvuQLppWwc23du8fvHqodnhDmw68KZ1E6ct7sDJTds68LSb8D53W3cg3bStA1t3JrLzvnXgzZ3OZLd1B9LNaYs7sOkm2taB5g6kG+9z96s7E9k1dyDdtK0Dm+5tXr949dDscAc2HXjTuonTFnfg5KZtHXjaTXifu607kG7a1oGtOxPZed868OZOZ7LbugPp5rTFHdh0E23rQHMH0o33ufvVnYnsmjuQbtrWgU33Nq9fvHpodrgDmw68ad3EaYs7cHLTtg487Sa8z93WHUg3bevA1p2J7LxvHXhzpzPZbd2BdHPa4g5suom2daC5A+nG+9z96s5Eds0dSDdt68Cme5vXL149NDvcgU0H3rRu4rTFHTi5aVsHnnYT3udu6w6km7Z1YOvORHbetw68udOZ7LbuQLo5bXEHNt1E2zrQ3IF0433ufnVnIrvmDqSbtnVg073N6xevHpod7sCmA29aN3Ha4g6c3LStA0+7Ce9zt3UH0k3bOrB1ZyI771sH3tzpTHZbdyDdnLa4A5tuom0daO5AuvE+d7+6M5FdcwfSTds6sOne5vWLVw/NDndg04E3rZs4bXEHTm7a1oGn3YT3udu6A+mmbR3YujORnfetA2/udCa7rTuQbk5b3IFNN9G2DjR3IN14n7tf3ZnIrrkD6aZtHdh0b/P6xauHZoc7sOnAm9ZNnLa4Ayc3bevA027C+9xt3YF007YObN2ZyM771oE3dzqT3dYdSDenLe7ApptoWweaO5BuvM/dr+5MZNfcgXTTtg5surd5/eLVQ7PDHdh04E3rJk5b3IGTm7Z14Gk34X3utu5AumlbB7buTGTnfevAmzudyW7rDqSb0xZ3YNNNtK0DzR1IN97n7ld3JrJr7kC6aVsHNt3bvH7x6qHZ4Q5sOvCmdROnLe7AyU3bOvC0m/A+d1t3IN20rQNbdyay87514M2dzmS3dQfSzWmLO7DpJtrWgeYOpBvvc/erOxPZNXcg3bStA5vubV6/ePXQ7HAHNh1407qJ0xZ34OSmbR142k14n7utO5Bu2taBrTsT2XnfOvDmTmey27oD6ea0xR3YdBNt60BzB9KN97n71Z2J7Jo7kG7a1oFN9zavX7x6aHa4A5sOvGndxGmLO3By07YOPO0mvM/d1h1IN23rwNadiey8bx14c6cz2W3dgXRz2uIObLqJtnWguQPpxvvc/erORHbNHUg3bevApnub1y9ePTQ73IFNB960buK0xR04uWlbB552E97nbusOpJu2dWDrzkR23rcOvLnTmey27kC6OW1xBzbdRNs60NyBdON97n51ZyK75g6km7Z1YNO9zesXrx6aHe7ApgNvWjdx2uIOnNy0rQNPuwnvc7d1B9JN2zqwdWciO+9bB97c6Ux2W3cg3Zy2uAObbqJtHWjuQLrxPne/ujORXXMH0k3bOrDp3ub1i1cPzQ53YNOBN62bOG1xB05u2taBp92E97nbugPppm0d2LozkZ33rQNv7nQmu607kG5OW9yBTTfRtg40dyDdeJ+7X92ZyK65A+mmbR3YdG/z+sWrh2aHO7DpwJvWTZy2uAMnN23rwNNuwvvcbd2BdNO2DmzdmcjO+9aBN3c6k93WHUg3py3uwKabaFsHmjuQbrzP3a/uTGTX3IF007YObLq3ef3i1UOzwx3YdOBN6yZOW9yBk5u2deBpN+F97rbuQLppWwe27kxk533rwJs7nclu6w6km9MWd2DTTbStA80dSDfe5+5Xdyaya+5AumlbBzbd27x+8eqh2eEObDrwpnUTpy3uwMlN2zrwtJvwPndbdyDdtK0DW3cmsvO+deDNnc5kt3UH0s1pizuw6Sba1oHmDqQb73P3qzsT2TV3IN20rQOb7m1ev3j10OxwBzYdeNO6idMWd+Dkpm0deNpNeJ+7rTuQbtrWga07E9l53zrw5k5nstu6A+nmtMUd2HQTbetAcwfSjfe5+9WdieyaO5Bu2taBTfc2r1+8emh2uAObDrxp3cRpiztwctO2DjztJrzP3dYdSDdt68DWnYnsvG8deHOnM9lt3YF0c9riDmy6ibZ1oLkD6cb73P3qzkR2zR1IN23rwKZ7m9cvXj00O9yBTQfetG7itMUdOLlpWweedhPe527rDqSbtnVg685Edt63Dry505nstu5AujltcQc23UTbOtDcgXTjfe5+dWciu+YOpJu2dWDTvc3rF68emh3uwKYDb1o3cdriDpzctK0DT7sJ73O3dQfSTds6sHVnIjvvWwfe3OlMdlt3IN2ctrgDm26ibR1o7kC68T53v7ozkV1zB9JN2zqw6d7m9YtXD80Od2DTgTetmzhtcQdObtrWgafdhPe527oD6aZtHdi6M5Gd960Db+50JrutO5BuTlvcgU030bYONHcg3Xifu1/dmciuuQPppm0d2HRv8/rFq4dmhzuw6cCb1k2ctrgDJzdt68DTbsL73G3dgXTTtg5s3ZnIzvvWgTd3OpPd1h1IN6ct7sCmm2hbB5o7kG68z92v7kxk19yBdNO2Dmy6t3n94tVDs8Md2HTgTesmTlvcgZObtnXgaTfhfe627kC6aVsHtu5MZOd968CbO53JbusOpJvTFndg0020rQPNHUg33ufuV3cmsmvuQLppWwc23du8fvHqodnhDmw68KZ1E6ct7sDJTds68LSb8D53W3cg3bStA1t3JrLzvnXgzZ3OZLd1B9LNaYs7sOkm2taB5g6kG+9z96s7E9k1dyDdtK0Dm+5tXr949dDscAc2HXjTuonTFnfg5KZtHXjaTXifu607kG7a1oGtOxPZed868OZOZ7LbugPp5rTFHdh0E23rQHMH0o33ufvVnYnsmjuQbtrWgU33Nq9fvHpodrgDmw68ad3EaYs7cHLTtg487Sa8z93WHUg3bevA1p2J7LxvHXhzpzPZbd2BdHPa4g5suom2daC5A+nG+9z96s5Eds0dSDdt68Cme5vXL149NDvcgU0H3rRu4rTFHTi5aVsHnnYT3udu6w6km7Z1YOvORHbetw68udOZ7LbuQLo5bXEHNt1E2zrQ3IF0433ufnVnIrvmDqSbtnVg073N6xevHpod7sCmA29aN3Ha4g6c3LStA0+7Ce9zt3UH0k3bOrB1ZyI771sH3tzpTHZbdyDdnLa4A5tuom0daO5AuvE+d7+6M5FdcwfSTds6sOne5vWLVw/NDndg04E3rZs4bXEHTm7a1oGn3YT3udu6A+mmbR3YujORnfetA2/udCa7rTuQbk5b3IFNN9G2DjR3IN14n7tf3ZnIrrkD6aZtHdh0b/P6xauHZoc7sOnAm9ZNnLa4Ayc3bevA027C+9xt3YF007YObN2ZyM771oE3dzqT3dYdSDenLe7ApptoWweaO5BuvM/dr+5MZNfcgXTTtg5surd5/eLVQ7PDHdh04E3rJk5b3IGTm7Z14Gk34X3utu5AumlbB7buTGTnfevAmzudyW7rDqSb0xZ3YNNNtK0DzR1IN97n7ld3JrJr7kC6aVsHNt3bvH7x6qHZ4Q5sOvCmdROnLe7AyU3bOvC0m/A+d1t3IN20rQNbdyay87514M2dzmS3dQfSzWmLO7DpJtrWgeYOpBvvc/erOxPZNXcg3bStA5vubV6/ePXQ7HAHNh1407qJ0xZ34OSmbR142k14n7utO5Bu2taBrTsT2XnfOvDmTmey27oD6ea0xR3YdBNt60BzB9KN97n71Z2J7Jo7kG7a1oFN9zavX7x6aHa4A5sOvGndxGmLO3By07YOPO0mvM/d1h1IN23rwNadiey8bx14c6cz2W3dgXRz2uIObLqJtnWguQPpxvvc/erORHbNHUg3bevApnub1y9ePTQ73IFNB960buK0xR04uWlbB552E97nbusOpJu2dWDrzkR23rcOvLnTmey27kC6OW1xBzbdRNs60NyBdON97n51ZyK75g6km7Z1YNO9zesXrx6aHe7ApgNvWjdx2uIOnNy0rQNPuwnvc7d1B9JN2zqwdWciO+9bB97c6Ux2W3cg3Zy2uAObbqJtHWjuQLrxPne/ujORXXMH0k3bOrDp3ub1i1cPzQ53YNOBN62bOG1xB05u2taBp92E97nbugPppm0d2LozkZ33rQNv7nQmu607kG5OW9yBTTfRtg40dyDdeJ+7X92ZyK65A+mmbR3YdG/z+sWrh2aHO7DpwJvWTZy2uAMnN23rwNNuwvvcbd2BdNO2DmzdmcjO+9aBN3c6k93WHUg3py3uwKabaFsHmjuQbrzP3a/uTGTX3IF007YObLq3ef3i1UOzwx3YdOBN6yZOW9yBk5u2deBpN+F97rbuQLppWwe27kxk533rwJs7nclu6w6km9MWd2DTTbStA80dSDfe5+5Xdyaya+5AumlbBzbd27x+8eqh2eEObDrwpnUTpy3uwMlN2zrwtJvwPndbdyDdtK0DW3cmsvO+deDNnc5kt3UH0s1pizuw6Sba1oHmDqQb73P3qzsT2TV3IN20rQOb7m1ev3j10OxwBzYdeNO6idMWd+Dkpm0deNpNeJ+7rTuQbtrWga07E9l53zrw5k5nstu6A+nmtMUd2HQTbetAcwfSjfe5+9WdieyaO5Bu2taBTfc2r1+8emh2uAObDrxp3cRpiztwctO2DjztJrzP3dYdSDdt68DWnYnsvG8deHOnM9lt3YF0c9riDmy6ibZ1oLkD6cb73P3qzkR2zR1IN23rwKZ7m9cvXj00O9yBTQfetG7itMUdOLlpWweedhPe527rDqSbtnVg685Edt63Dry505nstu5AujltcQc23UTbOtDcgXTjfe5+dWciu+YOpJu2dWDTvc3rF68emh3uwKYDb1o3cdriDpzctK0DT7sJ73O3dQfSTds6sHVnIjvvWwfe3OlMdlt3IN2ctrgDm26ibR1o7kC68T53v7ozkV1zB9JN2zqw6d7m9YtXD80Od2DTgTetmzhtcQdObtrWgafdhPe527oD6aZtHdi6M5Gd960Db+50JrutO5BuTlvcgU030bYONHcg3Xifu1/dmciuuQPppm0d2HRv8/rFq4dmhzuw6cCb1k2ctrgDJzdt68DTbsL73G3dgXTTtg5s3ZnIzvvWgTd3OpPd1h1IN6ct7sCmm2hbB5o7kG68z92v7kxk19yBdNO2Dmy6t3n94tVDs8Md2HTgTesmTlvcgZObtnXgaTfhfe627kC6aVsHtu5MZOd968CbO53JbusOpJvTFndg0020rQPNHUg33ufuV3cmsmvuQLppWwc23du8fvHqodnhDmw68KZ1E6ct7sDJTds68LSb8D53W3cg3bStA1t3JrLzvnXgzZ3OZLd1B9LNaYs7sOkm2taB5g6kG+9z96s7E9k1dyDdtK0Dm+5tXr949dDscAc2HXjTuonTFnfg5KZtHXjaTXifu607kG7a1oGtOxPZed868OZOZ7LbugPp5rTFHdh0E23rQHMH0o33ufvVnYnsmjuQbtrWgU33Nq9fvHpodrgDmw68ad3EaYs7cHLTtg487Sa8z93WHUg3bevA1p2J7LxvHXhzpzPZbd2BdHPa4g5suom2daC5A+nG+9z96s5Eds0dSDdt68Cme5vXL149NDvcgU0H3rRu4rTFHTi5aVsHnnYT3udu6w6km7Z1YOvORHbetw68udOZ7LbuQLo5bXEHNt1E2zrQ3IF0433ufnVnIrvmDqSbtnVg073N6xevHpod7sCmA29aN3Ha4g6c3LStA0+7Ce9zt3UH0k3bOrB1ZyI771sH3tzpTHZbdyDdnLa4A5tuom0daO5AuvE+d7+6M5FdcwfSTds6sOne5vWLVw/NDndg04E3rZs4bXEHTm7a1oGn3YT3udu6A+mmbR3YujORnfetA2/udCa7rTuQbk5b3IFNN9G2DjR3IN14n7tf3ZnIrrkD6aZtHdh0b/P6xauHZoc7sOnAm9ZNnLa4Ayc3bevA027C+9xt3YF007YObN2ZyM771oE3dzqT3dYdSDenLe7ApptoWweaO5BuvM/dr+5MZNfcgXTTtg5surd5/eLVQ7PDHdh04E3rJk5b3IGTm7Z14Gk34X3utu5AumlbB7buTGTnfevAmzudyW7rDqSb0xZ3YNNNtK0DzR1IN97n7ld3JrJr7kC6aVsHNt3bvH7x6qHZ4Q5sOvCmdROnLe7AyU3bOvC0m/A+d1t3IN20rQNbdyay87514M2dzmS3dQfSzWmLO7DpJtrWgeYOpBvvc/erOxPZNXcg3bStA5vubV6/ePXQ7HAHNh1407qJ0xZ34OSmbR142k14n7utO5Bu2taBrTsT2XnfOvDmTmey27oD6ea0xR3YdBNt60BzB9KN97n71Z2J7Jo7kG7a1oFN9zavX7x6aHa4A5sOvGndxGmLO3By07YOPO0mvM/d1h1IN23rwNadiey8bx14c6cz2W3dgXRz2uIObLqJtnWguQPpxvvc/erORHbNHUg3bevApnub1y9ePTQ73IFNB960buK0xR04uWlbB552E97nbusOpJu2dWDrzkR23rcOvLnTmey27kC6OW1xBzbdRNs60NyBdON97n51ZyK75g6km7Z1YNO9zesXrx6aHe7ApgNvWjdx2uIOnNy0rQNPuwnvc7d1B9JN2zqwdWciO+9bB97c6Ux2W3cg3Zy2uAObbqJtHWjuQLrxPne/ujORXXMH0k3bOrDp3ub1i1cPzQ53YNOBN62bOG1xB05u2taBp92E97nbugPppm0d2LozkZ33rQNv7nQmu607kG5OW9yBTTfRtg40dyDdeJ+7X92ZyK65A+mmbR3YdG/z+sWrh2aHO7DpwJvWTZy2uAMnN23rwNNuwvvcbd2BdNO2DmzdmcjO+9aBN3c6k93WHUg3py3uwKabaFsHmjuQbrzP3a/uTGTX3IF007YObLq3ef/ix8fHx8f/Kb4vgo+Pj49/nO+L4OPj4+Mf5/si+Pj4+PjH+b4IPj4+Pv5xvi+Cj4+Pj3+c74vg4+Pj4x/n+yL4+Pj4+Mf5vgg+/irtP7/wH2OmwNQRc9XBWxu46k93snfMVffx8SbfX9fHX+XuB5j3m9+dNvmztzamdb/+W8nmzsfHW3x/WR9/hT8fWmRLbk+/e9XTbTZX5OaPk+Tqnrur3Yknv/vx0fj+qj7+Knc+uHJ7+t2rnm6zuaJtpp9v/63Nv9t48rsfH43vr+rjr7L94Jp2f36WSU4/m3q46v7wy+9OP8+f/fHMljvbj48t31/Vx19l+8H1ZPfnZ46Z9jB17U5yuru9A5vd9tbHx12+v6yPv8rf+IDzfvrd/FnbTD83V33r2r+14Zd/7+PjDb6/ro+/yuYD7O6HHPs7H5x/3OFnJ9pm+vnVvbf/rY+PN/n+wj7+KqcPsV8+5Pidq9/d3H2ymX7+N96z+b2Pj6d8f2Uff5XTB9kvH3T8ztXvvvXvtt308yfv+UNuNr/z8fEG31/ax1/lyYfj1G8+LN+4+4erO63b3Pl18/Hxt/j+2j7+Cn8+yDLJ9LPkdOMPp82ph80uN9Pu1P/htMne+fh4m++v6uPj4+Mf5/si+Pj4+PjH+b4IPj4+Pv5xvi+Cj4+Pj3+c74vg4+Pj4x/n+yL4+Pj4+Mf5vgg+Pj4+/nG+L4KPj4+Pf5r//e//AYQWEYJwHQKsAAAAAElFTkSuQmCC</_dlc_BarcodeImage>
-    <DLCPolicyLabelLock xmlns="e2656bbd-0e15-4aa0-af00-25744e385561" xsi:nil="true"/>
-    <_dlc_BarcodeValue xmlns="e2656bbd-0e15-4aa0-af00-25744e385561">1758931852</_dlc_BarcodeValue>
-    <_dlc_BarcodePreview xmlns="e2656bbd-0e15-4aa0-af00-25744e385561">
-      <Url>https://surgiceye.sharepoint.com/dev/_layouts/15/barcodeimagefromitem.aspx?ID=419111&amp;list=e2656bbd-0e15-4aa0-af00-25744e385561</Url>
-      <Description>Barcode: 1758931852</Description>
-    </_dlc_BarcodePreview>
-    <DLCPolicyLabelValue xmlns="e2656bbd-0e15-4aa0-af00-25744e385561">0.3</DLCPolicyLabelValue>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0314E27C-272D-4EFB-AFDD-94BE43DF51E9}">
+  <dimension ref="B1:F104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="21"/>
+    <col min="3" max="3" width="10.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="16" style="21" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="21" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="68"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="31">
+        <v>1</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="69">
+        <v>0.9868055555555556</v>
+      </c>
+      <c r="F3" s="38">
+        <v>1446.64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="31">
+        <v>2</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="31">
+        <v>3</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="69">
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="F5" s="38">
+        <v>1274.3800000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="31">
+        <v>4</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="69">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="F6" s="38">
+        <v>1700.1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="31">
+        <v>5</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="69">
+        <v>0.9902777777777777</v>
+      </c>
+      <c r="F7" s="38">
+        <v>2171.87</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="31">
+        <v>6</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="69">
+        <v>0.99097222222222225</v>
+      </c>
+      <c r="F8" s="38">
+        <v>1383.31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="31">
+        <v>7</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="69">
+        <v>0.9916666666666667</v>
+      </c>
+      <c r="F9" s="38">
+        <v>425.411</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="31">
+        <v>8</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="69">
+        <v>0.99236111111111114</v>
+      </c>
+      <c r="F10" s="38">
+        <v>1329.56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="31">
+        <v>9</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="69">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="F11" s="38">
+        <v>1462.02</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="31">
+        <v>10</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="69">
+        <v>0.99375000000000002</v>
+      </c>
+      <c r="F12" s="38">
+        <v>1301.94</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="31">
+        <v>11</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="69">
+        <v>0.99444444444444446</v>
+      </c>
+      <c r="F13" s="38">
+        <v>1333.59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="31">
+        <v>12</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="69">
+        <v>0.99444444444444446</v>
+      </c>
+      <c r="F14" s="38">
+        <v>1634.38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="31">
+        <v>13</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="69">
+        <v>0.99513888888888891</v>
+      </c>
+      <c r="F15" s="38">
+        <v>1367.9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="31">
+        <v>14</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="69">
+        <v>0.99652777777777779</v>
+      </c>
+      <c r="F16" s="38">
+        <v>1582.96</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="31">
+        <v>15</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="69">
+        <v>0.99652777777777779</v>
+      </c>
+      <c r="F17" s="38">
+        <v>232.22300000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="31">
+        <v>16</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="69">
+        <v>0.99791666666666667</v>
+      </c>
+      <c r="F18" s="38">
+        <v>1725.1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="31">
+        <v>17</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="69">
+        <v>0.99791666666666667</v>
+      </c>
+      <c r="F19" s="38">
+        <v>1159.02</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="31">
+        <v>18</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="69">
+        <v>0.99861111111111101</v>
+      </c>
+      <c r="F20" s="38">
+        <v>1439.9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="31">
+        <v>19</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="69">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="F21" s="38">
+        <v>1278.45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="31">
+        <v>20</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="69">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="F22" s="38">
+        <v>1482.93</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="31">
+        <v>21</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="69">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="F23" s="38">
+        <v>2704.79</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="31">
+        <v>22</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="69">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="F24" s="38">
+        <v>1224.02</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="31">
+        <v>23</v>
+      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="38"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="31">
+        <v>24</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="69">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="F26" s="38">
+        <v>2362.75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="31">
+        <v>25</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="69">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="F27" s="38">
+        <v>1312.92</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="31">
+        <v>26</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="69">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="F28" s="38">
+        <v>1588.32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="31">
+        <v>27</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="69">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="F29" s="38">
+        <v>1176.8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="31">
+        <v>28</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="38"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="31">
+        <v>29</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="31">
+        <v>30</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" s="69">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="F32" s="38">
+        <v>2578.5300000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="31">
+        <v>31</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="69">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="F33" s="38">
+        <v>1613.73</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="31">
+        <v>32</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="69">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="F34" s="38">
+        <v>1137.2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="31">
+        <v>33</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="69">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="F35" s="38">
+        <v>406.83800000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="31">
+        <v>34</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="69">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="F36" s="38">
+        <v>1002.55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="31">
+        <v>35</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="69">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="F37" s="38">
+        <v>1184.5999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="31">
+        <v>36</v>
+      </c>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="38"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="31">
+        <v>37</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="69">
+        <v>1.2499999999999999E-2</v>
+      </c>
+      <c r="F39" s="38">
+        <v>1660.13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="31">
+        <v>38</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="69">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="F40" s="38">
+        <v>3385.18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="31">
+        <v>40</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41" s="69">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="F41" s="38">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="31">
+        <v>41</v>
+      </c>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="38"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="31">
+        <v>42</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="69">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="F43" s="38">
+        <v>3076.39</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="31">
+        <v>43</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="69">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="F44" s="38">
+        <v>2658.12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="31">
+        <v>44</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="69">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F45" s="38">
+        <v>2271.42</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="31">
+        <v>45</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="69">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="F46" s="38">
+        <v>1042.93</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="31">
+        <v>46</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="69">
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="F47" s="38">
+        <v>1186.75</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="31">
+        <v>47</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="69">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="F48" s="38">
+        <v>1546.48</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="31">
+        <v>48</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="69">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="F49" s="38">
+        <v>1415.33</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="31">
+        <v>49</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="69">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="F50" s="38">
+        <v>957.48800000000006</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="31">
+        <v>50</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="69">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="F51" s="38">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="31">
+        <v>51</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="69">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="F52" s="38">
+        <v>1158.23</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="31">
+        <v>52</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="69">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="F53" s="38">
+        <v>2019.89</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="31">
+        <v>53</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" s="69">
+        <v>2.2916666666666669E-2</v>
+      </c>
+      <c r="F54" s="38">
+        <v>2603.5300000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="31">
+        <v>54</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="69">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="F55" s="38">
+        <v>2571.67</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="31">
+        <v>55</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="69">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="F56" s="38">
+        <v>2001.62</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="31">
+        <v>56</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="69">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="F57" s="38">
+        <v>1743.34</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="31">
+        <v>57</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="69">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="F58" s="38">
+        <v>1793.95</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="31">
+        <v>58</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" s="69">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="F59" s="38">
+        <v>2049.79</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="31">
+        <v>59</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" s="69">
+        <v>2.7083333333333334E-2</v>
+      </c>
+      <c r="F60" s="38">
+        <v>1477.52</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="31">
+        <v>60</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" s="69">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="F61" s="38">
+        <v>6482.81</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="31">
+        <v>61</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" s="69">
+        <v>2.8472222222222222E-2</v>
+      </c>
+      <c r="F62" s="38">
+        <v>1823.7</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="31">
+        <v>62</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" s="69">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="F63" s="38">
+        <v>1329.35</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="31">
+        <v>63</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" s="69">
+        <v>2.9861111111111113E-2</v>
+      </c>
+      <c r="F64" s="38">
+        <v>1452.32</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="31">
+        <v>64</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" s="69">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="F65" s="38">
+        <v>2788.96</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="31">
+        <v>65</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E66" s="69">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="F66" s="38">
+        <v>1909.88</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="31">
+        <v>66</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" s="69">
+        <v>3.1944444444444449E-2</v>
+      </c>
+      <c r="F67" s="38">
+        <v>2311.71</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="31">
+        <v>67</v>
+      </c>
+      <c r="C68" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E68" s="69">
+        <v>3.2638888888888891E-2</v>
+      </c>
+      <c r="F68" s="38">
+        <v>1073.04</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="31">
+        <v>68</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" s="69">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="F69" s="38">
+        <v>2633.67</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="31">
+        <v>69</v>
+      </c>
+      <c r="C70" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" s="69">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="F70" s="38">
+        <v>1655.03</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="31">
+        <v>70</v>
+      </c>
+      <c r="C71" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" s="69">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="F71" s="38">
+        <v>2733.89</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="31">
+        <v>71</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E72" s="69">
+        <v>3.5416666666666666E-2</v>
+      </c>
+      <c r="F72" s="38">
+        <v>1872.99</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="31">
+        <v>72</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D73" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E73" s="69">
+        <v>3.6111111111111115E-2</v>
+      </c>
+      <c r="F73" s="38">
+        <v>2393.9699999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="31">
+        <v>73</v>
+      </c>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="38"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="31">
+        <v>74</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D75" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E75" s="69">
+        <v>3.6805555555555557E-2</v>
+      </c>
+      <c r="F75" s="38">
+        <v>934.75599999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="31">
+        <v>75</v>
+      </c>
+      <c r="C76" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D76" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E76" s="69">
+        <v>3.8194444444444441E-2</v>
+      </c>
+      <c r="F76" s="38">
+        <v>1685.04</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="31">
+        <v>76</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D77" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E77" s="69">
+        <v>3.8194444444444441E-2</v>
+      </c>
+      <c r="F77" s="38">
+        <v>1454.24</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="31">
+        <v>77</v>
+      </c>
+      <c r="C78" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D78" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E78" s="69">
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="F78" s="38">
+        <v>2001.13</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="31">
+        <v>78</v>
+      </c>
+      <c r="C79" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D79" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E79" s="69">
+        <v>4.027777777777778E-2</v>
+      </c>
+      <c r="F79" s="38">
+        <v>2288.11</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="31">
+        <v>79</v>
+      </c>
+      <c r="C80" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D80" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E80" s="69">
+        <v>4.027777777777778E-2</v>
+      </c>
+      <c r="F80" s="38">
+        <v>2301.0700000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="31">
+        <v>80</v>
+      </c>
+      <c r="C81" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E81" s="69">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F81" s="38">
+        <v>1210.33</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="31">
+        <v>81</v>
+      </c>
+      <c r="C82" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E82" s="69">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="F82" s="38">
+        <v>1271.8</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="31">
+        <v>82</v>
+      </c>
+      <c r="C83" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E83" s="69">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="F83" s="38">
+        <v>1386.81</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="31">
+        <v>83</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D84" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E84" s="69">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="F84" s="38">
+        <v>2077.25</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="31">
+        <v>84</v>
+      </c>
+      <c r="C85" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D85" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E85" s="69">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="F85" s="38">
+        <v>1274.3800000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="31">
+        <v>85</v>
+      </c>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="38"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="31">
+        <v>86</v>
+      </c>
+      <c r="C87" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D87" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E87" s="69">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="F87" s="38">
+        <v>2924.71</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="31">
+        <v>87</v>
+      </c>
+      <c r="C88" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D88" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E88" s="69">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="F88" s="38">
+        <v>976.95</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="31">
+        <v>88</v>
+      </c>
+      <c r="C89" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D89" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E89" s="69">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="F89" s="38">
+        <v>2789.55</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="31">
+        <v>89</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D90" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E90" s="69">
+        <v>4.7916666666666663E-2</v>
+      </c>
+      <c r="F90" s="38">
+        <v>231.119</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="31">
+        <v>90</v>
+      </c>
+      <c r="C91" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D91" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E91" s="69">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="F91" s="38">
+        <v>3872.2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="31">
+        <v>91</v>
+      </c>
+      <c r="C92" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D92" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E92" s="69">
+        <v>4.9305555555555554E-2</v>
+      </c>
+      <c r="F92" s="38">
+        <v>2113.52</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="31">
+        <v>92</v>
+      </c>
+      <c r="C93" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D93" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E93" s="69">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="F93" s="38">
+        <v>1944.21</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="31">
+        <v>93</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D94" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E94" s="69">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="F94" s="38">
+        <v>1357.15</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="31">
+        <v>94</v>
+      </c>
+      <c r="C95" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D95" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E95" s="69">
+        <v>5.1388888888888894E-2</v>
+      </c>
+      <c r="F95" s="38">
+        <v>2398.73</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="31">
+        <v>95</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D96" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E96" s="69">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="F96" s="38">
+        <v>2680.58</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="31">
+        <v>96</v>
+      </c>
+      <c r="C97" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D97" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E97" s="69">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="F97" s="38">
+        <v>1382.75</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="31">
+        <v>97</v>
+      </c>
+      <c r="C98" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D98" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E98" s="69">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="F98" s="38">
+        <v>1957.42</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="31">
+        <v>98</v>
+      </c>
+      <c r="C99" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D99" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E99" s="69">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="F99" s="38">
+        <v>1313.27</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="31">
+        <v>99</v>
+      </c>
+      <c r="C100" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D100" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E100" s="69">
+        <v>5.486111111111111E-2</v>
+      </c>
+      <c r="F100" s="38">
+        <v>2213.14</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="31">
+        <v>100</v>
+      </c>
+      <c r="C101" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D101" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E101" s="69">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F101" s="38">
+        <v>1691.13</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="31">
+        <v>101</v>
+      </c>
+      <c r="C102" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D102" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E102" s="69">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="F102" s="38">
+        <v>3058.34</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="31">
+        <v>102</v>
+      </c>
+      <c r="C103" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D103" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E103" s="69">
+        <v>5.6944444444444443E-2</v>
+      </c>
+      <c r="F103" s="38">
+        <v>338.59399999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="70">
+        <v>103</v>
+      </c>
+      <c r="C104" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="D104" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="E104" s="72">
+        <v>5.7638888888888885E-2</v>
+      </c>
+      <c r="F104" s="73">
+        <v>2482.0700000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<p:Policy xmlns:p="office.server.policy" id="" local="true">
-  <p:Name>SurgicEye WordTemplate</p:Name>
-  <p:Description/>
-  <p:Statement/>
-  <p:PolicyItems>
-    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Barcode" staticId="0x01010074A3F29CB79E8A41A92E73E19AE321CB00098C261D3F46DB49AEA371869FEC377C|-708099503" UniqueId="ce4bdff9-6a71-4ace-b157-8544c435bac6">
-      <p:Name>Barcodes</p:Name>
-      <p:Description>Generates unique identifiers that can be inserted in Microsoft Office documents. Barcodes can also be used to search for documents.</p:Description>
-      <p:CustomData>
-        <barcode/>
-      </p:CustomData>
-    </p:PolicyItem>
-    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.PolicyLabel" staticId="0x01010074A3F29CB79E8A41A92E73E19AE321CB00098C261D3F46DB49AEA371869FEC377C|801092262" UniqueId="22cbd58b-60ad-4bbd-a15c-010122a0c718">
-      <p:Name>Labels</p:Name>
-      <p:Description>Generates labels that can be inserted in Microsoft Office documents to ensure that document properties or other important information are included when documents are printed. Labels can also be used to search for documents.</p:Description>
-      <p:CustomData>
-        <label>
-          <segment type="metadata">_UIVersionString</segment>
-        </label>
-      </p:CustomData>
-    </p:PolicyItem>
-  </p:PolicyItems>
-</p:Policy>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="SurgicEye WordTemplate" ma:contentTypeID="0x01010074A3F29CB79E8A41A92E73E19AE321CB00098C261D3F46DB49AEA371869FEC377C" ma:contentTypeVersion="17" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="d27efd9bfa2cf0dc081f61d6777772ee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e2656bbd-0e15-4aa0-af00-25744e385561" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53fececc5845ce19907e3af2573e5d2e" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -9915,40 +11606,59 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAB86876-AAC8-4339-8E74-E0DFE2CA9AC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="e2656bbd-0e15-4aa0-af00-25744e385561"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<p:Policy xmlns:p="office.server.policy" id="" local="true">
+  <p:Name>SurgicEye WordTemplate</p:Name>
+  <p:Description/>
+  <p:Statement/>
+  <p:PolicyItems>
+    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Barcode" staticId="0x01010074A3F29CB79E8A41A92E73E19AE321CB00098C261D3F46DB49AEA371869FEC377C|-708099503" UniqueId="ce4bdff9-6a71-4ace-b157-8544c435bac6">
+      <p:Name>Barcodes</p:Name>
+      <p:Description>Generates unique identifiers that can be inserted in Microsoft Office documents. Barcodes can also be used to search for documents.</p:Description>
+      <p:CustomData>
+        <barcode/>
+      </p:CustomData>
+    </p:PolicyItem>
+    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.PolicyLabel" staticId="0x01010074A3F29CB79E8A41A92E73E19AE321CB00098C261D3F46DB49AEA371869FEC377C|801092262" UniqueId="22cbd58b-60ad-4bbd-a15c-010122a0c718">
+      <p:Name>Labels</p:Name>
+      <p:Description>Generates labels that can be inserted in Microsoft Office documents to ensure that document properties or other important information are included when documents are printed. Labels can also be used to search for documents.</p:Description>
+      <p:CustomData>
+        <label>
+          <segment type="metadata">_UIVersionString</segment>
+        </label>
+      </p:CustomData>
+    </p:PolicyItem>
+  </p:PolicyItems>
+</p:Policy>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3611D48C-6B4F-4CD9-8579-A2A41CE94ADA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37A933A0-2E29-4D82-A4A8-6FECA8CC0598}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="office.server.policy"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DLCPolicyLabelClientValue xmlns="e2656bbd-0e15-4aa0-af00-25744e385561">{_UIVersionString}</DLCPolicyLabelClientValue>
+    <_dlc_BarcodeImage xmlns="e2656bbd-0e15-4aa0-af00-25744e385561">iVBORw0KGgoAAAANSUhEUgAAAYIAAABtCAYAAACsn2ZqAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAABp9SURBVHhe7ZvBihzbsiz3///0eeiBgeGE54qsTA0uSgMfWLt3aA2aqpH++9/Hx8fHxz/N90Xw8fHx8Y/zfRF8fHx8/ON8XwQfHx8f/zjfF8HHx8fHP873RfDx8fHxj/P6F8F///33/zORHe7ApgNvWjdx2uIOnNy0rQNPuwnvc7d1B9JN2zqwdWciO+9bB97c6Ux2W3cg3Zy2uAObbqJtHWjuQLrxPne/ujORXXMH0k3bOrDp3ub1i1cPzQ53YNOBN62bOG1xB05u2taBp92E97nbugPppm0d2LozkZ33rQNv7nQmu607kG5OW9yBTTfRtg40dyDdeJ+7X92ZyK65A+mmbR3YdG/z+sWrh2aHO7DpwJvWTZy2uAMnN23rwNNuwvvcbd2BdNO2DmzdmcjO+9aBN3c6k93WHUg3py3uwKabaFsHmjuQbrzP3a/uTGTX3IF007YObLq3ef3i1UOzwx3YdOBN6yZOW9yBk5u2deBpN+F97rbuQLppWwe27kxk533rwJs7nclu6w6km9MWd2DTTbStA80dSDfe5+5Xdyaya+5AumlbBzbd27x+8eqh2eEObDrwpnUTpy3uwMlN2zrwtJvwPndbdyDdtK0DW3cmsvO+deDNnc5kt3UH0s1pizuw6Sba1oHmDqQb73P3qzsT2TV3IN20rQOb7m1ev3j10OxwBzYdeNO6idMWd+Dkpm0deNpNeJ+7rTuQbtrWga07E9l53zrw5k5nstu6A+nmtMUd2HQTbetAcwfSjfe5+9WdieyaO5Bu2taBTfc2r1+8emh2uAObDrxp3cRpiztwctO2DjztJrzP3dYdSDdt68DWnYnsvG8deHOnM9lt3YF0c9riDmy6ibZ1oLkD6cb73P3qzkR2zR1IN23rwKZ7m9cvXj00O9yBTQfetG7itMUdOLlpWweedhPe527rDqSbtnVg685Edt63Dry505nstu5AujltcQc23UTbOtDcgXTjfe5+dWciu+YOpJu2dWDTvc3rF68emh3uwKYDb1o3cdriDpzctK0DT7sJ73O3dQfSTds6sHVnIjvvWwfe3OlMdlt3IN2ctrgDm26ibR1o7kC68T53v7ozkV1zB9JN2zqw6d7m9YtXD80Od2DTgTetmzhtcQdObtrWgafdhPe527oD6aZtHdi6M5Gd960Db+50JrutO5BuTlvcgU030bYONHcg3Xifu1/dmciuuQPppm0d2HRv8/rFq4dmhzuw6cCb1k2ctrgDJzdt68DTbsL73G3dgXTTtg5s3ZnIzvvWgTd3OpPd1h1IN6ct7sCmm2hbB5o7kG68z92v7kxk19yBdNO2Dmy6t3n94tVDs8Md2HTgTesmTlvcgZObtnXgaTfhfe627kC6aVsHtu5MZOd968CbO53JbusOpJvTFndg0020rQPNHUg33ufuV3cmsmvuQLppWwc23du8fvHqodnhDmw68KZ1E6ct7sDJTds68LSb8D53W3cg3bStA1t3JrLzvnXgzZ3OZLd1B9LNaYs7sOkm2taB5g6kG+9z96s7E9k1dyDdtK0Dm+5tXr949dDscAc2HXjTuonTFnfg5KZtHXjaTXifu607kG7a1oGtOxPZed868OZOZ7LbugPp5rTFHdh0E23rQHMH0o33ufvVnYnsmjuQbtrWgU33Nq9fvHpodrgDmw68ad3EaYs7cHLTtg487Sa8z93WHUg3bevA1p2J7LxvHXhzpzPZbd2BdHPa4g5suom2daC5A+nG+9z96s5Eds0dSDdt68Cme5vXL149NDvcgU0H3rRu4rTFHTi5aVsHnnYT3udu6w6km7Z1YOvORHbetw68udOZ7LbuQLo5bXEHNt1E2zrQ3IF0433ufnVnIrvmDqSbtnVg073N6xevHpod7sCmA29aN3Ha4g6c3LStA0+7Ce9zt3UH0k3bOrB1ZyI771sH3tzpTHZbdyDdnLa4A5tuom0daO5AuvE+d7+6M5FdcwfSTds6sOne5vWLVw/NDndg04E3rZs4bXEHTm7a1oGn3YT3udu6A+mmbR3YujORnfetA2/udCa7rTuQbk5b3IFNN9G2DjR3IN14n7tf3ZnIrrkD6aZtHdh0b/P6xauHZoc7sOnAm9ZNnLa4Ayc3bevA027C+9xt3YF007YObN2ZyM771oE3dzqT3dYdSDenLe7ApptoWweaO5BuvM/dr+5MZNfcgXTTtg5surd5/eLVQ7PDHdh04E3rJk5b3IGTm7Z14Gk34X3utu5AumlbB7buTGTnfevAmzudyW7rDqSb0xZ3YNNNtK0DzR1IN97n7ld3JrJr7kC6aVsHNt3bvH7x6qHZ4Q5sOvCmdROnLe7AyU3bOvC0m/A+d1t3IN20rQNbdyay87514M2dzmS3dQfSzWmLO7DpJtrWgeYOpBvvc/erOxPZNXcg3bStA5vubV6/ePXQ7HAHNh1407qJ0xZ34OSmbR142k14n7utO5Bu2taBrTsT2XnfOvDmTmey27oD6ea0xR3YdBNt60BzB9KN97n71Z2J7Jo7kG7a1oFN9zavX7x6aHa4A5sOvGndxGmLO3By07YOPO0mvM/d1h1IN23rwNadiey8bx14c6cz2W3dgXRz2uIObLqJtnWguQPpxvvc/erORHbNHUg3bevApnub1y9ePTQ73IFNB960buK0xR04uWlbB552E97nbusOpJu2dWDrzkR23rcOvLnTmey27kC6OW1xBzbdRNs60NyBdON97n51ZyK75g6km7Z1YNO9zesXrx6aHe7ApgNvWjdx2uIOnNy0rQNPuwnvc7d1B9JN2zqwdWciO+9bB97c6Ux2W3cg3Zy2uAObbqJtHWjuQLrxPne/ujORXXMH0k3bOrDp3ub1i1cPzQ53YNOBN62bOG1xB05u2taBp92E97nbugPppm0d2LozkZ33rQNv7nQmu607kG5OW9yBTTfRtg40dyDdeJ+7X92ZyK65A+mmbR3YdG/z+sWrh2aHO7DpwJvWTZy2uAMnN23rwNNuwvvcbd2BdNO2DmzdmcjO+9aBN3c6k93WHUg3py3uwKabaFsHmjuQbrzP3a/uTGTX3IF007YObLq3ef3i1UOzwx3YdOBN6yZOW9yBk5u2deBpN+F97rbuQLppWwe27kxk533rwJs7nclu6w6km9MWd2DTTbStA80dSDfe5+5Xdyaya+5AumlbBzbd27x+8eqh2eEObDrwpnUTpy3uwMlN2zrwtJvwPndbdyDdtK0DW3cmsvO+deDNnc5kt3UH0s1pizuw6Sba1oHmDqQb73P3qzsT2TV3IN20rQOb7m1ev3j10OxwBzYdeNO6idMWd+Dkpm0deNpNeJ+7rTuQbtrWga07E9l53zrw5k5nstu6A+nmtMUd2HQTbetAcwfSjfe5+9WdieyaO5Bu2taBTfc2r1+8emh2uAObDrxp3cRpiztwctO2DjztJrzP3dYdSDdt68DWnYnsvG8deHOnM9lt3YF0c9riDmy6ibZ1oLkD6cb73P3qzkR2zR1IN23rwKZ7m9cvXj00O9yBTQfetG7itMUdOLlpWweedhPe527rDqSbtnVg685Edt63Dry505nstu5AujltcQc23UTbOtDcgXTjfe5+dWciu+YOpJu2dWDTvc3rF68emh3uwKYDb1o3cdriDpzctK0DT7sJ73O3dQfSTds6sHVnIjvvWwfe3OlMdlt3IN2ctrgDm26ibR1o7kC68T53v7ozkV1zB9JN2zqw6d7m9YtXD80Od2DTgTetmzhtcQdObtrWgafdhPe527oD6aZtHdi6M5Gd960Db+50JrutO5BuTlvcgU030bYONHcg3Xifu1/dmciuuQPppm0d2HRv8/rFq4dmhzuw6cCb1k2ctrgDJzdt68DTbsL73G3dgXTTtg5s3ZnIzvvWgTd3OpPd1h1IN6ct7sCmm2hbB5o7kG68z92v7kxk19yBdNO2Dmy6t3n94tVDs8Md2HTgTesmTlvcgZObtnXgaTfhfe627kC6aVsHtu5MZOd968CbO53JbusOpJvTFndg0020rQPNHUg33ufuV3cmsmvuQLppWwc23du8fvHqodnhDmw68KZ1E6ct7sDJTds68LSb8D53W3cg3bStA1t3JrLzvnXgzZ3OZLd1B9LNaYs7sOkm2taB5g6kG+9z96s7E9k1dyDdtK0Dm+5tXr949dDscAc2HXjTuonTFnfg5KZtHXjaTXifu607kG7a1oGtOxPZed868OZOZ7LbugPp5rTFHdh0E23rQHMH0o33ufvVnYnsmjuQbtrWgU33Nq9fvHpodrgDmw68ad3EaYs7cHLTtg487Sa8z93WHUg3bevA1p2J7LxvHXhzpzPZbd2BdHPa4g5suom2daC5A+nG+9z96s5Eds0dSDdt68Cme5vXL149NDvcgU0H3rRu4rTFHTi5aVsHnnYT3udu6w6km7Z1YOvORHbetw68udOZ7LbuQLo5bXEHNt1E2zrQ3IF0433ufnVnIrvmDqSbtnVg073N6xevHpod7sCmA29aN3Ha4g6c3LStA0+7Ce9zt3UH0k3bOrB1ZyI771sH3tzpTHZbdyDdnLa4A5tuom0daO5AuvE+d7+6M5FdcwfSTds6sOne5vWLVw/NDndg04E3rZs4bXEHTm7a1oGn3YT3udu6A+mmbR3YujORnfetA2/udCa7rTuQbk5b3IFNN9G2DjR3IN14n7tf3ZnIrrkD6aZtHdh0b/P6xauHZoc7sOnAm9ZNnLa4Ayc3bevA027C+9xt3YF007YObN2ZyM771oE3dzqT3dYdSDenLe7ApptoWweaO5BuvM/dr+5MZNfcgXTTtg5surd5/eLVQ7PDHdh04E3rJk5b3IGTm7Z14Gk34X3utu5AumlbB7buTGTnfevAmzudyW7rDqSb0xZ3YNNNtK0DzR1IN97n7ld3JrJr7kC6aVsHNt3bvH7x6qHZ4Q5sOvCmdROnLe7AyU3bOvC0m/A+d1t3IN20rQNbdyay87514M2dzmS3dQfSzWmLO7DpJtrWgeYOpBvvc/erOxPZNXcg3bStA5vubV6/ePXQ7HAHNh1407qJ0xZ34OSmbR142k14n7utO5Bu2taBrTsT2XnfOvDmTmey27oD6ea0xR3YdBNt60BzB9KN97n71Z2J7Jo7kG7a1oFN9zavX7x6aHa4A5sOvGndxGmLO3By07YOPO0mvM/d1h1IN23rwNadiey8bx14c6cz2W3dgXRz2uIObLqJtnWguQPpxvvc/erORHbNHUg3bevApnub1y9ePTQ73IFNB960buK0xR04uWlbB552E97nbusOpJu2dWDrzkR23rcOvLnTmey27kC6OW1xBzbdRNs60NyBdON97n51ZyK75g6km7Z1YNO9zesXrx6aHe7ApgNvWjdx2uIOnNy0rQNPuwnvc7d1B9JN2zqwdWciO+9bB97c6Ux2W3cg3Zy2uAObbqJtHWjuQLrxPne/ujORXXMH0k3bOrDp3ub1i1cPzQ53YNOBN62bOG1xB05u2taBp92E97nbugPppm0d2LozkZ33rQNv7nQmu607kG5OW9yBTTfRtg40dyDdeJ+7X92ZyK65A+mmbR3YdG/z+sWrh2aHO7DpwJvWTZy2uAMnN23rwNNuwvvcbd2BdNO2DmzdmcjO+9aBN3c6k93WHUg3py3uwKabaFsHmjuQbrzP3a/uTGTX3IF007YObLq3ef3i1UOzwx3YdOBN6yZOW9yBk5u2deBpN+F97rbuQLppWwe27kxk533rwJs7nclu6w6km9MWd2DTTbStA80dSDfe5+5Xdyaya+5AumlbBzbd27x+8eqh2eEObDrwpnUTpy3uwMlN2zrwtJvwPndbdyDdtK0DW3cmsvO+deDNnc5kt3UH0s1pizuw6Sba1oHmDqQb73P3qzsT2TV3IN20rQOb7m1ev3j10OxwBzYdeNO6idMWd+Dkpm0deNpNeJ+7rTuQbtrWga07E9l53zrw5k5nstu6A+nmtMUd2HQTbetAcwfSjfe5+9WdieyaO5Bu2taBTfc2r1+8emh2uAObDrxp3cRpiztwctO2DjztJrzP3dYdSDdt68DWnYnsvG8deHOnM9lt3YF0c9riDmy6ibZ1oLkD6cb73P3qzkR2zR1IN23rwKZ7m9cvXj00O9yBTQfetG7itMUdOLlpWweedhPe527rDqSbtnVg685Edt63Dry505nstu5AujltcQc23UTbOtDcgXTjfe5+dWciu+YOpJu2dWDTvc3rF68emh3uwKYDb1o3cdriDpzctK0DT7sJ73O3dQfSTds6sHVnIjvvWwfe3OlMdlt3IN2ctrgDm26ibR1o7kC68T53v7ozkV1zB9JN2zqw6d7m9YtXD80Od2DTgTetmzhtcQdObtrWgafdhPe527oD6aZtHdi6M5Gd960Db+50JrutO5BuTlvcgU030bYONHcg3Xifu1/dmciuuQPppm0d2HRv8/rFq4dmhzuw6cCb1k2ctrgDJzdt68DTbsL73G3dgXTTtg5s3ZnIzvvWgTd3OpPd1h1IN6ct7sCmm2hbB5o7kG68z92v7kxk19yBdNO2Dmy6t3n94tVDs8Md2HTgTesmTlvcgZObtnXgaTfhfe627kC6aVsHtu5MZOd968CbO53JbusOpJvTFndg0020rQPNHUg33ufuV3cmsmvuQLppWwc23du8fvHqodnhDmw68KZ1E6ct7sDJTds68LSb8D53W3cg3bStA1t3JrLzvnXgzZ3OZLd1B9LNaYs7sOkm2taB5g6kG+9z96s7E9k1dyDdtK0Dm+5tXr949dDscAc2HXjTuonTFnfg5KZtHXjaTXifu607kG7a1oGtOxPZed868OZOZ7LbugPp5rTFHdh0E23rQHMH0o33ufvVnYnsmjuQbtrWgU33Nq9fvHpodrgDmw68ad3EaYs7cHLTtg487Sa8z93WHUg3bevA1p2J7LxvHXhzpzPZbd2BdHPa4g5suom2daC5A+nG+9z96s5Eds0dSDdt68Cme5vXL149NDvcgU0H3rRu4rTFHTi5aVsHnnYT3udu6w6km7Z1YOvORHbetw68udOZ7LbuQLo5bXEHNt1E2zrQ3IF0433ufnVnIrvmDqSbtnVg073N6xevHpod7sCmA29aN3Ha4g6c3LStA0+7Ce9zt3UH0k3bOrB1ZyI771sH3tzpTHZbdyDdnLa4A5tuom0daO5AuvE+d7+6M5FdcwfSTds6sOne5vWLVw/NDndg04E3rZs4bXEHTm7a1oGn3YT3udu6A+mmbR3YujORnfetA2/udCa7rTuQbk5b3IFNN9G2DjR3IN14n7tf3ZnIrrkD6aZtHdh0b/P6xauHZoc7sOnAm9ZNnLa4Ayc3bevA027C+9xt3YF007YObN2ZyM771oE3dzqT3dYdSDenLe7ApptoWweaO5BuvM/dr+5MZNfcgXTTtg5surd5/eLVQ7PDHdh04E3rJk5b3IGTm7Z14Gk34X3utu5AumlbB7buTGTnfevAmzudyW7rDqSb0xZ3YNNNtK0DzR1IN97n7ld3JrJr7kC6aVsHNt3bvH7x6qHZ4Q5sOvCmdROnLe7AyU3bOvC0m/A+d1t3IN20rQNbdyay87514M2dzmS3dQfSzWmLO7DpJtrWgeYOpBvvc/erOxPZNXcg3bStA5vubV6/ePXQ7HAHNh1407qJ0xZ34OSmbR142k14n7utO5Bu2taBrTsT2XnfOvDmTmey27oD6ea0xR3YdBNt60BzB9KN97n71Z2J7Jo7kG7a1oFN9zavX7x6aHa4A5sOvGndxGmLO3By07YOPO0mvM/d1h1IN23rwNadiey8bx14c6cz2W3dgXRz2uIObLqJtnWguQPpxvvc/erORHbNHUg3bevApnub1y9ePTQ73IFNB960buK0xR04uWlbB552E97nbusOpJu2dWDrzkR23rcOvLnTmey27kC6OW1xBzbdRNs60NyBdON97n51ZyK75g6km7Z1YNO9zesXrx6aHe7ApgNvWjdx2uIOnNy0rQNPuwnvc7d1B9JN2zqwdWciO+9bB97c6Ux2W3cg3Zy2uAObbqJtHWjuQLrxPne/ujORXXMH0k3bOrDp3ub1i1cPzQ53YNOBN62bOG1xB05u2taBp92E97nbugPppm0d2LozkZ33rQNv7nQmu607kG5OW9yBTTfRtg40dyDdeJ+7X92ZyK65A+mmbR3YdG/z+sWrh2aHO7DpwJvWTZy2uAMnN23rwNNuwvvcbd2BdNO2DmzdmcjO+9aBN3c6k93WHUg3py3uwKabaFsHmjuQbrzP3a/uTGTX3IF007YObLq3ef/ix8fHx8f/Kb4vgo+Pj49/nO+L4OPj4+Mf5/si+Pj4+PjH+b4IPj4+Pv5xvi+Cj4+Pj3+c74vg4+Pj4x/n+yL4+Pj4+Mf5vgg+/irtP7/wH2OmwNQRc9XBWxu46k93snfMVffx8SbfX9fHX+XuB5j3m9+dNvmztzamdb/+W8nmzsfHW3x/WR9/hT8fWmRLbk+/e9XTbTZX5OaPk+Tqnrur3Yknv/vx0fj+qj7+Knc+uHJ7+t2rnm6zuaJtpp9v/63Nv9t48rsfH43vr+rjr7L94Jp2f36WSU4/m3q46v7wy+9OP8+f/fHMljvbj48t31/Vx19l+8H1ZPfnZ46Z9jB17U5yuru9A5vd9tbHx12+v6yPv8rf+IDzfvrd/FnbTD83V33r2r+14Zd/7+PjDb6/ro+/yuYD7O6HHPs7H5x/3OFnJ9pm+vnVvbf/rY+PN/n+wj7+KqcPsV8+5Pidq9/d3H2ymX7+N96z+b2Pj6d8f2Uff5XTB9kvH3T8ztXvvvXvtt308yfv+UNuNr/z8fEG31/ax1/lyYfj1G8+LN+4+4erO63b3Pl18/Hxt/j+2j7+Cn8+yDLJ9LPkdOMPp82ph80uN9Pu1P/htMne+fh4m++v6uPj4+Mf5/si+Pj4+PjH+b4IPj4+Pv5xvi+Cj4+Pj3+c74vg4+Pj4x/n+yL4+Pj4+Mf5vgg+Pj4+/nG+L4KPj4+Pf5r//e//AYQWEYJwHQKsAAAAAElFTkSuQmCC</_dlc_BarcodeImage>
+    <DLCPolicyLabelLock xmlns="e2656bbd-0e15-4aa0-af00-25744e385561" xsi:nil="true"/>
+    <_dlc_BarcodeValue xmlns="e2656bbd-0e15-4aa0-af00-25744e385561">1758931852</_dlc_BarcodeValue>
+    <_dlc_BarcodePreview xmlns="e2656bbd-0e15-4aa0-af00-25744e385561">
+      <Url>https://surgiceye.sharepoint.com/dev/_layouts/15/barcodeimagefromitem.aspx?ID=419111&amp;list=e2656bbd-0e15-4aa0-af00-25744e385561</Url>
+      <Description>Barcode: 1758931852</Description>
+    </_dlc_BarcodePreview>
+    <DLCPolicyLabelValue xmlns="e2656bbd-0e15-4aa0-af00-25744e385561">0.3</DLCPolicyLabelValue>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8953B42-7F0B-4652-8904-3F0A580F556B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9965,4 +11675,37 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37A933A0-2E29-4D82-A4A8-6FECA8CC0598}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="office.server.policy"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3611D48C-6B4F-4CD9-8579-A2A41CE94ADA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAB86876-AAC8-4339-8E74-E0DFE2CA9AC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e2656bbd-0e15-4aa0-af00-25744e385561"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/kri-evaluation/KRI Liver Segmentation Evaluation v1.xlsx
+++ b/kri-evaluation/KRI Liver Segmentation Evaluation v1.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Master thesis\master\kri-evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FC8D7A-3DC4-41F4-BCB8-75A4C49D7F11}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5C207C-A41B-4DD5-AE76-F190A4A4F93A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2100" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{6ED6B320-4D86-4A56-BF28-9D76D5B68F80}"/>
   </bookViews>
   <sheets>
     <sheet name="kri" sheetId="1" r:id="rId1"/>
-    <sheet name="kriNN" sheetId="3" r:id="rId2"/>
-    <sheet name="etc" sheetId="2" r:id="rId3"/>
-    <sheet name="exported-results" sheetId="4" r:id="rId4"/>
+    <sheet name="kri-nn" sheetId="3" r:id="rId2"/>
+    <sheet name="kri-nn-postpr" sheetId="5" r:id="rId3"/>
+    <sheet name="raw" sheetId="4" r:id="rId4"/>
+    <sheet name="etc" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">kri!$A$1:$F$104</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -222,13 +223,102 @@
     <t>[SIRT]</t>
   </si>
   <si>
-    <t>13.05.2020</t>
+    <t>Automatically computed lowdose</t>
   </si>
   <si>
-    <t>14.05.2020</t>
+    <t>Automatically computed mri</t>
   </si>
   <si>
-    <t>Automatically computed lowdose</t>
+    <t>This is the volumetry computed by the nn without supervision removing all islands in the generated prediction</t>
+  </si>
+  <si>
+    <t>Wrong MR sequence</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NOTES: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Broken volume</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: Slice continuity is broken, maybe error while transfering
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">!!!! : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Means that volume is very wrong but visually prediction is acceptable
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Liver in the other side: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Liver in not usual positions that nn is unfamiliar with</t>
+    </r>
+  </si>
+  <si>
+    <t>ERROR</t>
   </si>
 </sst>
 </file>
@@ -359,7 +449,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -663,6 +753,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -670,7 +827,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -822,6 +979,45 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -867,28 +1063,49 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -898,7 +1115,93 @@
     <cellStyle name="Output" xfId="2" builtinId="21"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1029,19 +1332,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G104" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G104" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:G104" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G104">
     <sortCondition ref="A1:A104"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Volume A" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Volume P" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Modality" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Spalte3" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Spalte4" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Läsionen gut segmentierbar" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Volume A" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Volume P" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Modality" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Spalte3" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Spalte4" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Läsionen gut segmentierbar" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1312,10 +1615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S12" sqref="S2:S12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5580,16 +5880,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFB2F4E-B686-4E60-A852-482BEABCB216}">
   <dimension ref="A1:V192"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P14" sqref="P14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="24"/>
-    <col min="2" max="2" width="10.85546875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" style="21" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="31" customWidth="1"/>
@@ -5752,10 +6051,10 @@
       <c r="P4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="55" t="s">
+      <c r="R4" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="55"/>
+      <c r="S4" s="68"/>
       <c r="U4" s="27" t="s">
         <v>2</v>
       </c>
@@ -5781,16 +6080,8 @@
         <v>ct</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="31">
-        <v>1897.72</v>
-      </c>
-      <c r="G5" s="50">
-        <f>ABS((C5-F5)/C5)</f>
-        <v>5.5461624026696348E-2</v>
-      </c>
-      <c r="H5" s="32">
-        <v>0.89749999999999996</v>
-      </c>
+      <c r="G5" s="50"/>
+      <c r="H5" s="32"/>
       <c r="K5" s="49"/>
       <c r="L5" s="32"/>
       <c r="N5" s="31">
@@ -5803,14 +6094,14 @@
       <c r="R5" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="S5" s="45">
+      <c r="S5" s="45" t="e">
         <f>AVERAGEIFS(G2:G104,G2:G104,"&lt;&gt;0",G2:G104,"&lt;50%")</f>
-        <v>5.5461624026696348E-2</v>
-      </c>
-      <c r="U5" s="61" t="s">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U5" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="58" t="s">
+      <c r="V5" s="71" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5850,8 +6141,8 @@
         <f>STDEV(G2:G104)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U6" s="62"/>
-      <c r="V6" s="59"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="72"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
@@ -5893,12 +6184,12 @@
       <c r="R7" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="S7" s="45">
+      <c r="S7" s="45" t="e">
         <f>AVERAGEIF(H4:H106,"&lt;&gt;0")</f>
-        <v>0.89749999999999996</v>
-      </c>
-      <c r="U7" s="62"/>
-      <c r="V7" s="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U7" s="75"/>
+      <c r="V7" s="72"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
@@ -5940,8 +6231,8 @@
       <c r="P8" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="U8" s="62"/>
-      <c r="V8" s="59"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="72"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
@@ -5980,12 +6271,12 @@
         <f t="shared" si="0"/>
         <v>7.5711987127916255E-2</v>
       </c>
-      <c r="R9" s="55" t="s">
+      <c r="R9" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="S9" s="55"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="65"/>
+      <c r="S9" s="68"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="78"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
@@ -6023,10 +6314,10 @@
         <f>AVERAGEIFS(K2:K104,K2:K104,"&lt;&gt;0",K2:K104,"&lt;30%")</f>
         <v>6.3609986190155884E-2</v>
       </c>
-      <c r="U10" s="61" t="s">
+      <c r="U10" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="V10" s="58" t="s">
+      <c r="V10" s="71" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6074,8 +6365,8 @@
         <f>STDEV(K2:K104)</f>
         <v>0.21826631915929956</v>
       </c>
-      <c r="U11" s="62"/>
-      <c r="V11" s="59"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="72"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
@@ -6121,8 +6412,8 @@
         <f>AVERAGEIF(L4:L106,"&lt;&gt;0")</f>
         <v>0.90393372549019602</v>
       </c>
-      <c r="U12" s="62"/>
-      <c r="V12" s="59"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="72"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
@@ -6155,8 +6446,8 @@
       </c>
       <c r="R13"/>
       <c r="S13"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="59"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="72"/>
     </row>
     <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
@@ -6195,12 +6486,12 @@
         <f t="shared" si="0"/>
         <v>4.6106438980548205E-2</v>
       </c>
-      <c r="R14" s="56" t="s">
+      <c r="R14" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="S14" s="57"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="65"/>
+      <c r="S14" s="70"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="78"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
@@ -6238,10 +6529,10 @@
         <f>AVERAGEIFS(O2:O104,O2:O104,"&lt;&gt;0",O2:O104,"&lt;50%")</f>
         <v>0.12434032373984207</v>
       </c>
-      <c r="U15" s="61" t="s">
+      <c r="U15" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="V15" s="58" t="s">
+      <c r="V15" s="71" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6281,8 +6572,8 @@
         <f>STDEV(O2:O104)</f>
         <v>0.14978376778042762</v>
       </c>
-      <c r="U16" s="62"/>
-      <c r="V16" s="59"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="72"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
@@ -6313,8 +6604,8 @@
         <f t="shared" si="0"/>
         <v>4.5371036467268006E-2</v>
       </c>
-      <c r="U17" s="62"/>
-      <c r="V17" s="59"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="72"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
@@ -6345,8 +6636,8 @@
         <f t="shared" si="0"/>
         <v>0.2329903750414869</v>
       </c>
-      <c r="U18" s="62"/>
-      <c r="V18" s="59"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="72"/>
     </row>
     <row r="19" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
@@ -6377,8 +6668,8 @@
         <f t="shared" si="0"/>
         <v>0.26341668729883638</v>
       </c>
-      <c r="U19" s="63"/>
-      <c r="V19" s="60"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="73"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
@@ -8628,10 +8919,7 @@
         <f>+Table1[[#This Row],[Volume P]]</f>
         <v>0</v>
       </c>
-      <c r="D86" s="3" t="str">
-        <f>+Table1[[#This Row],[Modality]]</f>
-        <v>ct</v>
-      </c>
+      <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="G86" s="39"/>
       <c r="H86" s="40"/>
@@ -9316,10 +9604,10 @@
       <c r="L106" s="32"/>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B107" s="51" t="s">
+      <c r="B107" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C107" s="52"/>
+      <c r="C107" s="65"/>
       <c r="D107" s="47">
         <f>COUNTIF(D2:D104,"=mr")</f>
         <v>55</v>
@@ -9328,13 +9616,13 @@
       <c r="L107" s="32"/>
     </row>
     <row r="108" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="53" t="s">
+      <c r="B108" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="C108" s="54"/>
+      <c r="C108" s="67"/>
       <c r="D108" s="48">
         <f>COUNTIF(D2:D104,"=ct")</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K108" s="50"/>
       <c r="L108" s="32"/>
@@ -9690,18 +9978,18 @@
     <mergeCell ref="R14:S14"/>
   </mergeCells>
   <conditionalFormatting sqref="O2:O104">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="greaterThan">
       <formula>0.2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E104">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="ct">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="ct">
       <formula>NOT(ISERROR(SEARCH("ct",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="MR">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="MR">
       <formula>NOT(ISERROR(SEARCH("MR",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9710,12 +9998,6252 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42050C57-3EF9-4880-B038-A6044C6773F4}">
+  <dimension ref="A1:V192"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="56" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="31" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="37" customWidth="1"/>
+    <col min="8" max="8" width="10" style="38" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" style="21" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="37" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="58" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="21" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="60" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="61" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" style="21" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="21"/>
+    <col min="18" max="18" width="22" style="43" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" style="43" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="21"/>
+    <col min="21" max="21" width="18.28515625" style="21" customWidth="1"/>
+    <col min="22" max="22" width="43.5703125" style="21" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="22"/>
+      <c r="N1" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="56">
+        <f>+kri!A2</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1801.8</v>
+      </c>
+      <c r="C2" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1665.6</v>
+      </c>
+      <c r="D2" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="49"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="3"/>
+      <c r="K2" s="49"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="60">
+        <v>1446.64</v>
+      </c>
+      <c r="O2" s="61">
+        <f>+ABS((N2-C2)/C2)</f>
+        <v>0.13146013448607097</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="56">
+        <f>+kri!A3</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1714.7</v>
+      </c>
+      <c r="C3" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1172.5999999999999</v>
+      </c>
+      <c r="D3" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="31">
+        <v>430.29</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="32">
+        <f>+ABS((C3-F3)/C3)</f>
+        <v>0.63304622207061234</v>
+      </c>
+      <c r="K3" s="49"/>
+      <c r="P3" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56">
+        <f>+kri!A4</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>2263.6</v>
+      </c>
+      <c r="C4" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>2073</v>
+      </c>
+      <c r="D4" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="31">
+        <v>2076.88</v>
+      </c>
+      <c r="G4" s="50"/>
+      <c r="H4" s="32">
+        <f t="shared" ref="H4:H67" si="0">+ABS((C4-F4)/C4)</f>
+        <v>1.8716835504100865E-3</v>
+      </c>
+      <c r="K4" s="49"/>
+      <c r="N4" s="60">
+        <v>1274.3800000000001</v>
+      </c>
+      <c r="O4" s="61">
+        <f t="shared" ref="O4:O68" si="1">+ABS((N4-C4)/C4)</f>
+        <v>0.38524843222383015</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="68"/>
+      <c r="U4" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" s="80"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="56">
+        <f>+kri!A5</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1739.5</v>
+      </c>
+      <c r="C5" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1798</v>
+      </c>
+      <c r="D5" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="31">
+        <v>1813.23</v>
+      </c>
+      <c r="G5" s="50"/>
+      <c r="H5" s="32">
+        <f t="shared" si="0"/>
+        <v>8.4705228031145812E-3</v>
+      </c>
+      <c r="K5" s="49"/>
+      <c r="N5" s="60">
+        <v>1700.1</v>
+      </c>
+      <c r="O5" s="61">
+        <f t="shared" si="1"/>
+        <v>5.4449388209121298E-2</v>
+      </c>
+      <c r="R5" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" s="45" t="e">
+        <f>AVERAGEIFS(G2:G104,G2:G104,"&lt;&gt;0",G2:G104,"&lt;50%")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U5" s="81"/>
+      <c r="V5" s="82"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="56">
+        <f>+kri!A6</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1941.7</v>
+      </c>
+      <c r="C6" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1775.9</v>
+      </c>
+      <c r="D6" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="31">
+        <v>1676.44</v>
+      </c>
+      <c r="G6" s="50"/>
+      <c r="H6" s="32">
+        <f t="shared" si="0"/>
+        <v>5.6005405709780971E-2</v>
+      </c>
+      <c r="K6" s="49"/>
+      <c r="N6" s="60">
+        <v>2171.87</v>
+      </c>
+      <c r="O6" s="61">
+        <f t="shared" si="1"/>
+        <v>0.22296863562137495</v>
+      </c>
+      <c r="R6" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" s="45" t="e">
+        <f>STDEV(G2:G104)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U6" s="81"/>
+      <c r="V6" s="82"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="56">
+        <f>+kri!A7</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1526.8</v>
+      </c>
+      <c r="C7" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1515.4</v>
+      </c>
+      <c r="D7" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="32"/>
+      <c r="J7" s="31">
+        <v>1533.96</v>
+      </c>
+      <c r="K7" s="49">
+        <f t="shared" ref="K7:K63" si="2">+ABS((C7-J7)/C7)</f>
+        <v>1.2247591395011182E-2</v>
+      </c>
+      <c r="L7" s="58">
+        <v>0.94766400000000006</v>
+      </c>
+      <c r="N7" s="60">
+        <v>1383.31</v>
+      </c>
+      <c r="O7" s="61">
+        <f t="shared" si="1"/>
+        <v>8.7165104922792752E-2</v>
+      </c>
+      <c r="R7" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="45">
+        <f>AVERAGEIF(H4:H106,"&lt;&gt;0")</f>
+        <v>0.22855138974856082</v>
+      </c>
+      <c r="U7" s="81"/>
+      <c r="V7" s="82"/>
+    </row>
+    <row r="8" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="56">
+        <f>+kri!A8</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1313.8</v>
+      </c>
+      <c r="C8" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1328.6</v>
+      </c>
+      <c r="D8" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="32"/>
+      <c r="J8" s="31">
+        <v>1512.47</v>
+      </c>
+      <c r="K8" s="49">
+        <f t="shared" si="2"/>
+        <v>0.13839379798283918</v>
+      </c>
+      <c r="L8" s="58">
+        <v>0.869174</v>
+      </c>
+      <c r="N8" s="60">
+        <v>425.411</v>
+      </c>
+      <c r="O8" s="61">
+        <f t="shared" si="1"/>
+        <v>0.67980505795574286</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="U8" s="83"/>
+      <c r="V8" s="84"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="56">
+        <f>+kri!A9</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1304.0999999999999</v>
+      </c>
+      <c r="C9" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1243</v>
+      </c>
+      <c r="D9" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="32"/>
+      <c r="J9" s="31">
+        <v>1277.24</v>
+      </c>
+      <c r="K9" s="49">
+        <f t="shared" si="2"/>
+        <v>2.7546259050683836E-2</v>
+      </c>
+      <c r="L9" s="58">
+        <v>0.88927000000000012</v>
+      </c>
+      <c r="N9" s="60">
+        <v>1329.56</v>
+      </c>
+      <c r="O9" s="61">
+        <f t="shared" si="1"/>
+        <v>6.9637972646822158E-2</v>
+      </c>
+      <c r="R9" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="S9" s="68"/>
+      <c r="U9" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="V9" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="56">
+        <f>+kri!A10</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1620.4</v>
+      </c>
+      <c r="C10" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1516.3</v>
+      </c>
+      <c r="D10" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="50"/>
+      <c r="H10" s="32"/>
+      <c r="K10" s="49"/>
+      <c r="N10" s="60">
+        <v>1462.02</v>
+      </c>
+      <c r="O10" s="61">
+        <f t="shared" si="1"/>
+        <v>3.5797665369649789E-2</v>
+      </c>
+      <c r="R10" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="S10" s="45">
+        <f>AVERAGEIFS(K2:K104,K2:K104,"&lt;&gt;0",K2:K104,"&lt;30%")</f>
+        <v>5.6211703222496072E-2</v>
+      </c>
+      <c r="U10" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="56">
+        <f>+kri!A11</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1357.2</v>
+      </c>
+      <c r="C11" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1330</v>
+      </c>
+      <c r="D11" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="32"/>
+      <c r="J11" s="31">
+        <v>1338.03</v>
+      </c>
+      <c r="K11" s="49">
+        <f t="shared" si="2"/>
+        <v>6.0375939849623859E-3</v>
+      </c>
+      <c r="L11" s="58">
+        <v>0.93800700000000004</v>
+      </c>
+      <c r="N11" s="60">
+        <v>1301.94</v>
+      </c>
+      <c r="O11" s="61">
+        <f t="shared" si="1"/>
+        <v>2.1097744360902216E-2</v>
+      </c>
+      <c r="R11" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="S11" s="45">
+        <f>STDEV(K2:K104)</f>
+        <v>6.5777584983879742E-2</v>
+      </c>
+      <c r="U11" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="V11" s="71" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="56">
+        <f>+kri!A12</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1566.9</v>
+      </c>
+      <c r="C12" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1549.1</v>
+      </c>
+      <c r="D12" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="32"/>
+      <c r="J12" s="31">
+        <v>1494.06</v>
+      </c>
+      <c r="K12" s="49">
+        <f t="shared" si="2"/>
+        <v>3.5530307920728144E-2</v>
+      </c>
+      <c r="L12" s="58">
+        <v>0.92682699999999996</v>
+      </c>
+      <c r="N12" s="60">
+        <v>1333.59</v>
+      </c>
+      <c r="O12" s="61">
+        <f t="shared" si="1"/>
+        <v>0.13911948873539476</v>
+      </c>
+      <c r="R12" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="S12" s="45">
+        <f>AVERAGEIF(L4:L106,"&lt;&gt;0")</f>
+        <v>0.91582571153846171</v>
+      </c>
+      <c r="U12" s="75"/>
+      <c r="V12" s="72"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="56">
+        <f>+kri!A13</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1460.6</v>
+      </c>
+      <c r="C13" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1466.1</v>
+      </c>
+      <c r="D13" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="50"/>
+      <c r="H13" s="32"/>
+      <c r="K13" s="49"/>
+      <c r="N13" s="60">
+        <v>1634.38</v>
+      </c>
+      <c r="O13" s="61">
+        <f t="shared" si="1"/>
+        <v>0.1147807107291455</v>
+      </c>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="72"/>
+    </row>
+    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="56">
+        <f>+kri!A14</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1633.4</v>
+      </c>
+      <c r="C14" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1557.7</v>
+      </c>
+      <c r="D14" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="32"/>
+      <c r="J14" s="31">
+        <v>1700.27</v>
+      </c>
+      <c r="K14" s="49">
+        <f t="shared" si="2"/>
+        <v>9.1525967772998609E-2</v>
+      </c>
+      <c r="L14" s="58">
+        <v>0.87819199999999997</v>
+      </c>
+      <c r="N14" s="60">
+        <v>1367.9</v>
+      </c>
+      <c r="O14" s="61">
+        <f t="shared" si="1"/>
+        <v>0.12184631187006481</v>
+      </c>
+      <c r="R14" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="S14" s="70"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="72"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="56">
+        <f>+kri!A15</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1737.8</v>
+      </c>
+      <c r="C15" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1781.4</v>
+      </c>
+      <c r="D15" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="31">
+        <v>1544.65</v>
+      </c>
+      <c r="G15" s="50"/>
+      <c r="H15" s="32">
+        <f t="shared" si="0"/>
+        <v>0.13290108903109912</v>
+      </c>
+      <c r="K15" s="49"/>
+      <c r="N15" s="60">
+        <v>1582.96</v>
+      </c>
+      <c r="O15" s="61">
+        <f t="shared" si="1"/>
+        <v>0.11139553160435615</v>
+      </c>
+      <c r="R15" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="S15" s="45">
+        <f>AVERAGEIFS(O2:O104,O2:O104,"&lt;&gt;0",O2:O104,"&lt;50%")</f>
+        <v>0.13318251306338436</v>
+      </c>
+      <c r="U15" s="77"/>
+      <c r="V15" s="78"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="56">
+        <f>+kri!A16</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>2186.1</v>
+      </c>
+      <c r="C16" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>2274</v>
+      </c>
+      <c r="D16" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="50"/>
+      <c r="H16" s="32"/>
+      <c r="K16" s="49"/>
+      <c r="N16" s="60">
+        <v>232.22300000000001</v>
+      </c>
+      <c r="O16" s="61">
+        <f t="shared" si="1"/>
+        <v>0.89787906772207571</v>
+      </c>
+      <c r="R16" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="S16" s="46">
+        <f>STDEV(O2:O104)</f>
+        <v>0.18217111603990191</v>
+      </c>
+      <c r="U16" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="V16" s="71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="56">
+        <f>+kri!A17</f>
+        <v>16</v>
+      </c>
+      <c r="B17" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1714.3</v>
+      </c>
+      <c r="C17" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1807.1</v>
+      </c>
+      <c r="D17" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="50"/>
+      <c r="H17" s="32"/>
+      <c r="K17" s="49"/>
+      <c r="N17" s="60">
+        <v>1725.1</v>
+      </c>
+      <c r="O17" s="61">
+        <f t="shared" si="1"/>
+        <v>4.5376570195340603E-2</v>
+      </c>
+      <c r="U17" s="75"/>
+      <c r="V17" s="72"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="56">
+        <f>+kri!A18</f>
+        <v>17</v>
+      </c>
+      <c r="B18" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1512.3</v>
+      </c>
+      <c r="C18" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1506.5</v>
+      </c>
+      <c r="D18" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="31">
+        <v>360.16</v>
+      </c>
+      <c r="G18" s="50"/>
+      <c r="H18" s="32">
+        <f t="shared" si="0"/>
+        <v>0.76092930633919675</v>
+      </c>
+      <c r="K18" s="49"/>
+      <c r="N18" s="60">
+        <v>1159.02</v>
+      </c>
+      <c r="O18" s="61">
+        <f t="shared" si="1"/>
+        <v>0.2306538333886492</v>
+      </c>
+      <c r="U18" s="75"/>
+      <c r="V18" s="72"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="56">
+        <f>+kri!A19</f>
+        <v>18</v>
+      </c>
+      <c r="B19" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1967.4</v>
+      </c>
+      <c r="C19" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>2019.5</v>
+      </c>
+      <c r="D19" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="50"/>
+      <c r="H19" s="32"/>
+      <c r="K19" s="49"/>
+      <c r="N19" s="60">
+        <v>1439.9</v>
+      </c>
+      <c r="O19" s="61">
+        <f t="shared" si="1"/>
+        <v>0.28700173310225296</v>
+      </c>
+      <c r="U19" s="75"/>
+      <c r="V19" s="72"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="56">
+        <f>+kri!A20</f>
+        <v>19</v>
+      </c>
+      <c r="B20" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1742.9</v>
+      </c>
+      <c r="C20" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1613</v>
+      </c>
+      <c r="D20" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="50"/>
+      <c r="H20" s="32"/>
+      <c r="K20" s="49"/>
+      <c r="N20" s="60">
+        <v>1278.45</v>
+      </c>
+      <c r="O20" s="61">
+        <f t="shared" si="1"/>
+        <v>0.20740855548667078</v>
+      </c>
+      <c r="U20" s="77"/>
+      <c r="V20" s="78"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="56">
+        <f>+kri!A21</f>
+        <v>20</v>
+      </c>
+      <c r="B21" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1771.8</v>
+      </c>
+      <c r="C21" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1668.2</v>
+      </c>
+      <c r="D21" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="32"/>
+      <c r="J21" s="31">
+        <v>1681.62</v>
+      </c>
+      <c r="K21" s="49">
+        <f t="shared" ref="K21" si="3">+ABS((C21-J21)/C21)</f>
+        <v>8.0445989689484736E-3</v>
+      </c>
+      <c r="L21" s="58">
+        <v>0.92710000000000004</v>
+      </c>
+      <c r="N21" s="60">
+        <v>1482.93</v>
+      </c>
+      <c r="O21" s="61">
+        <f t="shared" si="1"/>
+        <v>0.11105982496103584</v>
+      </c>
+      <c r="U21" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="V21" s="71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="56">
+        <f>+kri!A22</f>
+        <v>21</v>
+      </c>
+      <c r="B22" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1885.8</v>
+      </c>
+      <c r="C22" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1799</v>
+      </c>
+      <c r="D22" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="32"/>
+      <c r="J22" s="31">
+        <v>1934.24</v>
+      </c>
+      <c r="K22" s="49">
+        <f t="shared" si="2"/>
+        <v>7.5175097276264591E-2</v>
+      </c>
+      <c r="L22" s="58">
+        <v>0.90654899999999994</v>
+      </c>
+      <c r="N22" s="60">
+        <v>2704.79</v>
+      </c>
+      <c r="O22" s="61">
+        <f t="shared" si="1"/>
+        <v>0.50349638688160092</v>
+      </c>
+      <c r="U22" s="75"/>
+      <c r="V22" s="72"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="56">
+        <f>+kri!A23</f>
+        <v>22</v>
+      </c>
+      <c r="B23" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1415.2</v>
+      </c>
+      <c r="C23" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1394.5</v>
+      </c>
+      <c r="D23" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="32"/>
+      <c r="J23" s="31">
+        <v>1276.94</v>
+      </c>
+      <c r="K23" s="49">
+        <f t="shared" si="2"/>
+        <v>8.4302617425600537E-2</v>
+      </c>
+      <c r="L23" s="58">
+        <v>0.9077639999999999</v>
+      </c>
+      <c r="N23" s="60">
+        <v>1224.02</v>
+      </c>
+      <c r="O23" s="61">
+        <f t="shared" si="1"/>
+        <v>0.12225170311939765</v>
+      </c>
+      <c r="U23" s="75"/>
+      <c r="V23" s="72"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="56">
+        <f>+kri!A24</f>
+        <v>23</v>
+      </c>
+      <c r="B24" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1057.5</v>
+      </c>
+      <c r="C24" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1033.5</v>
+      </c>
+      <c r="D24" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="32"/>
+      <c r="J24" s="31">
+        <v>1012.37</v>
+      </c>
+      <c r="K24" s="49">
+        <f t="shared" si="2"/>
+        <v>2.044508950169327E-2</v>
+      </c>
+      <c r="N24" s="31">
+        <v>859.33</v>
+      </c>
+      <c r="O24" s="32">
+        <f t="shared" si="1"/>
+        <v>0.16852443154329944</v>
+      </c>
+      <c r="U24" s="75"/>
+      <c r="V24" s="72"/>
+    </row>
+    <row r="25" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="56">
+        <f>+kri!A25</f>
+        <v>24</v>
+      </c>
+      <c r="B25" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>2002.2</v>
+      </c>
+      <c r="C25" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1941.2</v>
+      </c>
+      <c r="D25" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="50"/>
+      <c r="H25" s="32"/>
+      <c r="K25" s="49"/>
+      <c r="N25" s="60">
+        <v>2362.75</v>
+      </c>
+      <c r="O25" s="61">
+        <f t="shared" si="1"/>
+        <v>0.21715948897589119</v>
+      </c>
+      <c r="U25" s="76"/>
+      <c r="V25" s="73"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="56">
+        <f>+kri!A26</f>
+        <v>25</v>
+      </c>
+      <c r="B26" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1246.4000000000001</v>
+      </c>
+      <c r="C26" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1140.9000000000001</v>
+      </c>
+      <c r="D26" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="32"/>
+      <c r="J26" s="31">
+        <v>1244.6600000000001</v>
+      </c>
+      <c r="K26" s="49">
+        <f t="shared" si="2"/>
+        <v>9.0945744587606264E-2</v>
+      </c>
+      <c r="L26" s="58">
+        <v>0.89823600000000003</v>
+      </c>
+      <c r="N26" s="60">
+        <v>1312.92</v>
+      </c>
+      <c r="O26" s="61">
+        <f t="shared" si="1"/>
+        <v>0.15077570339205887</v>
+      </c>
+      <c r="U26" s="85" t="s">
+        <v>66</v>
+      </c>
+      <c r="V26" s="86"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="56">
+        <f>+kri!A27</f>
+        <v>26</v>
+      </c>
+      <c r="B27" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1578.2</v>
+      </c>
+      <c r="C27" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1481.1</v>
+      </c>
+      <c r="D27" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="32"/>
+      <c r="J27" s="31">
+        <v>1524.13</v>
+      </c>
+      <c r="K27" s="49">
+        <f t="shared" si="2"/>
+        <v>2.9052731078252788E-2</v>
+      </c>
+      <c r="L27" s="58">
+        <v>0.94722499999999998</v>
+      </c>
+      <c r="N27" s="60">
+        <v>1588.32</v>
+      </c>
+      <c r="O27" s="61">
+        <f t="shared" si="1"/>
+        <v>7.2392140976301422E-2</v>
+      </c>
+      <c r="U27" s="87"/>
+      <c r="V27" s="88"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="56">
+        <f>+kri!A28</f>
+        <v>27</v>
+      </c>
+      <c r="B28" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1167.8</v>
+      </c>
+      <c r="C28" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1186.5</v>
+      </c>
+      <c r="D28" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="31">
+        <v>1171.33</v>
+      </c>
+      <c r="G28" s="50"/>
+      <c r="H28" s="32">
+        <f t="shared" si="0"/>
+        <v>1.2785503581963821E-2</v>
+      </c>
+      <c r="K28" s="49"/>
+      <c r="N28" s="60">
+        <v>1176.8</v>
+      </c>
+      <c r="O28" s="61">
+        <f t="shared" si="1"/>
+        <v>8.1753055204383026E-3</v>
+      </c>
+      <c r="U28" s="87"/>
+      <c r="V28" s="88"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="56">
+        <f>+kri!A29</f>
+        <v>28</v>
+      </c>
+      <c r="B29" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>2079.8000000000002</v>
+      </c>
+      <c r="C29" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1888.9</v>
+      </c>
+      <c r="D29" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="32"/>
+      <c r="J29" s="31">
+        <v>2006.6</v>
+      </c>
+      <c r="K29" s="49">
+        <f t="shared" ref="K29" si="4">+ABS((C29-J29)/C29)</f>
+        <v>6.231139816824597E-2</v>
+      </c>
+      <c r="N29" s="31">
+        <v>1977.03</v>
+      </c>
+      <c r="O29" s="32">
+        <f t="shared" si="1"/>
+        <v>4.6656784371856573E-2</v>
+      </c>
+      <c r="U29" s="87"/>
+      <c r="V29" s="88"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="56">
+        <f>+kri!A30</f>
+        <v>29</v>
+      </c>
+      <c r="B30" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1309.4000000000001</v>
+      </c>
+      <c r="C30" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1317.3</v>
+      </c>
+      <c r="D30" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="50"/>
+      <c r="H30" s="32"/>
+      <c r="K30" s="49"/>
+      <c r="N30" s="31">
+        <v>928.03</v>
+      </c>
+      <c r="O30" s="32">
+        <f t="shared" si="1"/>
+        <v>0.29550595915888561</v>
+      </c>
+      <c r="U30" s="87"/>
+      <c r="V30" s="88"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="56">
+        <f>+kri!A31</f>
+        <v>30</v>
+      </c>
+      <c r="B31" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1994.1</v>
+      </c>
+      <c r="C31" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1989.8</v>
+      </c>
+      <c r="D31" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="32"/>
+      <c r="J31" s="31">
+        <v>2030.28</v>
+      </c>
+      <c r="K31" s="49">
+        <f t="shared" si="2"/>
+        <v>2.0343753141019206E-2</v>
+      </c>
+      <c r="L31" s="58">
+        <v>0.94917799999999997</v>
+      </c>
+      <c r="N31" s="60">
+        <v>2578.5300000000002</v>
+      </c>
+      <c r="O31" s="61">
+        <f t="shared" si="1"/>
+        <v>0.2958739571816264</v>
+      </c>
+      <c r="U31" s="87"/>
+      <c r="V31" s="88"/>
+    </row>
+    <row r="32" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="56">
+        <f>+kri!A32</f>
+        <v>31</v>
+      </c>
+      <c r="B32" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1453.5</v>
+      </c>
+      <c r="C32" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1511.3</v>
+      </c>
+      <c r="D32" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="39"/>
+      <c r="H32" s="32"/>
+      <c r="K32" s="49"/>
+      <c r="N32" s="60">
+        <v>1613.73</v>
+      </c>
+      <c r="O32" s="61">
+        <f t="shared" si="1"/>
+        <v>6.7776086812677869E-2</v>
+      </c>
+      <c r="U32" s="89"/>
+      <c r="V32" s="90"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="56">
+        <f>+kri!A33</f>
+        <v>32</v>
+      </c>
+      <c r="B33" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1174.7</v>
+      </c>
+      <c r="C33" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1205.5</v>
+      </c>
+      <c r="D33" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="39"/>
+      <c r="H33" s="32"/>
+      <c r="K33" s="49"/>
+      <c r="N33" s="60">
+        <v>1137.2</v>
+      </c>
+      <c r="O33" s="61">
+        <f t="shared" si="1"/>
+        <v>5.6656988801327211E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="56">
+        <f>+kri!A34</f>
+        <v>33</v>
+      </c>
+      <c r="B34" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1499.6</v>
+      </c>
+      <c r="C34" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1556.7</v>
+      </c>
+      <c r="D34" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="39"/>
+      <c r="H34" s="32"/>
+      <c r="K34" s="49"/>
+      <c r="N34" s="60">
+        <v>406.83800000000002</v>
+      </c>
+      <c r="O34" s="61">
+        <f t="shared" si="1"/>
+        <v>0.73865356202222654</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="56">
+        <f>+kri!A35</f>
+        <v>34</v>
+      </c>
+      <c r="B35" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1339</v>
+      </c>
+      <c r="C35" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1294.5999999999999</v>
+      </c>
+      <c r="D35" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="32"/>
+      <c r="J35" s="31">
+        <v>1336.71</v>
+      </c>
+      <c r="K35" s="49">
+        <f t="shared" si="2"/>
+        <v>3.2527421597404703E-2</v>
+      </c>
+      <c r="L35" s="58">
+        <v>0.93512600000000001</v>
+      </c>
+      <c r="N35" s="60">
+        <v>1002.55</v>
+      </c>
+      <c r="O35" s="61">
+        <f t="shared" si="1"/>
+        <v>0.2255909161130851</v>
+      </c>
+      <c r="P35" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="56">
+        <f>+kri!A36</f>
+        <v>35</v>
+      </c>
+      <c r="B36" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1049</v>
+      </c>
+      <c r="C36" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1109.0999999999999</v>
+      </c>
+      <c r="D36" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="39"/>
+      <c r="H36" s="32"/>
+      <c r="K36" s="49"/>
+      <c r="N36" s="60">
+        <v>1184.5999999999999</v>
+      </c>
+      <c r="O36" s="61">
+        <f t="shared" si="1"/>
+        <v>6.8073212514651524E-2</v>
+      </c>
+      <c r="P36" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="56">
+        <f>+kri!A37</f>
+        <v>36</v>
+      </c>
+      <c r="B37" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1069</v>
+      </c>
+      <c r="C37" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1062.8</v>
+      </c>
+      <c r="D37" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="32"/>
+      <c r="J37" s="31">
+        <v>1109.0999999999999</v>
+      </c>
+      <c r="K37" s="49">
+        <f t="shared" si="2"/>
+        <v>4.35641701166729E-2</v>
+      </c>
+      <c r="L37" s="58">
+        <v>0.93354100000000007</v>
+      </c>
+      <c r="N37" s="31">
+        <v>1117.17</v>
+      </c>
+      <c r="O37" s="32">
+        <f t="shared" si="1"/>
+        <v>5.1157320286036999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="56">
+        <f>+kri!A38</f>
+        <v>37</v>
+      </c>
+      <c r="B38" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1717.5</v>
+      </c>
+      <c r="C38" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1624.4</v>
+      </c>
+      <c r="D38" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="32"/>
+      <c r="J38" s="31">
+        <v>1684.75</v>
+      </c>
+      <c r="K38" s="49">
+        <f t="shared" si="2"/>
+        <v>3.7152179266190535E-2</v>
+      </c>
+      <c r="L38" s="58">
+        <v>0.91717899999999997</v>
+      </c>
+      <c r="N38" s="60">
+        <v>1660.13</v>
+      </c>
+      <c r="O38" s="61">
+        <f t="shared" si="1"/>
+        <v>2.1995813838955932E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="56">
+        <f>+kri!A39</f>
+        <v>38</v>
+      </c>
+      <c r="B39" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>3371.7</v>
+      </c>
+      <c r="C39" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>3489.7</v>
+      </c>
+      <c r="D39" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G39" s="39"/>
+      <c r="H39" s="32"/>
+      <c r="K39" s="49"/>
+      <c r="N39" s="60">
+        <v>3385.18</v>
+      </c>
+      <c r="O39" s="61">
+        <f t="shared" si="1"/>
+        <v>2.9950998653179354E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="56">
+        <f>+kri!A40</f>
+        <v>39</v>
+      </c>
+      <c r="B40" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="38">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="39"/>
+      <c r="H40" s="32"/>
+      <c r="K40" s="49"/>
+      <c r="P40" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="56">
+        <f>+kri!A41</f>
+        <v>40</v>
+      </c>
+      <c r="B41" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1266</v>
+      </c>
+      <c r="C41" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1176.0999999999999</v>
+      </c>
+      <c r="D41" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="32"/>
+      <c r="J41" s="31">
+        <v>1217.24</v>
+      </c>
+      <c r="K41" s="49">
+        <f t="shared" si="2"/>
+        <v>3.4980018705892443E-2</v>
+      </c>
+      <c r="L41" s="58">
+        <v>0.93373500000000009</v>
+      </c>
+      <c r="N41" s="60">
+        <v>1133</v>
+      </c>
+      <c r="O41" s="61">
+        <f t="shared" si="1"/>
+        <v>3.6646543661253222E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="56">
+        <f>+kri!A42</f>
+        <v>41</v>
+      </c>
+      <c r="B42" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>2609.6999999999998</v>
+      </c>
+      <c r="C42" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>2513.1</v>
+      </c>
+      <c r="D42" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="32"/>
+      <c r="J42" s="31">
+        <v>2674.48</v>
+      </c>
+      <c r="K42" s="49">
+        <f t="shared" si="2"/>
+        <v>6.4215510723807295E-2</v>
+      </c>
+      <c r="L42" s="58">
+        <v>0.92842200000000008</v>
+      </c>
+      <c r="N42" s="31">
+        <v>3089.17</v>
+      </c>
+      <c r="O42" s="32">
+        <f t="shared" si="1"/>
+        <v>0.22922685129919232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="56">
+        <f>+kri!A43</f>
+        <v>42</v>
+      </c>
+      <c r="B43" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>2962.4</v>
+      </c>
+      <c r="C43" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>2818.8</v>
+      </c>
+      <c r="D43" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="32"/>
+      <c r="J43" s="31">
+        <v>2161.6999999999998</v>
+      </c>
+      <c r="K43" s="49">
+        <f t="shared" si="2"/>
+        <v>0.23311338158081465</v>
+      </c>
+      <c r="L43" s="58">
+        <v>0.789883</v>
+      </c>
+      <c r="N43" s="60">
+        <v>3076.39</v>
+      </c>
+      <c r="O43" s="61">
+        <f t="shared" si="1"/>
+        <v>9.1382857953739058E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="56">
+        <f>+kri!A44</f>
+        <v>43</v>
+      </c>
+      <c r="B44" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>3499.1</v>
+      </c>
+      <c r="C44" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>3648.8</v>
+      </c>
+      <c r="D44" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="31">
+        <v>2911.33</v>
+      </c>
+      <c r="G44" s="39"/>
+      <c r="H44" s="32">
+        <f t="shared" si="0"/>
+        <v>0.20211302345976764</v>
+      </c>
+      <c r="K44" s="49"/>
+      <c r="N44" s="60">
+        <v>2658.12</v>
+      </c>
+      <c r="O44" s="61">
+        <f t="shared" si="1"/>
+        <v>0.27150844113133094</v>
+      </c>
+      <c r="P44" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="56">
+        <f>+kri!A45</f>
+        <v>44</v>
+      </c>
+      <c r="B45" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>2536</v>
+      </c>
+      <c r="C45" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>2262.6999999999998</v>
+      </c>
+      <c r="D45" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="32"/>
+      <c r="K45" s="49"/>
+      <c r="N45" s="60">
+        <v>2271.42</v>
+      </c>
+      <c r="O45" s="61">
+        <f t="shared" si="1"/>
+        <v>3.8538029787423237E-3</v>
+      </c>
+      <c r="P45" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="56">
+        <f>+kri!A46</f>
+        <v>45</v>
+      </c>
+      <c r="B46" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1298.8</v>
+      </c>
+      <c r="C46" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1299.3</v>
+      </c>
+      <c r="D46" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" s="39"/>
+      <c r="H46" s="32"/>
+      <c r="K46" s="49"/>
+      <c r="N46" s="60">
+        <v>1042.93</v>
+      </c>
+      <c r="O46" s="61">
+        <f t="shared" si="1"/>
+        <v>0.1973139382744554</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="56">
+        <f>+kri!A47</f>
+        <v>46</v>
+      </c>
+      <c r="B47" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1318.9</v>
+      </c>
+      <c r="C47" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1182.5999999999999</v>
+      </c>
+      <c r="D47" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="32"/>
+      <c r="J47" s="31">
+        <v>1224.79</v>
+      </c>
+      <c r="K47" s="49">
+        <f t="shared" si="2"/>
+        <v>3.567562996786746E-2</v>
+      </c>
+      <c r="L47" s="58">
+        <v>0.93404100000000001</v>
+      </c>
+      <c r="N47" s="60">
+        <v>1186.75</v>
+      </c>
+      <c r="O47" s="61">
+        <f t="shared" si="1"/>
+        <v>3.5092169795366912E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="56">
+        <f>+kri!A48</f>
+        <v>47</v>
+      </c>
+      <c r="B48" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1316.5</v>
+      </c>
+      <c r="C48" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1298.4000000000001</v>
+      </c>
+      <c r="D48" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" s="39"/>
+      <c r="H48" s="32"/>
+      <c r="K48" s="49"/>
+      <c r="N48" s="60">
+        <v>1546.48</v>
+      </c>
+      <c r="O48" s="61">
+        <f t="shared" si="1"/>
+        <v>0.19106592729513242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="56">
+        <f>+kri!A49</f>
+        <v>48</v>
+      </c>
+      <c r="B49" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1340.9</v>
+      </c>
+      <c r="C49" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1361.1</v>
+      </c>
+      <c r="D49" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" s="39"/>
+      <c r="H49" s="32"/>
+      <c r="K49" s="49"/>
+      <c r="N49" s="60">
+        <v>1415.33</v>
+      </c>
+      <c r="O49" s="61">
+        <f t="shared" si="1"/>
+        <v>3.9842774226728397E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="56">
+        <f>+kri!A50</f>
+        <v>49</v>
+      </c>
+      <c r="B50" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1291.5999999999999</v>
+      </c>
+      <c r="C50" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1260.3</v>
+      </c>
+      <c r="D50" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="32"/>
+      <c r="J50" s="31">
+        <v>1208.56</v>
+      </c>
+      <c r="K50" s="49">
+        <f t="shared" si="2"/>
+        <v>4.1053717368880437E-2</v>
+      </c>
+      <c r="L50" s="58">
+        <v>0.94564599999999999</v>
+      </c>
+      <c r="N50" s="60">
+        <v>957.48800000000006</v>
+      </c>
+      <c r="O50" s="61">
+        <f t="shared" si="1"/>
+        <v>0.24026977703721328</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="56">
+        <f>+kri!A51</f>
+        <v>50</v>
+      </c>
+      <c r="B51" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1526</v>
+      </c>
+      <c r="C51" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1461.1</v>
+      </c>
+      <c r="D51" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="32"/>
+      <c r="J51" s="31">
+        <v>1437.44</v>
+      </c>
+      <c r="K51" s="49">
+        <f t="shared" si="2"/>
+        <v>1.6193279036342382E-2</v>
+      </c>
+      <c r="L51" s="58">
+        <v>0.94772800000000001</v>
+      </c>
+      <c r="N51" s="60">
+        <v>1346</v>
+      </c>
+      <c r="O51" s="61">
+        <f t="shared" si="1"/>
+        <v>7.8776264458284798E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="56">
+        <f>+kri!A52</f>
+        <v>51</v>
+      </c>
+      <c r="B52" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1494.2</v>
+      </c>
+      <c r="C52" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1521</v>
+      </c>
+      <c r="D52" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="31">
+        <v>204.72800000000001</v>
+      </c>
+      <c r="G52" s="39"/>
+      <c r="H52" s="32">
+        <f t="shared" si="0"/>
+        <v>0.86539907955292561</v>
+      </c>
+      <c r="K52" s="49"/>
+      <c r="N52" s="60">
+        <v>1158.23</v>
+      </c>
+      <c r="O52" s="61">
+        <f t="shared" si="1"/>
+        <v>0.23850756081525312</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="56">
+        <f>+kri!A53</f>
+        <v>52</v>
+      </c>
+      <c r="B53" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>2111.6999999999998</v>
+      </c>
+      <c r="C53" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1361.1</v>
+      </c>
+      <c r="D53" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="31">
+        <v>2132.17</v>
+      </c>
+      <c r="G53" s="39"/>
+      <c r="H53" s="32">
+        <f t="shared" si="0"/>
+        <v>0.56650503269414465</v>
+      </c>
+      <c r="K53" s="49"/>
+      <c r="N53" s="60">
+        <v>2019.89</v>
+      </c>
+      <c r="O53" s="61">
+        <f t="shared" si="1"/>
+        <v>0.48401293071780194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="56">
+        <f>+kri!A54</f>
+        <v>53</v>
+      </c>
+      <c r="B54" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>2898.1</v>
+      </c>
+      <c r="C54" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>3021.9</v>
+      </c>
+      <c r="D54" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G54" s="39"/>
+      <c r="H54" s="32"/>
+      <c r="K54" s="49"/>
+      <c r="N54" s="60">
+        <v>2603.5300000000002</v>
+      </c>
+      <c r="O54" s="61">
+        <f t="shared" si="1"/>
+        <v>0.13844601078791485</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="56">
+        <f>+kri!A55</f>
+        <v>54</v>
+      </c>
+      <c r="B55" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>2171.6999999999998</v>
+      </c>
+      <c r="C55" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>2208.3000000000002</v>
+      </c>
+      <c r="D55" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G55" s="39"/>
+      <c r="H55" s="32"/>
+      <c r="K55" s="49"/>
+      <c r="N55" s="60">
+        <v>2571.67</v>
+      </c>
+      <c r="O55" s="61">
+        <f t="shared" si="1"/>
+        <v>0.16454738939455685</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="56">
+        <f>+kri!A56</f>
+        <v>55</v>
+      </c>
+      <c r="B56" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>2052.6999999999998</v>
+      </c>
+      <c r="C56" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>2070.5</v>
+      </c>
+      <c r="D56" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="32"/>
+      <c r="J56" s="31">
+        <v>1988.71</v>
+      </c>
+      <c r="K56" s="49">
+        <f t="shared" si="2"/>
+        <v>3.950253561941558E-2</v>
+      </c>
+      <c r="L56" s="58">
+        <v>0.948631</v>
+      </c>
+      <c r="N56" s="60">
+        <v>2001.62</v>
+      </c>
+      <c r="O56" s="61">
+        <f t="shared" si="1"/>
+        <v>3.3267326732673318E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="56">
+        <f>+kri!A57</f>
+        <v>56</v>
+      </c>
+      <c r="B57" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1983.6</v>
+      </c>
+      <c r="C57" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1946.3</v>
+      </c>
+      <c r="D57" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="32"/>
+      <c r="J57" s="31">
+        <v>2184.8000000000002</v>
+      </c>
+      <c r="K57" s="49">
+        <f t="shared" si="2"/>
+        <v>0.12254020449057197</v>
+      </c>
+      <c r="L57" s="58">
+        <v>0.88887299999999991</v>
+      </c>
+      <c r="N57" s="60">
+        <v>1743.34</v>
+      </c>
+      <c r="O57" s="61">
+        <f t="shared" si="1"/>
+        <v>0.10427991573755332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="56">
+        <f>+kri!A58</f>
+        <v>57</v>
+      </c>
+      <c r="B58" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1606</v>
+      </c>
+      <c r="C58" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1566.8</v>
+      </c>
+      <c r="D58" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G58" s="39"/>
+      <c r="H58" s="32"/>
+      <c r="K58" s="49"/>
+      <c r="N58" s="60">
+        <v>1793.95</v>
+      </c>
+      <c r="O58" s="61">
+        <f t="shared" si="1"/>
+        <v>0.14497702323206541</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="56">
+        <f>+kri!A59</f>
+        <v>58</v>
+      </c>
+      <c r="B59" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1708.3</v>
+      </c>
+      <c r="C59" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1748.6</v>
+      </c>
+      <c r="D59" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G59" s="39"/>
+      <c r="H59" s="32"/>
+      <c r="K59" s="49"/>
+      <c r="N59" s="60">
+        <v>2049.79</v>
+      </c>
+      <c r="O59" s="61">
+        <f t="shared" si="1"/>
+        <v>0.17224636852339018</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="56">
+        <f>+kri!A60</f>
+        <v>59</v>
+      </c>
+      <c r="B60" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1474.3</v>
+      </c>
+      <c r="C60" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1504.3</v>
+      </c>
+      <c r="D60" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="31">
+        <v>1426.29</v>
+      </c>
+      <c r="G60" s="39"/>
+      <c r="H60" s="32">
+        <f t="shared" si="0"/>
+        <v>5.1858007046466793E-2</v>
+      </c>
+      <c r="K60" s="49"/>
+      <c r="N60" s="60">
+        <v>1477.52</v>
+      </c>
+      <c r="O60" s="61">
+        <f t="shared" si="1"/>
+        <v>1.7802300073123695E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="56">
+        <f>+kri!A61</f>
+        <v>60</v>
+      </c>
+      <c r="B61" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>6568.9</v>
+      </c>
+      <c r="C61" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>6702.5</v>
+      </c>
+      <c r="D61" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="31">
+        <v>1834.13</v>
+      </c>
+      <c r="G61" s="39"/>
+      <c r="H61" s="32">
+        <f t="shared" si="0"/>
+        <v>0.72635136143230139</v>
+      </c>
+      <c r="K61" s="49"/>
+      <c r="P61" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="56">
+        <f>+kri!A62</f>
+        <v>61</v>
+      </c>
+      <c r="B62" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1663.3</v>
+      </c>
+      <c r="C62" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1557.1</v>
+      </c>
+      <c r="D62" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="31">
+        <v>1285.73</v>
+      </c>
+      <c r="G62" s="39"/>
+      <c r="H62" s="32">
+        <f t="shared" si="0"/>
+        <v>0.17427910859931919</v>
+      </c>
+      <c r="K62" s="49"/>
+      <c r="N62" s="60">
+        <v>1823.7</v>
+      </c>
+      <c r="O62" s="61">
+        <f t="shared" si="1"/>
+        <v>0.1712157215336203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="56">
+        <f>+kri!A63</f>
+        <v>62</v>
+      </c>
+      <c r="B63" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1768.6</v>
+      </c>
+      <c r="C63" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1662.8</v>
+      </c>
+      <c r="D63" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="32"/>
+      <c r="J63" s="31">
+        <v>1588.84</v>
+      </c>
+      <c r="K63" s="49">
+        <f t="shared" si="2"/>
+        <v>4.447919172480156E-2</v>
+      </c>
+      <c r="L63" s="58">
+        <v>0.92215800000000003</v>
+      </c>
+      <c r="N63" s="60">
+        <v>1329.35</v>
+      </c>
+      <c r="O63" s="61">
+        <f t="shared" si="1"/>
+        <v>0.20053524176088527</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="56">
+        <f>+kri!A64</f>
+        <v>63</v>
+      </c>
+      <c r="B64" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1697.4</v>
+      </c>
+      <c r="C64" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1639.9</v>
+      </c>
+      <c r="D64" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G64" s="39"/>
+      <c r="H64" s="32"/>
+      <c r="K64" s="49"/>
+      <c r="N64" s="60">
+        <v>1452.32</v>
+      </c>
+      <c r="O64" s="61">
+        <f t="shared" si="1"/>
+        <v>0.11438502347704137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="56">
+        <f>+kri!A65</f>
+        <v>64</v>
+      </c>
+      <c r="B65" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>2427.6999999999998</v>
+      </c>
+      <c r="C65" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>2413.9</v>
+      </c>
+      <c r="D65" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G65" s="39"/>
+      <c r="H65" s="32"/>
+      <c r="K65" s="49"/>
+      <c r="N65" s="60">
+        <v>2788.96</v>
+      </c>
+      <c r="O65" s="61">
+        <f t="shared" si="1"/>
+        <v>0.15537511910186833</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="56">
+        <f>+kri!A66</f>
+        <v>65</v>
+      </c>
+      <c r="B66" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1426.1</v>
+      </c>
+      <c r="C66" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1520.4</v>
+      </c>
+      <c r="D66" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E66" s="3"/>
+      <c r="F66" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G66" s="39"/>
+      <c r="H66" s="32"/>
+      <c r="K66" s="49"/>
+      <c r="N66" s="60">
+        <v>1909.88</v>
+      </c>
+      <c r="O66" s="61">
+        <f t="shared" si="1"/>
+        <v>0.25616942909760587</v>
+      </c>
+      <c r="P66" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="56">
+        <f>+kri!A67</f>
+        <v>66</v>
+      </c>
+      <c r="B67" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>2647.4</v>
+      </c>
+      <c r="C67" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>2494.6</v>
+      </c>
+      <c r="D67" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="32"/>
+      <c r="J67" s="31">
+        <v>2389.33</v>
+      </c>
+      <c r="K67" s="49"/>
+      <c r="L67" s="58">
+        <v>0.94334699999999994</v>
+      </c>
+      <c r="N67" s="60">
+        <v>2311.71</v>
+      </c>
+      <c r="O67" s="61">
+        <f t="shared" si="1"/>
+        <v>7.3314359015473368E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="56">
+        <f>+kri!A68</f>
+        <v>67</v>
+      </c>
+      <c r="B68" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1233.7</v>
+      </c>
+      <c r="C68" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1174.3</v>
+      </c>
+      <c r="D68" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="32"/>
+      <c r="J68" s="31">
+        <v>1361.91</v>
+      </c>
+      <c r="K68" s="49">
+        <f t="shared" ref="K68:K104" si="5">+ABS((C68-J68)/C68)</f>
+        <v>0.15976326322064219</v>
+      </c>
+      <c r="L68" s="58">
+        <v>0.89288100000000004</v>
+      </c>
+      <c r="N68" s="60">
+        <v>1073.04</v>
+      </c>
+      <c r="O68" s="61">
+        <f t="shared" si="1"/>
+        <v>8.6230094524397505E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="56">
+        <f>+kri!A69</f>
+        <v>68</v>
+      </c>
+      <c r="B69" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>2397.4</v>
+      </c>
+      <c r="C69" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>2448.1999999999998</v>
+      </c>
+      <c r="D69" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="31">
+        <v>2330.11</v>
+      </c>
+      <c r="G69" s="39"/>
+      <c r="H69" s="32">
+        <f t="shared" ref="H68:H104" si="6">+ABS((C69-F69)/C69)</f>
+        <v>4.8235438281186052E-2</v>
+      </c>
+      <c r="K69" s="49"/>
+      <c r="N69" s="60">
+        <v>2633.67</v>
+      </c>
+      <c r="O69" s="61">
+        <f t="shared" ref="O69:O85" si="7">+ABS((N69-C69)/C69)</f>
+        <v>7.575769953435188E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="56">
+        <f>+kri!A70</f>
+        <v>69</v>
+      </c>
+      <c r="B70" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1954.2</v>
+      </c>
+      <c r="C70" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1835.2</v>
+      </c>
+      <c r="D70" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="32"/>
+      <c r="J70" s="31">
+        <v>1873.03</v>
+      </c>
+      <c r="K70" s="49">
+        <f t="shared" si="5"/>
+        <v>2.061355710549255E-2</v>
+      </c>
+      <c r="L70" s="58">
+        <v>0.93168499999999999</v>
+      </c>
+      <c r="N70" s="60">
+        <v>1655.03</v>
+      </c>
+      <c r="O70" s="61">
+        <f t="shared" si="7"/>
+        <v>9.8174585876198817E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="56">
+        <f>+kri!A71</f>
+        <v>70</v>
+      </c>
+      <c r="B71" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>2792.5</v>
+      </c>
+      <c r="C71" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>2720.7</v>
+      </c>
+      <c r="D71" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="32"/>
+      <c r="J71" s="31">
+        <v>2739.91</v>
+      </c>
+      <c r="K71" s="49">
+        <f t="shared" si="5"/>
+        <v>7.0606829124857714E-3</v>
+      </c>
+      <c r="L71" s="58">
+        <v>0.95642899999999997</v>
+      </c>
+      <c r="N71" s="60">
+        <v>2733.89</v>
+      </c>
+      <c r="O71" s="61">
+        <f t="shared" si="7"/>
+        <v>4.8480170544345407E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="56">
+        <f>+kri!A72</f>
+        <v>71</v>
+      </c>
+      <c r="B72" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>2313.1999999999998</v>
+      </c>
+      <c r="C72" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>2720.7</v>
+      </c>
+      <c r="D72" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="32"/>
+      <c r="J72" s="31">
+        <v>2166.4899999999998</v>
+      </c>
+      <c r="K72" s="49">
+        <f t="shared" si="5"/>
+        <v>0.20370125335391631</v>
+      </c>
+      <c r="L72" s="58">
+        <v>0.90966199999999997</v>
+      </c>
+      <c r="N72" s="60">
+        <v>1872.99</v>
+      </c>
+      <c r="O72" s="61">
+        <f t="shared" si="7"/>
+        <v>0.31157790274561686</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="56">
+        <f>+kri!A73</f>
+        <v>72</v>
+      </c>
+      <c r="B73" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1887.8</v>
+      </c>
+      <c r="C73" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1944</v>
+      </c>
+      <c r="D73" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G73" s="39"/>
+      <c r="H73" s="32"/>
+      <c r="K73" s="49"/>
+      <c r="N73" s="60">
+        <v>2393.9699999999998</v>
+      </c>
+      <c r="O73" s="61">
+        <f t="shared" si="7"/>
+        <v>0.23146604938271595</v>
+      </c>
+      <c r="P73" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="56">
+        <f>+kri!A74</f>
+        <v>73</v>
+      </c>
+      <c r="B74" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1541.2</v>
+      </c>
+      <c r="C74" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1532.7</v>
+      </c>
+      <c r="D74" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E74" s="3"/>
+      <c r="F74" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G74" s="39"/>
+      <c r="H74" s="32"/>
+      <c r="K74" s="49"/>
+      <c r="N74" s="31">
+        <v>1295.58</v>
+      </c>
+      <c r="O74" s="32">
+        <f t="shared" si="7"/>
+        <v>0.15470737913486013</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="56">
+        <f>+kri!A75</f>
+        <v>74</v>
+      </c>
+      <c r="B75" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1431.2</v>
+      </c>
+      <c r="C75" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1141.8</v>
+      </c>
+      <c r="D75" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="32"/>
+      <c r="J75" s="31">
+        <v>1026.5999999999999</v>
+      </c>
+      <c r="K75" s="49">
+        <f t="shared" si="5"/>
+        <v>0.10089332632685238</v>
+      </c>
+      <c r="L75" s="58">
+        <v>0.886463</v>
+      </c>
+      <c r="N75" s="60">
+        <v>934.75599999999997</v>
+      </c>
+      <c r="O75" s="61">
+        <f t="shared" si="7"/>
+        <v>0.18133123138903484</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" s="56">
+        <f>+kri!A76</f>
+        <v>75</v>
+      </c>
+      <c r="B76" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1582.6</v>
+      </c>
+      <c r="C76" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1485.8</v>
+      </c>
+      <c r="D76" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="32"/>
+      <c r="J76" s="31">
+        <v>1467.93</v>
+      </c>
+      <c r="K76" s="49">
+        <f t="shared" si="5"/>
+        <v>1.2027190738995754E-2</v>
+      </c>
+      <c r="L76" s="58">
+        <v>0.94224299999999994</v>
+      </c>
+      <c r="N76" s="60">
+        <v>1685.04</v>
+      </c>
+      <c r="O76" s="61">
+        <f t="shared" si="7"/>
+        <v>0.13409610983981696</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="56">
+        <f>+kri!A77</f>
+        <v>76</v>
+      </c>
+      <c r="B77" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1685.2</v>
+      </c>
+      <c r="C77" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1593.1</v>
+      </c>
+      <c r="D77" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="31">
+        <v>1673.78</v>
+      </c>
+      <c r="G77" s="39"/>
+      <c r="H77" s="32">
+        <f t="shared" si="6"/>
+        <v>5.0643399661038271E-2</v>
+      </c>
+      <c r="K77" s="49"/>
+      <c r="N77" s="60">
+        <v>1454.24</v>
+      </c>
+      <c r="O77" s="61">
+        <f t="shared" si="7"/>
+        <v>8.7163392128554326E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="56">
+        <f>+kri!A78</f>
+        <v>77</v>
+      </c>
+      <c r="B78" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>2114.9</v>
+      </c>
+      <c r="C78" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>2074.1</v>
+      </c>
+      <c r="D78" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="31">
+        <v>1796.36</v>
+      </c>
+      <c r="G78" s="39"/>
+      <c r="H78" s="32">
+        <f t="shared" si="6"/>
+        <v>0.1339086832843161</v>
+      </c>
+      <c r="K78" s="49"/>
+      <c r="N78" s="60">
+        <v>2001.13</v>
+      </c>
+      <c r="O78" s="61">
+        <f t="shared" si="7"/>
+        <v>3.5181524516657729E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="56">
+        <f>+kri!A79</f>
+        <v>78</v>
+      </c>
+      <c r="B79" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>2091.1</v>
+      </c>
+      <c r="C79" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1951.7</v>
+      </c>
+      <c r="D79" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="32"/>
+      <c r="J79" s="31">
+        <v>1922.03</v>
+      </c>
+      <c r="K79" s="49">
+        <f t="shared" si="5"/>
+        <v>1.5202131475124288E-2</v>
+      </c>
+      <c r="L79" s="58">
+        <v>0.90231300000000003</v>
+      </c>
+      <c r="N79" s="60">
+        <v>2288.11</v>
+      </c>
+      <c r="O79" s="61">
+        <f t="shared" si="7"/>
+        <v>0.17236767945893328</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="56">
+        <f>+kri!A80</f>
+        <v>79</v>
+      </c>
+      <c r="B80" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>2330.1</v>
+      </c>
+      <c r="C80" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>2142.6999999999998</v>
+      </c>
+      <c r="D80" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="32"/>
+      <c r="J80" s="31">
+        <v>2259.59</v>
+      </c>
+      <c r="K80" s="49">
+        <f t="shared" si="5"/>
+        <v>5.4552667195594498E-2</v>
+      </c>
+      <c r="L80" s="58">
+        <v>0.92179800000000001</v>
+      </c>
+      <c r="N80" s="60">
+        <v>2301.0700000000002</v>
+      </c>
+      <c r="O80" s="61">
+        <f t="shared" si="7"/>
+        <v>7.3911420170812689E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="56">
+        <f>+kri!A81</f>
+        <v>80</v>
+      </c>
+      <c r="B81" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1821.3</v>
+      </c>
+      <c r="C81" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1644.7</v>
+      </c>
+      <c r="D81" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="32"/>
+      <c r="J81" s="31">
+        <v>1426.86</v>
+      </c>
+      <c r="K81" s="49">
+        <f t="shared" si="5"/>
+        <v>0.13244968687298603</v>
+      </c>
+      <c r="L81" s="58">
+        <v>0.85251699999999997</v>
+      </c>
+      <c r="N81" s="60">
+        <v>1210.33</v>
+      </c>
+      <c r="O81" s="61">
+        <f t="shared" si="7"/>
+        <v>0.26410287590442033</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="56">
+        <f>+kri!A82</f>
+        <v>81</v>
+      </c>
+      <c r="B82" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1446.8</v>
+      </c>
+      <c r="C82" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1284.0999999999999</v>
+      </c>
+      <c r="D82" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="32"/>
+      <c r="J82" s="31">
+        <v>1440.9</v>
+      </c>
+      <c r="K82" s="49">
+        <f t="shared" si="5"/>
+        <v>0.12210887002569909</v>
+      </c>
+      <c r="L82" s="58">
+        <v>0.90825699999999998</v>
+      </c>
+      <c r="N82" s="60">
+        <v>1271.8</v>
+      </c>
+      <c r="O82" s="61">
+        <f t="shared" si="7"/>
+        <v>9.5786932481893589E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="56">
+        <f>+kri!A83</f>
+        <v>82</v>
+      </c>
+      <c r="B83" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1431.1</v>
+      </c>
+      <c r="C83" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1268.3</v>
+      </c>
+      <c r="D83" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="32"/>
+      <c r="J83" s="31">
+        <v>1418.24</v>
+      </c>
+      <c r="K83" s="49">
+        <f t="shared" si="5"/>
+        <v>0.11822124103130179</v>
+      </c>
+      <c r="L83" s="58">
+        <v>0.87204300000000001</v>
+      </c>
+      <c r="N83" s="60">
+        <v>1386.81</v>
+      </c>
+      <c r="O83" s="61">
+        <f t="shared" si="7"/>
+        <v>9.3440037845935506E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="56">
+        <f>+kri!A84</f>
+        <v>83</v>
+      </c>
+      <c r="B84" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1990.3</v>
+      </c>
+      <c r="C84" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1954.3</v>
+      </c>
+      <c r="D84" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="32"/>
+      <c r="J84" s="31">
+        <v>2080.9699999999998</v>
+      </c>
+      <c r="K84" s="49">
+        <f t="shared" si="5"/>
+        <v>6.4816046666325455E-2</v>
+      </c>
+      <c r="L84" s="58">
+        <v>0.93339499999999997</v>
+      </c>
+      <c r="N84" s="60">
+        <v>2077.25</v>
+      </c>
+      <c r="O84" s="61">
+        <f t="shared" si="7"/>
+        <v>6.2912551808831832E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="56">
+        <f>+kri!A85</f>
+        <v>84</v>
+      </c>
+      <c r="B85" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>2076.1</v>
+      </c>
+      <c r="C85" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>2063.5</v>
+      </c>
+      <c r="D85" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="31">
+        <v>1902.79</v>
+      </c>
+      <c r="G85" s="39"/>
+      <c r="H85" s="32">
+        <f t="shared" si="6"/>
+        <v>7.7882238914465732E-2</v>
+      </c>
+      <c r="K85" s="49"/>
+      <c r="N85" s="60">
+        <v>1274.3800000000001</v>
+      </c>
+      <c r="O85" s="61">
+        <f t="shared" si="7"/>
+        <v>0.38241822146837889</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="56">
+        <f>+kri!A86</f>
+        <v>85</v>
+      </c>
+      <c r="B86" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>0</v>
+      </c>
+      <c r="C86" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>0</v>
+      </c>
+      <c r="D86" s="57">
+        <v>0</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="32"/>
+      <c r="K86" s="49"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="56">
+        <f>+kri!A87</f>
+        <v>86</v>
+      </c>
+      <c r="B87" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>2489.8000000000002</v>
+      </c>
+      <c r="C87" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>2330.6</v>
+      </c>
+      <c r="D87" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="32"/>
+      <c r="J87" s="31">
+        <v>2386.02</v>
+      </c>
+      <c r="K87" s="49">
+        <f t="shared" si="5"/>
+        <v>2.3779284304470984E-2</v>
+      </c>
+      <c r="L87" s="58">
+        <v>0.92452000000000001</v>
+      </c>
+      <c r="N87" s="60">
+        <v>2924.71</v>
+      </c>
+      <c r="O87" s="61">
+        <f t="shared" ref="O87:O104" si="8">+ABS((N87-C87)/C87)</f>
+        <v>0.25491718870677088</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="56">
+        <f>+kri!A88</f>
+        <v>87</v>
+      </c>
+      <c r="B88" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>882.2</v>
+      </c>
+      <c r="C88" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>852</v>
+      </c>
+      <c r="D88" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" s="31">
+        <v>864.98</v>
+      </c>
+      <c r="G88" s="39"/>
+      <c r="H88" s="32">
+        <f t="shared" si="6"/>
+        <v>1.5234741784037579E-2</v>
+      </c>
+      <c r="K88" s="49"/>
+      <c r="N88" s="60">
+        <v>976.95</v>
+      </c>
+      <c r="O88" s="61">
+        <f t="shared" si="8"/>
+        <v>0.14665492957746484</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="56">
+        <f>+kri!A89</f>
+        <v>88</v>
+      </c>
+      <c r="B89" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>3200.9</v>
+      </c>
+      <c r="C89" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>2785.2</v>
+      </c>
+      <c r="D89" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="32"/>
+      <c r="J89" s="31">
+        <v>2811.37</v>
+      </c>
+      <c r="K89" s="49">
+        <f t="shared" si="5"/>
+        <v>9.3960936377998263E-3</v>
+      </c>
+      <c r="L89" s="58">
+        <v>0.92738399999999999</v>
+      </c>
+      <c r="N89" s="60">
+        <v>2789.55</v>
+      </c>
+      <c r="O89" s="61">
+        <f t="shared" si="8"/>
+        <v>1.5618267987937541E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="56">
+        <f>+kri!A90</f>
+        <v>89</v>
+      </c>
+      <c r="B90" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1116.3</v>
+      </c>
+      <c r="C90" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>2785.3</v>
+      </c>
+      <c r="D90" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E90" s="3"/>
+      <c r="F90" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G90" s="39"/>
+      <c r="H90" s="32"/>
+      <c r="K90" s="49"/>
+      <c r="N90" s="60">
+        <v>231.119</v>
+      </c>
+      <c r="O90" s="61">
+        <f t="shared" si="8"/>
+        <v>0.91702186479014824</v>
+      </c>
+      <c r="P90" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" s="56">
+        <f>+kri!A91</f>
+        <v>90</v>
+      </c>
+      <c r="B91" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>4059.3</v>
+      </c>
+      <c r="C91" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>3808.3</v>
+      </c>
+      <c r="D91" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="32"/>
+      <c r="J91" s="31">
+        <v>3751.2</v>
+      </c>
+      <c r="K91" s="49">
+        <f t="shared" si="5"/>
+        <v>1.4993566683297104E-2</v>
+      </c>
+      <c r="L91" s="58">
+        <v>0.93768799999999997</v>
+      </c>
+      <c r="N91" s="60">
+        <v>3872.2</v>
+      </c>
+      <c r="O91" s="61">
+        <f t="shared" si="8"/>
+        <v>1.67791402988209E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="56">
+        <f>+kri!A92</f>
+        <v>91</v>
+      </c>
+      <c r="B92" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>2365</v>
+      </c>
+      <c r="C92" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>2383.3000000000002</v>
+      </c>
+      <c r="D92" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E92" s="3"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="32"/>
+      <c r="J92" s="31">
+        <v>2320.0300000000002</v>
+      </c>
+      <c r="K92" s="49">
+        <f t="shared" si="5"/>
+        <v>2.6547224436705399E-2</v>
+      </c>
+      <c r="L92" s="58">
+        <v>0.95343199999999995</v>
+      </c>
+      <c r="N92" s="60">
+        <v>2113.52</v>
+      </c>
+      <c r="O92" s="61">
+        <f t="shared" si="8"/>
+        <v>0.11319598875508756</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" s="56">
+        <f>+kri!A93</f>
+        <v>92</v>
+      </c>
+      <c r="B93" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>2052.1999999999998</v>
+      </c>
+      <c r="C93" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1903.7</v>
+      </c>
+      <c r="D93" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="32"/>
+      <c r="J93" s="31">
+        <v>1816.86</v>
+      </c>
+      <c r="K93" s="49">
+        <f t="shared" si="5"/>
+        <v>4.5616431160371985E-2</v>
+      </c>
+      <c r="L93" s="58">
+        <v>0.91617900000000008</v>
+      </c>
+      <c r="N93" s="60">
+        <v>1944.21</v>
+      </c>
+      <c r="O93" s="61">
+        <f t="shared" si="8"/>
+        <v>2.1279613384461833E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" s="56">
+        <f>+kri!A94</f>
+        <v>93</v>
+      </c>
+      <c r="B94" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1525</v>
+      </c>
+      <c r="C94" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1343.9</v>
+      </c>
+      <c r="D94" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="32"/>
+      <c r="J94" s="31">
+        <v>1399.21</v>
+      </c>
+      <c r="K94" s="49">
+        <f t="shared" si="5"/>
+        <v>4.1156336036907465E-2</v>
+      </c>
+      <c r="L94" s="58">
+        <v>0.92351399999999995</v>
+      </c>
+      <c r="N94" s="60">
+        <v>1357.15</v>
+      </c>
+      <c r="O94" s="61">
+        <f t="shared" si="8"/>
+        <v>9.8593645360517887E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="56">
+        <f>+kri!A95</f>
+        <v>94</v>
+      </c>
+      <c r="B95" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>2403.6999999999998</v>
+      </c>
+      <c r="C95" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>2247.1</v>
+      </c>
+      <c r="D95" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E95" s="3"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="32"/>
+      <c r="J95" s="31">
+        <v>2253.86</v>
+      </c>
+      <c r="K95" s="49">
+        <f t="shared" si="5"/>
+        <v>3.0083218370344973E-3</v>
+      </c>
+      <c r="L95" s="58">
+        <v>0.95493899999999998</v>
+      </c>
+      <c r="N95" s="60">
+        <v>2398.73</v>
+      </c>
+      <c r="O95" s="61">
+        <f t="shared" si="8"/>
+        <v>6.7478082862355973E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" s="56">
+        <f>+kri!A96</f>
+        <v>95</v>
+      </c>
+      <c r="B96" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>2865.4</v>
+      </c>
+      <c r="C96" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>2579.6999999999998</v>
+      </c>
+      <c r="D96" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="32"/>
+      <c r="J96" s="31">
+        <v>2649.56</v>
+      </c>
+      <c r="K96" s="49">
+        <f t="shared" si="5"/>
+        <v>2.7080668294763008E-2</v>
+      </c>
+      <c r="L96" s="58">
+        <v>0.92559000000000002</v>
+      </c>
+      <c r="N96" s="60">
+        <v>2680.58</v>
+      </c>
+      <c r="O96" s="61">
+        <f t="shared" si="8"/>
+        <v>3.910532232430132E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" s="56">
+        <f>+kri!A97</f>
+        <v>96</v>
+      </c>
+      <c r="B97" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1994.9</v>
+      </c>
+      <c r="C97" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1868.8</v>
+      </c>
+      <c r="D97" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="32"/>
+      <c r="J97" s="31">
+        <v>2032.49</v>
+      </c>
+      <c r="K97" s="49">
+        <f t="shared" si="5"/>
+        <v>8.7590967465753455E-2</v>
+      </c>
+      <c r="L97" s="58">
+        <v>0.86399199999999998</v>
+      </c>
+      <c r="N97" s="60">
+        <v>1382.75</v>
+      </c>
+      <c r="O97" s="61">
+        <f t="shared" si="8"/>
+        <v>0.26008668664383561</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" s="56">
+        <f>+kri!A98</f>
+        <v>97</v>
+      </c>
+      <c r="B98" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>2088.6999999999998</v>
+      </c>
+      <c r="C98" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1907</v>
+      </c>
+      <c r="D98" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E98" s="3"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="32"/>
+      <c r="J98" s="31">
+        <v>1989.88</v>
+      </c>
+      <c r="K98" s="49">
+        <f t="shared" si="5"/>
+        <v>4.3460933403251238E-2</v>
+      </c>
+      <c r="L98" s="58">
+        <v>0.93153400000000008</v>
+      </c>
+      <c r="N98" s="60">
+        <v>1957.42</v>
+      </c>
+      <c r="O98" s="61">
+        <f t="shared" si="8"/>
+        <v>2.6439433665443143E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" s="56">
+        <f>+kri!A99</f>
+        <v>98</v>
+      </c>
+      <c r="B99" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1510.4</v>
+      </c>
+      <c r="C99" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1184.2</v>
+      </c>
+      <c r="D99" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="32"/>
+      <c r="J99" s="31">
+        <v>1235.1300000000001</v>
+      </c>
+      <c r="K99" s="49">
+        <f t="shared" si="5"/>
+        <v>4.300793784833648E-2</v>
+      </c>
+      <c r="L99" s="58">
+        <v>0.88061400000000001</v>
+      </c>
+      <c r="N99" s="60">
+        <v>1313.27</v>
+      </c>
+      <c r="O99" s="61">
+        <f t="shared" si="8"/>
+        <v>0.10899341327478461</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" s="56">
+        <f>+kri!A100</f>
+        <v>99</v>
+      </c>
+      <c r="B100" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>2365.5</v>
+      </c>
+      <c r="C100" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>2259.8000000000002</v>
+      </c>
+      <c r="D100" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E100" s="3"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="32"/>
+      <c r="J100" s="31">
+        <v>2386.73</v>
+      </c>
+      <c r="K100" s="49">
+        <f t="shared" si="5"/>
+        <v>5.6168687494468461E-2</v>
+      </c>
+      <c r="L100" s="58">
+        <v>0.93696600000000008</v>
+      </c>
+      <c r="N100" s="60">
+        <v>2213.14</v>
+      </c>
+      <c r="O100" s="61">
+        <f t="shared" si="8"/>
+        <v>2.0647844942030404E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" s="56">
+        <f>+kri!A101</f>
+        <v>100</v>
+      </c>
+      <c r="B101" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1516.6</v>
+      </c>
+      <c r="C101" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1516.6</v>
+      </c>
+      <c r="D101" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E101" s="3"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="32"/>
+      <c r="J101" s="31">
+        <v>1489.94</v>
+      </c>
+      <c r="K101" s="49">
+        <f t="shared" si="5"/>
+        <v>1.7578794672293192E-2</v>
+      </c>
+      <c r="L101" s="58">
+        <v>0.94909999999999994</v>
+      </c>
+      <c r="N101" s="60">
+        <v>1691.13</v>
+      </c>
+      <c r="O101" s="61">
+        <f t="shared" si="8"/>
+        <v>0.11507978372675735</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" s="56">
+        <f>+kri!A102</f>
+        <v>101</v>
+      </c>
+      <c r="B102" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>3683.1</v>
+      </c>
+      <c r="C102" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>3679.8</v>
+      </c>
+      <c r="D102" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>ct</v>
+      </c>
+      <c r="E102" s="3"/>
+      <c r="F102" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G102" s="39"/>
+      <c r="H102" s="32"/>
+      <c r="K102" s="49"/>
+      <c r="N102" s="60">
+        <v>3058.34</v>
+      </c>
+      <c r="O102" s="61">
+        <f t="shared" si="8"/>
+        <v>0.16888417848796131</v>
+      </c>
+      <c r="P102" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103" s="56">
+        <f>+kri!A103</f>
+        <v>102</v>
+      </c>
+      <c r="B103" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1452.8</v>
+      </c>
+      <c r="C103" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1456.5</v>
+      </c>
+      <c r="D103" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E103" s="3"/>
+      <c r="G103" s="39"/>
+      <c r="H103" s="32"/>
+      <c r="J103" s="31">
+        <v>1988.8</v>
+      </c>
+      <c r="K103" s="37">
+        <f t="shared" si="5"/>
+        <v>0.36546515619636111</v>
+      </c>
+      <c r="L103" s="58">
+        <v>0.80160799999999999</v>
+      </c>
+      <c r="N103" s="60">
+        <v>338.59399999999999</v>
+      </c>
+      <c r="O103" s="61">
+        <f t="shared" si="8"/>
+        <v>0.76752900789564016</v>
+      </c>
+      <c r="P103" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" s="56">
+        <f>+kri!A104</f>
+        <v>103</v>
+      </c>
+      <c r="B104" s="37">
+        <f>+Table1[[#This Row],[Volume A]]</f>
+        <v>1923.1</v>
+      </c>
+      <c r="C104" s="37">
+        <f>+Table1[[#This Row],[Volume P]]</f>
+        <v>1737.8</v>
+      </c>
+      <c r="D104" s="57" t="str">
+        <f>+Table1[[#This Row],[Modality]]</f>
+        <v>mr</v>
+      </c>
+      <c r="E104" s="3"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="32"/>
+      <c r="J104" s="31">
+        <v>1781.79</v>
+      </c>
+      <c r="K104" s="37">
+        <f t="shared" si="5"/>
+        <v>2.5313614915410294E-2</v>
+      </c>
+      <c r="L104" s="58">
+        <v>0.93269499999999994</v>
+      </c>
+      <c r="N104" s="60">
+        <v>2482.0700000000002</v>
+      </c>
+      <c r="O104" s="61">
+        <f t="shared" si="8"/>
+        <v>0.4282828864081023</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K105" s="50"/>
+    </row>
+    <row r="106" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K106" s="50"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B107" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C107" s="65"/>
+      <c r="D107" s="47">
+        <f>COUNTIF(D2:D104,"=mr")</f>
+        <v>55</v>
+      </c>
+      <c r="K107" s="50"/>
+    </row>
+    <row r="108" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C108" s="67"/>
+      <c r="D108" s="48">
+        <f>COUNTIF(D2:D104,"=ct")</f>
+        <v>46</v>
+      </c>
+      <c r="K108" s="50"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K109" s="50"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K110" s="50"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K111" s="50"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K112" s="50"/>
+    </row>
+    <row r="113" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K113" s="50"/>
+    </row>
+    <row r="114" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K114" s="50"/>
+    </row>
+    <row r="115" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K115" s="50"/>
+    </row>
+    <row r="116" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K116" s="50"/>
+    </row>
+    <row r="117" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K117" s="50"/>
+    </row>
+    <row r="118" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K118" s="50"/>
+    </row>
+    <row r="119" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K119" s="50"/>
+    </row>
+    <row r="120" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K120" s="50"/>
+    </row>
+    <row r="121" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K121" s="50"/>
+    </row>
+    <row r="122" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K122" s="50"/>
+    </row>
+    <row r="123" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K123" s="50"/>
+    </row>
+    <row r="124" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K124" s="50"/>
+    </row>
+    <row r="125" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K125" s="50"/>
+    </row>
+    <row r="126" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K126" s="50"/>
+    </row>
+    <row r="127" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K127" s="50"/>
+    </row>
+    <row r="128" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K128" s="50"/>
+    </row>
+    <row r="129" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K129" s="50"/>
+    </row>
+    <row r="130" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K130" s="50"/>
+    </row>
+    <row r="131" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K131" s="50"/>
+    </row>
+    <row r="132" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K132" s="50"/>
+    </row>
+    <row r="133" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K133" s="50"/>
+    </row>
+    <row r="134" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K134" s="50"/>
+    </row>
+    <row r="135" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K135" s="50"/>
+    </row>
+    <row r="136" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K136" s="50"/>
+    </row>
+    <row r="137" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K137" s="50"/>
+    </row>
+    <row r="138" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K138" s="50"/>
+    </row>
+    <row r="139" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K139" s="50"/>
+    </row>
+    <row r="140" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K140" s="50"/>
+    </row>
+    <row r="141" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K141" s="50"/>
+    </row>
+    <row r="142" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K142" s="50"/>
+    </row>
+    <row r="143" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K143" s="50"/>
+    </row>
+    <row r="144" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K144" s="50"/>
+    </row>
+    <row r="145" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K145" s="50"/>
+    </row>
+    <row r="146" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K146" s="50"/>
+    </row>
+    <row r="147" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K147" s="50"/>
+    </row>
+    <row r="148" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K148" s="50"/>
+    </row>
+    <row r="149" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K149" s="50"/>
+    </row>
+    <row r="150" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K150" s="50"/>
+    </row>
+    <row r="151" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K151" s="50"/>
+    </row>
+    <row r="152" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K152" s="50"/>
+    </row>
+    <row r="153" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K153" s="50"/>
+    </row>
+    <row r="154" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K154" s="50"/>
+    </row>
+    <row r="155" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K155" s="50"/>
+    </row>
+    <row r="156" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K156" s="50"/>
+    </row>
+    <row r="157" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K157" s="50"/>
+    </row>
+    <row r="158" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K158" s="50"/>
+    </row>
+    <row r="159" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K159" s="50"/>
+    </row>
+    <row r="160" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K160" s="50"/>
+    </row>
+    <row r="161" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K161" s="50"/>
+    </row>
+    <row r="162" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K162" s="50"/>
+    </row>
+    <row r="163" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K163" s="50"/>
+    </row>
+    <row r="164" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K164" s="50"/>
+    </row>
+    <row r="165" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K165" s="50"/>
+    </row>
+    <row r="166" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K166" s="50"/>
+    </row>
+    <row r="167" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K167" s="50"/>
+    </row>
+    <row r="168" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K168" s="39"/>
+    </row>
+    <row r="169" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K169" s="39"/>
+    </row>
+    <row r="170" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K170" s="39"/>
+    </row>
+    <row r="171" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K171" s="39"/>
+    </row>
+    <row r="172" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K172" s="39"/>
+    </row>
+    <row r="173" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K173" s="39"/>
+    </row>
+    <row r="174" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K174" s="39"/>
+    </row>
+    <row r="175" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K175" s="39"/>
+    </row>
+    <row r="176" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K176" s="39"/>
+    </row>
+    <row r="177" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K177" s="39"/>
+    </row>
+    <row r="178" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K178" s="39"/>
+    </row>
+    <row r="179" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K179" s="39"/>
+    </row>
+    <row r="180" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K180" s="39"/>
+    </row>
+    <row r="181" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K181" s="39"/>
+    </row>
+    <row r="182" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K182" s="39"/>
+    </row>
+    <row r="183" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K183" s="39"/>
+    </row>
+    <row r="184" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K184" s="39"/>
+    </row>
+    <row r="185" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K185" s="39"/>
+    </row>
+    <row r="186" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K186" s="39"/>
+    </row>
+    <row r="187" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K187" s="39"/>
+    </row>
+    <row r="188" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K188" s="39"/>
+    </row>
+    <row r="189" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K189" s="39"/>
+    </row>
+    <row r="190" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K190" s="39"/>
+    </row>
+    <row r="191" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K191" s="39"/>
+    </row>
+    <row r="192" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K192" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="U21:U25"/>
+    <mergeCell ref="V21:V25"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="U4:V8"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="U11:U15"/>
+    <mergeCell ref="V11:V15"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="U16:U20"/>
+    <mergeCell ref="V16:V20"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="U26:V32"/>
+  </mergeCells>
+  <conditionalFormatting sqref="O2:O23 O25:O28 O31:O36 O38:O41 O43:O73 O75:O104">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
+      <formula>0.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:E104">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="ct">
+      <formula>NOT(ISERROR(SEARCH("ct",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="MR">
+      <formula>NOT(ISERROR(SEARCH("MR",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O24">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
+      <formula>0.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O29:O30">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+      <formula>0.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O37">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+      <formula>0.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O42">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+      <formula>0.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O74">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0.2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0314E27C-272D-4EFB-AFDD-94BE43DF51E9}">
+  <dimension ref="B1:I105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="21"/>
+    <col min="3" max="3" width="10.140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="21"/>
+    <col min="6" max="6" width="6.5703125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="21" customWidth="1"/>
+    <col min="8" max="9" width="10.140625" style="21" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="93"/>
+      <c r="F2" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="93"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="31">
+        <v>1</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="38">
+        <v>1446.64</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="31">
+        <v>2</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="31">
+        <v>3</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="38">
+        <v>1274.3800000000001</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="38"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="31">
+        <v>4</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="38">
+        <v>1700.1</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="31">
+        <v>5</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="38">
+        <v>2171.87</v>
+      </c>
+      <c r="F7" s="31"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="31">
+        <v>6</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="38">
+        <v>1383.31</v>
+      </c>
+      <c r="F8" s="31">
+        <v>6</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="37">
+        <v>1533.96</v>
+      </c>
+      <c r="I8" s="38">
+        <v>0.94766400000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="31">
+        <v>7</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="38">
+        <v>425.411</v>
+      </c>
+      <c r="F9" s="31">
+        <v>7</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="37">
+        <v>1512.47</v>
+      </c>
+      <c r="I9" s="38">
+        <v>0.869174</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="31">
+        <v>8</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="38">
+        <v>1329.56</v>
+      </c>
+      <c r="F10" s="31">
+        <v>8</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="37">
+        <v>1277.24</v>
+      </c>
+      <c r="I10" s="38">
+        <v>0.88927000000000012</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="31">
+        <v>9</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="38">
+        <v>1462.02</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="31">
+        <v>10</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="38">
+        <v>1301.94</v>
+      </c>
+      <c r="F12" s="31">
+        <v>10</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="37">
+        <v>1338.03</v>
+      </c>
+      <c r="I12" s="38">
+        <v>0.93800700000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="31">
+        <v>11</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="38">
+        <v>1333.59</v>
+      </c>
+      <c r="F13" s="31">
+        <v>11</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="37">
+        <v>1494.06</v>
+      </c>
+      <c r="I13" s="38">
+        <v>0.92682699999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="31">
+        <v>12</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="38">
+        <v>1634.38</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="38"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="31">
+        <v>13</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="38">
+        <v>1367.9</v>
+      </c>
+      <c r="F15" s="31">
+        <v>13</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="37">
+        <v>1700.27</v>
+      </c>
+      <c r="I15" s="38">
+        <v>0.87819199999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="31">
+        <v>14</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="38">
+        <v>1582.96</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="31">
+        <v>15</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="38">
+        <v>232.22300000000001</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="38"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="31">
+        <v>16</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="38">
+        <v>1725.1</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="38"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="31">
+        <v>17</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="38">
+        <v>1159.02</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="38"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="31">
+        <v>18</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="38">
+        <v>1439.9</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="38"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="31">
+        <v>19</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="38">
+        <v>1278.45</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="31">
+        <v>20</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="38">
+        <v>1482.93</v>
+      </c>
+      <c r="F22" s="31">
+        <v>20</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="37">
+        <v>0</v>
+      </c>
+      <c r="I22" s="38"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="31">
+        <v>21</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="38">
+        <v>2704.79</v>
+      </c>
+      <c r="F23" s="31">
+        <v>21</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="37">
+        <v>1934.24</v>
+      </c>
+      <c r="I23" s="38">
+        <v>0.90654899999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="31">
+        <v>22</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="38">
+        <v>1224.02</v>
+      </c>
+      <c r="F24" s="31">
+        <v>22</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="37">
+        <v>1276.94</v>
+      </c>
+      <c r="I24" s="38">
+        <v>0.9077639999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="31">
+        <v>23</v>
+      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
+      <c r="F25" s="31">
+        <v>23</v>
+      </c>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="38"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="31">
+        <v>24</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="38">
+        <v>2362.75</v>
+      </c>
+      <c r="F26" s="31"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="38"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="31">
+        <v>25</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="38">
+        <v>1312.92</v>
+      </c>
+      <c r="F27" s="31">
+        <v>25</v>
+      </c>
+      <c r="G27" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="37">
+        <v>1244.6600000000001</v>
+      </c>
+      <c r="I27" s="38">
+        <v>0.89823600000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="31">
+        <v>26</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="38">
+        <v>1588.32</v>
+      </c>
+      <c r="F28" s="31">
+        <v>26</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="37">
+        <v>1524.13</v>
+      </c>
+      <c r="I28" s="38">
+        <v>0.94722499999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="31">
+        <v>27</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="38">
+        <v>1176.8</v>
+      </c>
+      <c r="F29" s="31"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="38"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="31">
+        <v>28</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="F30" s="31">
+        <v>28</v>
+      </c>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="38"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="31">
+        <v>29</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="38"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="31">
+        <v>30</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="38">
+        <v>2578.5300000000002</v>
+      </c>
+      <c r="F32" s="31">
+        <v>30</v>
+      </c>
+      <c r="G32" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="37">
+        <v>2030.28</v>
+      </c>
+      <c r="I32" s="38">
+        <v>0.94917799999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="31">
+        <v>31</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="38">
+        <v>1613.73</v>
+      </c>
+      <c r="F33" s="31"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="38"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="31">
+        <v>32</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="38">
+        <v>1137.2</v>
+      </c>
+      <c r="F34" s="31"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="38"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="31">
+        <v>33</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="38">
+        <v>406.83800000000002</v>
+      </c>
+      <c r="F35" s="31"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="38"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="31">
+        <v>34</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="38">
+        <v>1002.55</v>
+      </c>
+      <c r="F36" s="31">
+        <v>34</v>
+      </c>
+      <c r="G36" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" s="37">
+        <v>1336.71</v>
+      </c>
+      <c r="I36" s="38">
+        <v>0.93512600000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="31">
+        <v>35</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" s="38">
+        <v>1184.5999999999999</v>
+      </c>
+      <c r="F37" s="31"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="38"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="31">
+        <v>36</v>
+      </c>
+      <c r="C38" s="37"/>
+      <c r="D38" s="38"/>
+      <c r="F38" s="31">
+        <v>36</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" s="37">
+        <v>1109.0999999999999</v>
+      </c>
+      <c r="I38" s="38">
+        <v>0.93354100000000007</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="31">
+        <v>37</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="38">
+        <v>1660.13</v>
+      </c>
+      <c r="F39" s="31">
+        <v>37</v>
+      </c>
+      <c r="G39" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="37">
+        <v>1684.75</v>
+      </c>
+      <c r="I39" s="38">
+        <v>0.91717899999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="31">
+        <v>38</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="38">
+        <v>3385.18</v>
+      </c>
+      <c r="F40" s="31"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="38"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="31">
+        <v>39</v>
+      </c>
+      <c r="C41" s="37"/>
+      <c r="D41" s="38"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="38"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="31">
+        <v>40</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="38">
+        <v>1133</v>
+      </c>
+      <c r="F42" s="31">
+        <v>40</v>
+      </c>
+      <c r="G42" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H42" s="37">
+        <v>1217.24</v>
+      </c>
+      <c r="I42" s="38">
+        <v>0.93373500000000009</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="31">
+        <v>41</v>
+      </c>
+      <c r="C43" s="37"/>
+      <c r="D43" s="38"/>
+      <c r="F43" s="31">
+        <v>41</v>
+      </c>
+      <c r="G43" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" s="37">
+        <v>2674.48</v>
+      </c>
+      <c r="I43" s="38">
+        <v>0.92842200000000008</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="31">
+        <v>42</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="38">
+        <v>3076.39</v>
+      </c>
+      <c r="F44" s="31">
+        <v>42</v>
+      </c>
+      <c r="G44" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H44" s="37">
+        <v>2161.6999999999998</v>
+      </c>
+      <c r="I44" s="38">
+        <v>0.789883</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="31">
+        <v>43</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="38">
+        <v>2658.12</v>
+      </c>
+      <c r="F45" s="31"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="38"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="31">
+        <v>44</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="38">
+        <v>2271.42</v>
+      </c>
+      <c r="F46" s="31">
+        <v>44</v>
+      </c>
+      <c r="G46" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" s="37">
+        <v>3307.57</v>
+      </c>
+      <c r="I46" s="38">
+        <v>0.77968300000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="31">
+        <v>45</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="38">
+        <v>1042.93</v>
+      </c>
+      <c r="F47" s="31"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="38"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="31">
+        <v>46</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="38">
+        <v>1186.75</v>
+      </c>
+      <c r="F48" s="31">
+        <v>46</v>
+      </c>
+      <c r="G48" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H48" s="37">
+        <v>1224.79</v>
+      </c>
+      <c r="I48" s="38">
+        <v>0.93404100000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="31">
+        <v>47</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="38">
+        <v>1546.48</v>
+      </c>
+      <c r="F49" s="31"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="38"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="31">
+        <v>48</v>
+      </c>
+      <c r="C50" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="38">
+        <v>1415.33</v>
+      </c>
+      <c r="F50" s="31"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="38"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="31">
+        <v>49</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="38">
+        <v>957.48800000000006</v>
+      </c>
+      <c r="F51" s="31">
+        <v>49</v>
+      </c>
+      <c r="G51" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H51" s="37">
+        <v>1208.56</v>
+      </c>
+      <c r="I51" s="38">
+        <v>0.94564599999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="31">
+        <v>50</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="38">
+        <v>1346</v>
+      </c>
+      <c r="F52" s="31">
+        <v>50</v>
+      </c>
+      <c r="G52" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H52" s="37">
+        <v>1437.44</v>
+      </c>
+      <c r="I52" s="38">
+        <v>0.94772800000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="31">
+        <v>51</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="38">
+        <v>1158.23</v>
+      </c>
+      <c r="F53" s="31"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="38"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="31">
+        <v>52</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="38">
+        <v>2019.89</v>
+      </c>
+      <c r="F54" s="31"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="38"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="31">
+        <v>53</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="38">
+        <v>2603.5300000000002</v>
+      </c>
+      <c r="F55" s="31"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="38"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="31">
+        <v>54</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="38">
+        <v>2571.67</v>
+      </c>
+      <c r="F56" s="31"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="38"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="31">
+        <v>55</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="38">
+        <v>2001.62</v>
+      </c>
+      <c r="F57" s="31">
+        <v>55</v>
+      </c>
+      <c r="G57" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H57" s="37">
+        <v>1988.71</v>
+      </c>
+      <c r="I57" s="38">
+        <v>0.948631</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="31">
+        <v>56</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="38">
+        <v>1743.34</v>
+      </c>
+      <c r="F58" s="31">
+        <v>56</v>
+      </c>
+      <c r="G58" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H58" s="37">
+        <v>2184.8000000000002</v>
+      </c>
+      <c r="I58" s="38">
+        <v>0.88887299999999991</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="31">
+        <v>57</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="38">
+        <v>1793.95</v>
+      </c>
+      <c r="F59" s="31"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="38"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="31">
+        <v>58</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="38">
+        <v>2049.79</v>
+      </c>
+      <c r="F60" s="31"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="38"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="31">
+        <v>59</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="38">
+        <v>1477.52</v>
+      </c>
+      <c r="F61" s="31"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="38"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="31">
+        <v>60</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="38">
+        <v>6482.81</v>
+      </c>
+      <c r="F62" s="31"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="38"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="31">
+        <v>61</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="38">
+        <v>1823.7</v>
+      </c>
+      <c r="F63" s="31"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="38"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="31">
+        <v>62</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="38">
+        <v>1329.35</v>
+      </c>
+      <c r="F64" s="31">
+        <v>62</v>
+      </c>
+      <c r="G64" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H64" s="37">
+        <v>1588.84</v>
+      </c>
+      <c r="I64" s="38">
+        <v>0.92215800000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="31">
+        <v>63</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="38">
+        <v>1452.32</v>
+      </c>
+      <c r="F65" s="31"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="38"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="31">
+        <v>64</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="38">
+        <v>2788.96</v>
+      </c>
+      <c r="F66" s="31"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="38"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="31">
+        <v>65</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="38">
+        <v>1909.88</v>
+      </c>
+      <c r="F67" s="31"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="38"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="31">
+        <v>66</v>
+      </c>
+      <c r="C68" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68" s="38">
+        <v>2311.71</v>
+      </c>
+      <c r="F68" s="31">
+        <v>66</v>
+      </c>
+      <c r="G68" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H68" s="37">
+        <v>2389.33</v>
+      </c>
+      <c r="I68" s="38">
+        <v>0.94334699999999994</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="31">
+        <v>67</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="38">
+        <v>1073.04</v>
+      </c>
+      <c r="F69" s="31">
+        <v>67</v>
+      </c>
+      <c r="G69" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H69" s="37">
+        <v>1361.91</v>
+      </c>
+      <c r="I69" s="38">
+        <v>0.89288100000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="31">
+        <v>68</v>
+      </c>
+      <c r="C70" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" s="38">
+        <v>2633.67</v>
+      </c>
+      <c r="F70" s="31"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="38"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="31">
+        <v>69</v>
+      </c>
+      <c r="C71" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" s="38">
+        <v>1655.03</v>
+      </c>
+      <c r="F71" s="31">
+        <v>69</v>
+      </c>
+      <c r="G71" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H71" s="37">
+        <v>1873.03</v>
+      </c>
+      <c r="I71" s="38">
+        <v>0.93168499999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="31">
+        <v>70</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" s="38">
+        <v>2733.89</v>
+      </c>
+      <c r="F72" s="31">
+        <v>70</v>
+      </c>
+      <c r="G72" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H72" s="37">
+        <v>2739.91</v>
+      </c>
+      <c r="I72" s="38">
+        <v>0.95642899999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="31">
+        <v>71</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D73" s="38">
+        <v>1872.99</v>
+      </c>
+      <c r="F73" s="31">
+        <v>71</v>
+      </c>
+      <c r="G73" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H73" s="37">
+        <v>2166.4899999999998</v>
+      </c>
+      <c r="I73" s="38">
+        <v>0.90966199999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="31">
+        <v>72</v>
+      </c>
+      <c r="C74" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D74" s="38">
+        <v>2393.9699999999998</v>
+      </c>
+      <c r="F74" s="31"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="38"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="31">
+        <v>73</v>
+      </c>
+      <c r="C75" s="37"/>
+      <c r="D75" s="38"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="38"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="31">
+        <v>74</v>
+      </c>
+      <c r="C76" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D76" s="38">
+        <v>934.75599999999997</v>
+      </c>
+      <c r="F76" s="31">
+        <v>74</v>
+      </c>
+      <c r="G76" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H76" s="37">
+        <v>1026.5999999999999</v>
+      </c>
+      <c r="I76" s="38">
+        <v>0.886463</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="31">
+        <v>75</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D77" s="38">
+        <v>1685.04</v>
+      </c>
+      <c r="F77" s="31">
+        <v>75</v>
+      </c>
+      <c r="G77" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H77" s="37">
+        <v>1467.93</v>
+      </c>
+      <c r="I77" s="38">
+        <v>0.94224299999999994</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="31">
+        <v>76</v>
+      </c>
+      <c r="C78" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D78" s="38">
+        <v>1454.24</v>
+      </c>
+      <c r="F78" s="31"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="38"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="31">
+        <v>77</v>
+      </c>
+      <c r="C79" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D79" s="38">
+        <v>2001.13</v>
+      </c>
+      <c r="F79" s="31"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="38"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="31">
+        <v>78</v>
+      </c>
+      <c r="C80" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D80" s="38">
+        <v>2288.11</v>
+      </c>
+      <c r="F80" s="31">
+        <v>78</v>
+      </c>
+      <c r="G80" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H80" s="37">
+        <v>1922.03</v>
+      </c>
+      <c r="I80" s="38">
+        <v>0.90231300000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="31">
+        <v>79</v>
+      </c>
+      <c r="C81" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" s="38">
+        <v>2301.0700000000002</v>
+      </c>
+      <c r="F81" s="31">
+        <v>79</v>
+      </c>
+      <c r="G81" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H81" s="37">
+        <v>2259.59</v>
+      </c>
+      <c r="I81" s="38">
+        <v>0.92179800000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="31">
+        <v>80</v>
+      </c>
+      <c r="C82" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" s="38">
+        <v>1210.33</v>
+      </c>
+      <c r="F82" s="31">
+        <v>80</v>
+      </c>
+      <c r="G82" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H82" s="37">
+        <v>1426.86</v>
+      </c>
+      <c r="I82" s="38">
+        <v>0.85251699999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="31">
+        <v>81</v>
+      </c>
+      <c r="C83" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83" s="38">
+        <v>1271.8</v>
+      </c>
+      <c r="F83" s="31">
+        <v>81</v>
+      </c>
+      <c r="G83" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H83" s="37">
+        <v>1440.9</v>
+      </c>
+      <c r="I83" s="38">
+        <v>0.90825699999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="31">
+        <v>82</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D84" s="38">
+        <v>1386.81</v>
+      </c>
+      <c r="F84" s="31">
+        <v>82</v>
+      </c>
+      <c r="G84" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H84" s="37">
+        <v>1418.24</v>
+      </c>
+      <c r="I84" s="38">
+        <v>0.87204300000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="31">
+        <v>83</v>
+      </c>
+      <c r="C85" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D85" s="38">
+        <v>2077.25</v>
+      </c>
+      <c r="F85" s="31">
+        <v>83</v>
+      </c>
+      <c r="G85" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H85" s="37">
+        <v>2080.9699999999998</v>
+      </c>
+      <c r="I85" s="38">
+        <v>0.93339499999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="31">
+        <v>84</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D86" s="38">
+        <v>1274.3800000000001</v>
+      </c>
+      <c r="F86" s="31"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="38"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="31">
+        <v>85</v>
+      </c>
+      <c r="C87" s="37"/>
+      <c r="D87" s="38"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="38"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="31">
+        <v>86</v>
+      </c>
+      <c r="C88" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D88" s="38">
+        <v>2924.71</v>
+      </c>
+      <c r="F88" s="31">
+        <v>86</v>
+      </c>
+      <c r="G88" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H88" s="37">
+        <v>2386.02</v>
+      </c>
+      <c r="I88" s="38">
+        <v>0.92452000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="31">
+        <v>87</v>
+      </c>
+      <c r="C89" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D89" s="38">
+        <v>976.95</v>
+      </c>
+      <c r="F89" s="31"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="38"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="31">
+        <v>88</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D90" s="38">
+        <v>2789.55</v>
+      </c>
+      <c r="F90" s="31">
+        <v>88</v>
+      </c>
+      <c r="G90" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H90" s="37">
+        <v>2811.37</v>
+      </c>
+      <c r="I90" s="38">
+        <v>0.92738399999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="31">
+        <v>89</v>
+      </c>
+      <c r="C91" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D91" s="38">
+        <v>231.119</v>
+      </c>
+      <c r="F91" s="31"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="38"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="31">
+        <v>90</v>
+      </c>
+      <c r="C92" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D92" s="38">
+        <v>3872.2</v>
+      </c>
+      <c r="F92" s="31">
+        <v>90</v>
+      </c>
+      <c r="G92" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H92" s="37">
+        <v>3751.2</v>
+      </c>
+      <c r="I92" s="38">
+        <v>0.93768799999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="31">
+        <v>91</v>
+      </c>
+      <c r="C93" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D93" s="38">
+        <v>2113.52</v>
+      </c>
+      <c r="F93" s="31">
+        <v>91</v>
+      </c>
+      <c r="G93" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H93" s="37">
+        <v>2320.0300000000002</v>
+      </c>
+      <c r="I93" s="38">
+        <v>0.95343199999999995</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="31">
+        <v>92</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D94" s="38">
+        <v>1944.21</v>
+      </c>
+      <c r="F94" s="31">
+        <v>92</v>
+      </c>
+      <c r="G94" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H94" s="37">
+        <v>1816.86</v>
+      </c>
+      <c r="I94" s="38">
+        <v>0.91617900000000008</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="31">
+        <v>93</v>
+      </c>
+      <c r="C95" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D95" s="38">
+        <v>1357.15</v>
+      </c>
+      <c r="F95" s="31">
+        <v>93</v>
+      </c>
+      <c r="G95" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H95" s="37">
+        <v>1399.21</v>
+      </c>
+      <c r="I95" s="38">
+        <v>0.92351399999999995</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="31">
+        <v>94</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D96" s="38">
+        <v>2398.73</v>
+      </c>
+      <c r="F96" s="31">
+        <v>94</v>
+      </c>
+      <c r="G96" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H96" s="37">
+        <v>2253.86</v>
+      </c>
+      <c r="I96" s="38">
+        <v>0.95493899999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="31">
+        <v>95</v>
+      </c>
+      <c r="C97" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D97" s="38">
+        <v>2680.58</v>
+      </c>
+      <c r="F97" s="31">
+        <v>95</v>
+      </c>
+      <c r="G97" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H97" s="37">
+        <v>2649.56</v>
+      </c>
+      <c r="I97" s="38">
+        <v>0.92559000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="31">
+        <v>96</v>
+      </c>
+      <c r="C98" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D98" s="38">
+        <v>1382.75</v>
+      </c>
+      <c r="F98" s="31">
+        <v>96</v>
+      </c>
+      <c r="G98" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H98" s="37">
+        <v>2032.49</v>
+      </c>
+      <c r="I98" s="38">
+        <v>0.86399199999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="31">
+        <v>97</v>
+      </c>
+      <c r="C99" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D99" s="38">
+        <v>1957.42</v>
+      </c>
+      <c r="F99" s="31">
+        <v>97</v>
+      </c>
+      <c r="G99" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H99" s="37">
+        <v>1989.88</v>
+      </c>
+      <c r="I99" s="38">
+        <v>0.93153400000000008</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="31">
+        <v>98</v>
+      </c>
+      <c r="C100" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D100" s="38">
+        <v>1313.27</v>
+      </c>
+      <c r="F100" s="31">
+        <v>98</v>
+      </c>
+      <c r="G100" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H100" s="37">
+        <v>1235.1300000000001</v>
+      </c>
+      <c r="I100" s="38">
+        <v>0.88061400000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="31">
+        <v>99</v>
+      </c>
+      <c r="C101" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D101" s="38">
+        <v>2213.14</v>
+      </c>
+      <c r="F101" s="31">
+        <v>99</v>
+      </c>
+      <c r="G101" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H101" s="37">
+        <v>2386.73</v>
+      </c>
+      <c r="I101" s="38">
+        <v>0.93696600000000008</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="31">
+        <v>100</v>
+      </c>
+      <c r="C102" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D102" s="38">
+        <v>1691.13</v>
+      </c>
+      <c r="F102" s="31">
+        <v>100</v>
+      </c>
+      <c r="G102" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H102" s="37">
+        <v>1489.94</v>
+      </c>
+      <c r="I102" s="38">
+        <v>0.94909999999999994</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="31">
+        <v>101</v>
+      </c>
+      <c r="C103" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D103" s="38">
+        <v>3058.34</v>
+      </c>
+      <c r="F103" s="31"/>
+      <c r="G103" s="37"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="38"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="31">
+        <v>102</v>
+      </c>
+      <c r="C104" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D104" s="38">
+        <v>338.59399999999999</v>
+      </c>
+      <c r="F104" s="31">
+        <v>102</v>
+      </c>
+      <c r="G104" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H104" s="37">
+        <v>1988.8</v>
+      </c>
+      <c r="I104" s="38">
+        <v>0.80160799999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="51">
+        <v>103</v>
+      </c>
+      <c r="C105" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D105" s="53">
+        <v>2482.0700000000002</v>
+      </c>
+      <c r="F105" s="51">
+        <v>103</v>
+      </c>
+      <c r="G105" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="H105" s="52">
+        <v>1781.79</v>
+      </c>
+      <c r="I105" s="53">
+        <v>0.93269499999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764FB5C2-BE84-405B-A027-53B85F501B7E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -9724,1713 +16252,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0314E27C-272D-4EFB-AFDD-94BE43DF51E9}">
-  <dimension ref="B1:F104"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="21"/>
-    <col min="3" max="3" width="10.140625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="16" style="21" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="21" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="21"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="31">
-        <v>1</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="69">
-        <v>0.9868055555555556</v>
-      </c>
-      <c r="F3" s="38">
-        <v>1446.64</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="31">
-        <v>2</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="31">
-        <v>3</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="69">
-        <v>0.98888888888888893</v>
-      </c>
-      <c r="F5" s="38">
-        <v>1274.3800000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="31">
-        <v>4</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="69">
-        <v>0.98958333333333337</v>
-      </c>
-      <c r="F6" s="38">
-        <v>1700.1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="31">
-        <v>5</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="69">
-        <v>0.9902777777777777</v>
-      </c>
-      <c r="F7" s="38">
-        <v>2171.87</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="31">
-        <v>6</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="69">
-        <v>0.99097222222222225</v>
-      </c>
-      <c r="F8" s="38">
-        <v>1383.31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="31">
-        <v>7</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="69">
-        <v>0.9916666666666667</v>
-      </c>
-      <c r="F9" s="38">
-        <v>425.411</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="31">
-        <v>8</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="69">
-        <v>0.99236111111111114</v>
-      </c>
-      <c r="F10" s="38">
-        <v>1329.56</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="31">
-        <v>9</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="69">
-        <v>0.99305555555555547</v>
-      </c>
-      <c r="F11" s="38">
-        <v>1462.02</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="31">
-        <v>10</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="69">
-        <v>0.99375000000000002</v>
-      </c>
-      <c r="F12" s="38">
-        <v>1301.94</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="31">
-        <v>11</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="69">
-        <v>0.99444444444444446</v>
-      </c>
-      <c r="F13" s="38">
-        <v>1333.59</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="31">
-        <v>12</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="69">
-        <v>0.99444444444444446</v>
-      </c>
-      <c r="F14" s="38">
-        <v>1634.38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="31">
-        <v>13</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="69">
-        <v>0.99513888888888891</v>
-      </c>
-      <c r="F15" s="38">
-        <v>1367.9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="31">
-        <v>14</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="69">
-        <v>0.99652777777777779</v>
-      </c>
-      <c r="F16" s="38">
-        <v>1582.96</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="31">
-        <v>15</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="69">
-        <v>0.99652777777777779</v>
-      </c>
-      <c r="F17" s="38">
-        <v>232.22300000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="31">
-        <v>16</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="69">
-        <v>0.99791666666666667</v>
-      </c>
-      <c r="F18" s="38">
-        <v>1725.1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="31">
-        <v>17</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="69">
-        <v>0.99791666666666667</v>
-      </c>
-      <c r="F19" s="38">
-        <v>1159.02</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="31">
-        <v>18</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="69">
-        <v>0.99861111111111101</v>
-      </c>
-      <c r="F20" s="38">
-        <v>1439.9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="31">
-        <v>19</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="69">
-        <v>0.99930555555555556</v>
-      </c>
-      <c r="F21" s="38">
-        <v>1278.45</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="31">
-        <v>20</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="69">
-        <v>6.9444444444444447E-4</v>
-      </c>
-      <c r="F22" s="38">
-        <v>1482.93</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="31">
-        <v>21</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="69">
-        <v>6.9444444444444447E-4</v>
-      </c>
-      <c r="F23" s="38">
-        <v>2704.79</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="31">
-        <v>22</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="69">
-        <v>1.3888888888888889E-3</v>
-      </c>
-      <c r="F24" s="38">
-        <v>1224.02</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="31">
-        <v>23</v>
-      </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="31">
-        <v>24</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="69">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="F26" s="38">
-        <v>2362.75</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="31">
-        <v>25</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="69">
-        <v>3.472222222222222E-3</v>
-      </c>
-      <c r="F27" s="38">
-        <v>1312.92</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="31">
-        <v>26</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="69">
-        <v>4.8611111111111112E-3</v>
-      </c>
-      <c r="F28" s="38">
-        <v>1588.32</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="31">
-        <v>27</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="69">
-        <v>5.5555555555555558E-3</v>
-      </c>
-      <c r="F29" s="38">
-        <v>1176.8</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="31">
-        <v>28</v>
-      </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="31">
-        <v>29</v>
-      </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="31">
-        <v>30</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="69">
-        <v>7.6388888888888886E-3</v>
-      </c>
-      <c r="F32" s="38">
-        <v>2578.5300000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="31">
-        <v>31</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="69">
-        <v>7.6388888888888886E-3</v>
-      </c>
-      <c r="F33" s="38">
-        <v>1613.73</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="31">
-        <v>32</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" s="69">
-        <v>9.0277777777777787E-3</v>
-      </c>
-      <c r="F34" s="38">
-        <v>1137.2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="31">
-        <v>33</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="69">
-        <v>9.7222222222222224E-3</v>
-      </c>
-      <c r="F35" s="38">
-        <v>406.83800000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="31">
-        <v>34</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="69">
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="F36" s="38">
-        <v>1002.55</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="31">
-        <v>35</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="69">
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="F37" s="38">
-        <v>1184.5999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="31">
-        <v>36</v>
-      </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="38"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="31">
-        <v>37</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="69">
-        <v>1.2499999999999999E-2</v>
-      </c>
-      <c r="F39" s="38">
-        <v>1660.13</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="31">
-        <v>38</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="69">
-        <v>1.3194444444444444E-2</v>
-      </c>
-      <c r="F40" s="38">
-        <v>3385.18</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="31">
-        <v>40</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E41" s="69">
-        <v>1.3888888888888888E-2</v>
-      </c>
-      <c r="F41" s="38">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="31">
-        <v>41</v>
-      </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="38"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="31">
-        <v>42</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" s="69">
-        <v>1.5277777777777777E-2</v>
-      </c>
-      <c r="F43" s="38">
-        <v>3076.39</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="31">
-        <v>43</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E44" s="69">
-        <v>1.5972222222222224E-2</v>
-      </c>
-      <c r="F44" s="38">
-        <v>2658.12</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="31">
-        <v>44</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="69">
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="F45" s="38">
-        <v>2271.42</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="31">
-        <v>45</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="69">
-        <v>1.7361111111111112E-2</v>
-      </c>
-      <c r="F46" s="38">
-        <v>1042.93</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="31">
-        <v>46</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E47" s="69">
-        <v>1.8055555555555557E-2</v>
-      </c>
-      <c r="F47" s="38">
-        <v>1186.75</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="31">
-        <v>47</v>
-      </c>
-      <c r="C48" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="69">
-        <v>1.8749999999999999E-2</v>
-      </c>
-      <c r="F48" s="38">
-        <v>1546.48</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="31">
-        <v>48</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" s="69">
-        <v>1.9444444444444445E-2</v>
-      </c>
-      <c r="F49" s="38">
-        <v>1415.33</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="31">
-        <v>49</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E50" s="69">
-        <v>2.013888888888889E-2</v>
-      </c>
-      <c r="F50" s="38">
-        <v>957.48800000000006</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="31">
-        <v>50</v>
-      </c>
-      <c r="C51" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" s="69">
-        <v>2.013888888888889E-2</v>
-      </c>
-      <c r="F51" s="38">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="31">
-        <v>51</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D52" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E52" s="69">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="F52" s="38">
-        <v>1158.23</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="31">
-        <v>52</v>
-      </c>
-      <c r="C53" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D53" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E53" s="69">
-        <v>2.2222222222222223E-2</v>
-      </c>
-      <c r="F53" s="38">
-        <v>2019.89</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="31">
-        <v>53</v>
-      </c>
-      <c r="C54" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D54" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54" s="69">
-        <v>2.2916666666666669E-2</v>
-      </c>
-      <c r="F54" s="38">
-        <v>2603.5300000000002</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="31">
-        <v>54</v>
-      </c>
-      <c r="C55" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E55" s="69">
-        <v>2.361111111111111E-2</v>
-      </c>
-      <c r="F55" s="38">
-        <v>2571.67</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="31">
-        <v>55</v>
-      </c>
-      <c r="C56" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E56" s="69">
-        <v>2.4305555555555556E-2</v>
-      </c>
-      <c r="F56" s="38">
-        <v>2001.62</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="31">
-        <v>56</v>
-      </c>
-      <c r="C57" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E57" s="69">
-        <v>2.4999999999999998E-2</v>
-      </c>
-      <c r="F57" s="38">
-        <v>1743.34</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="31">
-        <v>57</v>
-      </c>
-      <c r="C58" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E58" s="69">
-        <v>2.4999999999999998E-2</v>
-      </c>
-      <c r="F58" s="38">
-        <v>1793.95</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="31">
-        <v>58</v>
-      </c>
-      <c r="C59" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E59" s="69">
-        <v>2.6388888888888889E-2</v>
-      </c>
-      <c r="F59" s="38">
-        <v>2049.79</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="31">
-        <v>59</v>
-      </c>
-      <c r="C60" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D60" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E60" s="69">
-        <v>2.7083333333333334E-2</v>
-      </c>
-      <c r="F60" s="38">
-        <v>1477.52</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="31">
-        <v>60</v>
-      </c>
-      <c r="C61" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E61" s="69">
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="F61" s="38">
-        <v>6482.81</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="31">
-        <v>61</v>
-      </c>
-      <c r="C62" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E62" s="69">
-        <v>2.8472222222222222E-2</v>
-      </c>
-      <c r="F62" s="38">
-        <v>1823.7</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="31">
-        <v>62</v>
-      </c>
-      <c r="C63" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D63" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E63" s="69">
-        <v>2.9166666666666664E-2</v>
-      </c>
-      <c r="F63" s="38">
-        <v>1329.35</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="31">
-        <v>63</v>
-      </c>
-      <c r="C64" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D64" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E64" s="69">
-        <v>2.9861111111111113E-2</v>
-      </c>
-      <c r="F64" s="38">
-        <v>1452.32</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="31">
-        <v>64</v>
-      </c>
-      <c r="C65" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D65" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E65" s="69">
-        <v>3.0555555555555555E-2</v>
-      </c>
-      <c r="F65" s="38">
-        <v>2788.96</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="31">
-        <v>65</v>
-      </c>
-      <c r="C66" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D66" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E66" s="69">
-        <v>3.0555555555555555E-2</v>
-      </c>
-      <c r="F66" s="38">
-        <v>1909.88</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="31">
-        <v>66</v>
-      </c>
-      <c r="C67" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D67" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E67" s="69">
-        <v>3.1944444444444449E-2</v>
-      </c>
-      <c r="F67" s="38">
-        <v>2311.71</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="31">
-        <v>67</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D68" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E68" s="69">
-        <v>3.2638888888888891E-2</v>
-      </c>
-      <c r="F68" s="38">
-        <v>1073.04</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="31">
-        <v>68</v>
-      </c>
-      <c r="C69" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D69" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E69" s="69">
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="F69" s="38">
-        <v>2633.67</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="31">
-        <v>69</v>
-      </c>
-      <c r="C70" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D70" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E70" s="69">
-        <v>3.4027777777777775E-2</v>
-      </c>
-      <c r="F70" s="38">
-        <v>1655.03</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="31">
-        <v>70</v>
-      </c>
-      <c r="C71" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D71" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E71" s="69">
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="F71" s="38">
-        <v>2733.89</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="31">
-        <v>71</v>
-      </c>
-      <c r="C72" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D72" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E72" s="69">
-        <v>3.5416666666666666E-2</v>
-      </c>
-      <c r="F72" s="38">
-        <v>1872.99</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="31">
-        <v>72</v>
-      </c>
-      <c r="C73" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D73" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E73" s="69">
-        <v>3.6111111111111115E-2</v>
-      </c>
-      <c r="F73" s="38">
-        <v>2393.9699999999998</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="31">
-        <v>73</v>
-      </c>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="38"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="31">
-        <v>74</v>
-      </c>
-      <c r="C75" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D75" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E75" s="69">
-        <v>3.6805555555555557E-2</v>
-      </c>
-      <c r="F75" s="38">
-        <v>934.75599999999997</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="31">
-        <v>75</v>
-      </c>
-      <c r="C76" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D76" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E76" s="69">
-        <v>3.8194444444444441E-2</v>
-      </c>
-      <c r="F76" s="38">
-        <v>1685.04</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="31">
-        <v>76</v>
-      </c>
-      <c r="C77" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D77" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E77" s="69">
-        <v>3.8194444444444441E-2</v>
-      </c>
-      <c r="F77" s="38">
-        <v>1454.24</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="31">
-        <v>77</v>
-      </c>
-      <c r="C78" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D78" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E78" s="69">
-        <v>3.888888888888889E-2</v>
-      </c>
-      <c r="F78" s="38">
-        <v>2001.13</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="31">
-        <v>78</v>
-      </c>
-      <c r="C79" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D79" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E79" s="69">
-        <v>4.027777777777778E-2</v>
-      </c>
-      <c r="F79" s="38">
-        <v>2288.11</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="31">
-        <v>79</v>
-      </c>
-      <c r="C80" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D80" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E80" s="69">
-        <v>4.027777777777778E-2</v>
-      </c>
-      <c r="F80" s="38">
-        <v>2301.0700000000002</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="31">
-        <v>80</v>
-      </c>
-      <c r="C81" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D81" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E81" s="69">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="F81" s="38">
-        <v>1210.33</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="31">
-        <v>81</v>
-      </c>
-      <c r="C82" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D82" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E82" s="69">
-        <v>4.2361111111111106E-2</v>
-      </c>
-      <c r="F82" s="38">
-        <v>1271.8</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="31">
-        <v>82</v>
-      </c>
-      <c r="C83" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D83" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E83" s="69">
-        <v>4.3055555555555562E-2</v>
-      </c>
-      <c r="F83" s="38">
-        <v>1386.81</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="31">
-        <v>83</v>
-      </c>
-      <c r="C84" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D84" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E84" s="69">
-        <v>4.3055555555555562E-2</v>
-      </c>
-      <c r="F84" s="38">
-        <v>2077.25</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="31">
-        <v>84</v>
-      </c>
-      <c r="C85" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D85" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E85" s="69">
-        <v>4.4444444444444446E-2</v>
-      </c>
-      <c r="F85" s="38">
-        <v>1274.3800000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="31">
-        <v>85</v>
-      </c>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="38"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="31">
-        <v>86</v>
-      </c>
-      <c r="C87" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D87" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E87" s="69">
-        <v>4.5833333333333337E-2</v>
-      </c>
-      <c r="F87" s="38">
-        <v>2924.71</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="31">
-        <v>87</v>
-      </c>
-      <c r="C88" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D88" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E88" s="69">
-        <v>4.5833333333333337E-2</v>
-      </c>
-      <c r="F88" s="38">
-        <v>976.95</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="31">
-        <v>88</v>
-      </c>
-      <c r="C89" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D89" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E89" s="69">
-        <v>4.7222222222222221E-2</v>
-      </c>
-      <c r="F89" s="38">
-        <v>2789.55</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="31">
-        <v>89</v>
-      </c>
-      <c r="C90" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D90" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E90" s="69">
-        <v>4.7916666666666663E-2</v>
-      </c>
-      <c r="F90" s="38">
-        <v>231.119</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="31">
-        <v>90</v>
-      </c>
-      <c r="C91" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D91" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E91" s="69">
-        <v>4.8611111111111112E-2</v>
-      </c>
-      <c r="F91" s="38">
-        <v>3872.2</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="31">
-        <v>91</v>
-      </c>
-      <c r="C92" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D92" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E92" s="69">
-        <v>4.9305555555555554E-2</v>
-      </c>
-      <c r="F92" s="38">
-        <v>2113.52</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="31">
-        <v>92</v>
-      </c>
-      <c r="C93" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D93" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E93" s="69">
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="F93" s="38">
-        <v>1944.21</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="31">
-        <v>93</v>
-      </c>
-      <c r="C94" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D94" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E94" s="69">
-        <v>5.0694444444444452E-2</v>
-      </c>
-      <c r="F94" s="38">
-        <v>1357.15</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="31">
-        <v>94</v>
-      </c>
-      <c r="C95" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D95" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E95" s="69">
-        <v>5.1388888888888894E-2</v>
-      </c>
-      <c r="F95" s="38">
-        <v>2398.73</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="31">
-        <v>95</v>
-      </c>
-      <c r="C96" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D96" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E96" s="69">
-        <v>5.2083333333333336E-2</v>
-      </c>
-      <c r="F96" s="38">
-        <v>2680.58</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="31">
-        <v>96</v>
-      </c>
-      <c r="C97" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D97" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E97" s="69">
-        <v>5.2777777777777778E-2</v>
-      </c>
-      <c r="F97" s="38">
-        <v>1382.75</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="31">
-        <v>97</v>
-      </c>
-      <c r="C98" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D98" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E98" s="69">
-        <v>5.347222222222222E-2</v>
-      </c>
-      <c r="F98" s="38">
-        <v>1957.42</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="31">
-        <v>98</v>
-      </c>
-      <c r="C99" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D99" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E99" s="69">
-        <v>5.4166666666666669E-2</v>
-      </c>
-      <c r="F99" s="38">
-        <v>1313.27</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="31">
-        <v>99</v>
-      </c>
-      <c r="C100" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D100" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E100" s="69">
-        <v>5.486111111111111E-2</v>
-      </c>
-      <c r="F100" s="38">
-        <v>2213.14</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="31">
-        <v>100</v>
-      </c>
-      <c r="C101" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D101" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E101" s="69">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="F101" s="38">
-        <v>1691.13</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="31">
-        <v>101</v>
-      </c>
-      <c r="C102" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D102" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E102" s="69">
-        <v>5.6250000000000001E-2</v>
-      </c>
-      <c r="F102" s="38">
-        <v>3058.34</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="31">
-        <v>102</v>
-      </c>
-      <c r="C103" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D103" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E103" s="69">
-        <v>5.6944444444444443E-2</v>
-      </c>
-      <c r="F103" s="38">
-        <v>338.59399999999999</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="70">
-        <v>103</v>
-      </c>
-      <c r="C104" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="D104" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="E104" s="72">
-        <v>5.7638888888888885E-2</v>
-      </c>
-      <c r="F104" s="73">
-        <v>2482.0700000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:F2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DLCPolicyLabelClientValue xmlns="e2656bbd-0e15-4aa0-af00-25744e385561">{_UIVersionString}</DLCPolicyLabelClientValue>
+    <_dlc_BarcodeImage xmlns="e2656bbd-0e15-4aa0-af00-25744e385561">iVBORw0KGgoAAAANSUhEUgAAAYIAAABtCAYAAACsn2ZqAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAABp9SURBVHhe7ZvBihzbsiz3///0eeiBgeGE54qsTA0uSgMfWLt3aA2aqpH++9/Hx8fHxz/N90Xw8fHx8Y/zfRF8fHx8/ON8XwQfHx8f/zjfF8HHx8fHP873RfDx8fHxj/P6F8F///33/zORHe7ApgNvWjdx2uIOnNy0rQNPuwnvc7d1B9JN2zqwdWciO+9bB97c6Ux2W3cg3Zy2uAObbqJtHWjuQLrxPne/ujORXXMH0k3bOrDp3ub1i1cPzQ53YNOBN62bOG1xB05u2taBp92E97nbugPppm0d2LozkZ33rQNv7nQmu607kG5OW9yBTTfRtg40dyDdeJ+7X92ZyK65A+mmbR3YdG/z+sWrh2aHO7DpwJvWTZy2uAMnN23rwNNuwvvcbd2BdNO2DmzdmcjO+9aBN3c6k93WHUg3py3uwKabaFsHmjuQbrzP3a/uTGTX3IF007YObLq3ef3i1UOzwx3YdOBN6yZOW9yBk5u2deBpN+F97rbuQLppWwe27kxk533rwJs7nclu6w6km9MWd2DTTbStA80dSDfe5+5Xdyaya+5AumlbBzbd27x+8eqh2eEObDrwpnUTpy3uwMlN2zrwtJvwPndbdyDdtK0DW3cmsvO+deDNnc5kt3UH0s1pizuw6Sba1oHmDqQb73P3qzsT2TV3IN20rQOb7m1ev3j10OxwBzYdeNO6idMWd+Dkpm0deNpNeJ+7rTuQbtrWga07E9l53zrw5k5nstu6A+nmtMUd2HQTbetAcwfSjfe5+9WdieyaO5Bu2taBTfc2r1+8emh2uAObDrxp3cRpiztwctO2DjztJrzP3dYdSDdt68DWnYnsvG8deHOnM9lt3YF0c9riDmy6ibZ1oLkD6cb73P3qzkR2zR1IN23rwKZ7m9cvXj00O9yBTQfetG7itMUdOLlpWweedhPe527rDqSbtnVg685Edt63Dry505nstu5AujltcQc23UTbOtDcgXTjfe5+dWciu+YOpJu2dWDTvc3rF68emh3uwKYDb1o3cdriDpzctK0DT7sJ73O3dQfSTds6sHVnIjvvWwfe3OlMdlt3IN2ctrgDm26ibR1o7kC68T53v7ozkV1zB9JN2zqw6d7m9YtXD80Od2DTgTetmzhtcQdObtrWgafdhPe527oD6aZtHdi6M5Gd960Db+50JrutO5BuTlvcgU030bYONHcg3Xifu1/dmciuuQPppm0d2HRv8/rFq4dmhzuw6cCb1k2ctrgDJzdt68DTbsL73G3dgXTTtg5s3ZnIzvvWgTd3OpPd1h1IN6ct7sCmm2hbB5o7kG68z92v7kxk19yBdNO2Dmy6t3n94tVDs8Md2HTgTesmTlvcgZObtnXgaTfhfe627kC6aVsHtu5MZOd968CbO53JbusOpJvTFndg0020rQPNHUg33ufuV3cmsmvuQLppWwc23du8fvHqodnhDmw68KZ1E6ct7sDJTds68LSb8D53W3cg3bStA1t3JrLzvnXgzZ3OZLd1B9LNaYs7sOkm2taB5g6kG+9z96s7E9k1dyDdtK0Dm+5tXr949dDscAc2HXjTuonTFnfg5KZtHXjaTXifu607kG7a1oGtOxPZed868OZOZ7LbugPp5rTFHdh0E23rQHMH0o33ufvVnYnsmjuQbtrWgU33Nq9fvHpodrgDmw68ad3EaYs7cHLTtg487Sa8z93WHUg3bevA1p2J7LxvHXhzpzPZbd2BdHPa4g5suom2daC5A+nG+9z96s5Eds0dSDdt68Cme5vXL149NDvcgU0H3rRu4rTFHTi5aVsHnnYT3udu6w6km7Z1YOvORHbetw68udOZ7LbuQLo5bXEHNt1E2zrQ3IF0433ufnVnIrvmDqSbtnVg073N6xevHpod7sCmA29aN3Ha4g6c3LStA0+7Ce9zt3UH0k3bOrB1ZyI771sH3tzpTHZbdyDdnLa4A5tuom0daO5AuvE+d7+6M5FdcwfSTds6sOne5vWLVw/NDndg04E3rZs4bXEHTm7a1oGn3YT3udu6A+mmbR3YujORnfetA2/udCa7rTuQbk5b3IFNN9G2DjR3IN14n7tf3ZnIrrkD6aZtHdh0b/P6xauHZoc7sOnAm9ZNnLa4Ayc3bevA027C+9xt3YF007YObN2ZyM771oE3dzqT3dYdSDenLe7ApptoWweaO5BuvM/dr+5MZNfcgXTTtg5surd5/eLVQ7PDHdh04E3rJk5b3IGTm7Z14Gk34X3utu5AumlbB7buTGTnfevAmzudyW7rDqSb0xZ3YNNNtK0DzR1IN97n7ld3JrJr7kC6aVsHNt3bvH7x6qHZ4Q5sOvCmdROnLe7AyU3bOvC0m/A+d1t3IN20rQNbdyay87514M2dzmS3dQfSzWmLO7DpJtrWgeYOpBvvc/erOxPZNXcg3bStA5vubV6/ePXQ7HAHNh1407qJ0xZ34OSmbR142k14n7utO5Bu2taBrTsT2XnfOvDmTmey27oD6ea0xR3YdBNt60BzB9KN97n71Z2J7Jo7kG7a1oFN9zavX7x6aHa4A5sOvGndxGmLO3By07YOPO0mvM/d1h1IN23rwNadiey8bx14c6cz2W3dgXRz2uIObLqJtnWguQPpxvvc/erORHbNHUg3bevApnub1y9ePTQ73IFNB960buK0xR04uWlbB552E97nbusOpJu2dWDrzkR23rcOvLnTmey27kC6OW1xBzbdRNs60NyBdON97n51ZyK75g6km7Z1YNO9zesXrx6aHe7ApgNvWjdx2uIOnNy0rQNPuwnvc7d1B9JN2zqwdWciO+9bB97c6Ux2W3cg3Zy2uAObbqJtHWjuQLrxPne/ujORXXMH0k3bOrDp3ub1i1cPzQ53YNOBN62bOG1xB05u2taBp92E97nbugPppm0d2LozkZ33rQNv7nQmu607kG5OW9yBTTfRtg40dyDdeJ+7X92ZyK65A+mmbR3YdG/z+sWrh2aHO7DpwJvWTZy2uAMnN23rwNNuwvvcbd2BdNO2DmzdmcjO+9aBN3c6k93WHUg3py3uwKabaFsHmjuQbrzP3a/uTGTX3IF007YObLq3ef3i1UOzwx3YdOBN6yZOW9yBk5u2deBpN+F97rbuQLppWwe27kxk533rwJs7nclu6w6km9MWd2DTTbStA80dSDfe5+5Xdyaya+5AumlbBzbd27x+8eqh2eEObDrwpnUTpy3uwMlN2zrwtJvwPndbdyDdtK0DW3cmsvO+deDNnc5kt3UH0s1pizuw6Sba1oHmDqQb73P3qzsT2TV3IN20rQOb7m1ev3j10OxwBzYdeNO6idMWd+Dkpm0deNpNeJ+7rTuQbtrWga07E9l53zrw5k5nstu6A+nmtMUd2HQTbetAcwfSjfe5+9WdieyaO5Bu2taBTfc2r1+8emh2uAObDrxp3cRpiztwctO2DjztJrzP3dYdSDdt68DWnYnsvG8deHOnM9lt3YF0c9riDmy6ibZ1oLkD6cb73P3qzkR2zR1IN23rwKZ7m9cvXj00O9yBTQfetG7itMUdOLlpWweedhPe527rDqSbtnVg685Edt63Dry505nstu5AujltcQc23UTbOtDcgXTjfe5+dWciu+YOpJu2dWDTvc3rF68emh3uwKYDb1o3cdriDpzctK0DT7sJ73O3dQfSTds6sHVnIjvvWwfe3OlMdlt3IN2ctrgDm26ibR1o7kC68T53v7ozkV1zB9JN2zqw6d7m9YtXD80Od2DTgTetmzhtcQdObtrWgafdhPe527oD6aZtHdi6M5Gd960Db+50JrutO5BuTlvcgU030bYONHcg3Xifu1/dmciuuQPppm0d2HRv8/rFq4dmhzuw6cCb1k2ctrgDJzdt68DTbsL73G3dgXTTtg5s3ZnIzvvWgTd3OpPd1h1IN6ct7sCmm2hbB5o7kG68z92v7kxk19yBdNO2Dmy6t3n94tVDs8Md2HTgTesmTlvcgZObtnXgaTfhfe627kC6aVsHtu5MZOd968CbO53JbusOpJvTFndg0020rQPNHUg33ufuV3cmsmvuQLppWwc23du8fvHqodnhDmw68KZ1E6ct7sDJTds68LSb8D53W3cg3bStA1t3JrLzvnXgzZ3OZLd1B9LNaYs7sOkm2taB5g6kG+9z96s7E9k1dyDdtK0Dm+5tXr949dDscAc2HXjTuonTFnfg5KZtHXjaTXifu607kG7a1oGtOxPZed868OZOZ7LbugPp5rTFHdh0E23rQHMH0o33ufvVnYnsmjuQbtrWgU33Nq9fvHpodrgDmw68ad3EaYs7cHLTtg487Sa8z93WHUg3bevA1p2J7LxvHXhzpzPZbd2BdHPa4g5suom2daC5A+nG+9z96s5Eds0dSDdt68Cme5vXL149NDvcgU0H3rRu4rTFHTi5aVsHnnYT3udu6w6km7Z1YOvORHbetw68udOZ7LbuQLo5bXEHNt1E2zrQ3IF0433ufnVnIrvmDqSbtnVg073N6xevHpod7sCmA29aN3Ha4g6c3LStA0+7Ce9zt3UH0k3bOrB1ZyI771sH3tzpTHZbdyDdnLa4A5tuom0daO5AuvE+d7+6M5FdcwfSTds6sOne5vWLVw/NDndg04E3rZs4bXEHTm7a1oGn3YT3udu6A+mmbR3YujORnfetA2/udCa7rTuQbk5b3IFNN9G2DjR3IN14n7tf3ZnIrrkD6aZtHdh0b/P6xauHZoc7sOnAm9ZNnLa4Ayc3bevA027C+9xt3YF007YObN2ZyM771oE3dzqT3dYdSDenLe7ApptoWweaO5BuvM/dr+5MZNfcgXTTtg5surd5/eLVQ7PDHdh04E3rJk5b3IGTm7Z14Gk34X3utu5AumlbB7buTGTnfevAmzudyW7rDqSb0xZ3YNNNtK0DzR1IN97n7ld3JrJr7kC6aVsHNt3bvH7x6qHZ4Q5sOvCmdROnLe7AyU3bOvC0m/A+d1t3IN20rQNbdyay87514M2dzmS3dQfSzWmLO7DpJtrWgeYOpBvvc/erOxPZNXcg3bStA5vubV6/ePXQ7HAHNh1407qJ0xZ34OSmbR142k14n7utO5Bu2taBrTsT2XnfOvDmTmey27oD6ea0xR3YdBNt60BzB9KN97n71Z2J7Jo7kG7a1oFN9zavX7x6aHa4A5sOvGndxGmLO3By07YOPO0mvM/d1h1IN23rwNadiey8bx14c6cz2W3dgXRz2uIObLqJtnWguQPpxvvc/erORHbNHUg3bevApnub1y9ePTQ73IFNB960buK0xR04uWlbB552E97nbusOpJu2dWDrzkR23rcOvLnTmey27kC6OW1xBzbdRNs60NyBdON97n51ZyK75g6km7Z1YNO9zesXrx6aHe7ApgNvWjdx2uIOnNy0rQNPuwnvc7d1B9JN2zqwdWciO+9bB97c6Ux2W3cg3Zy2uAObbqJtHWjuQLrxPne/ujORXXMH0k3bOrDp3ub1i1cPzQ53YNOBN62bOG1xB05u2taBp92E97nbugPppm0d2LozkZ33rQNv7nQmu607kG5OW9yBTTfRtg40dyDdeJ+7X92ZyK65A+mmbR3YdG/z+sWrh2aHO7DpwJvWTZy2uAMnN23rwNNuwvvcbd2BdNO2DmzdmcjO+9aBN3c6k93WHUg3py3uwKabaFsHmjuQbrzP3a/uTGTX3IF007YObLq3ef3i1UOzwx3YdOBN6yZOW9yBk5u2deBpN+F97rbuQLppWwe27kxk533rwJs7nclu6w6km9MWd2DTTbStA80dSDfe5+5Xdyaya+5AumlbBzbd27x+8eqh2eEObDrwpnUTpy3uwMlN2zrwtJvwPndbdyDdtK0DW3cmsvO+deDNnc5kt3UH0s1pizuw6Sba1oHmDqQb73P3qzsT2TV3IN20rQOb7m1ev3j10OxwBzYdeNO6idMWd+Dkpm0deNpNeJ+7rTuQbtrWga07E9l53zrw5k5nstu6A+nmtMUd2HQTbetAcwfSjfe5+9WdieyaO5Bu2taBTfc2r1+8emh2uAObDrxp3cRpiztwctO2DjztJrzP3dYdSDdt68DWnYnsvG8deHOnM9lt3YF0c9riDmy6ibZ1oLkD6cb73P3qzkR2zR1IN23rwKZ7m9cvXj00O9yBTQfetG7itMUdOLlpWweedhPe527rDqSbtnVg685Edt63Dry505nstu5AujltcQc23UTbOtDcgXTjfe5+dWciu+YOpJu2dWDTvc3rF68emh3uwKYDb1o3cdriDpzctK0DT7sJ73O3dQfSTds6sHVnIjvvWwfe3OlMdlt3IN2ctrgDm26ibR1o7kC68T53v7ozkV1zB9JN2zqw6d7m9YtXD80Od2DTgTetmzhtcQdObtrWgafdhPe527oD6aZtHdi6M5Gd960Db+50JrutO5BuTlvcgU030bYONHcg3Xifu1/dmciuuQPppm0d2HRv8/rFq4dmhzuw6cCb1k2ctrgDJzdt68DTbsL73G3dgXTTtg5s3ZnIzvvWgTd3OpPd1h1IN6ct7sCmm2hbB5o7kG68z92v7kxk19yBdNO2Dmy6t3n94tVDs8Md2HTgTesmTlvcgZObtnXgaTfhfe627kC6aVsHtu5MZOd968CbO53JbusOpJvTFndg0020rQPNHUg33ufuV3cmsmvuQLppWwc23du8fvHqodnhDmw68KZ1E6ct7sDJTds68LSb8D53W3cg3bStA1t3JrLzvnXgzZ3OZLd1B9LNaYs7sOkm2taB5g6kG+9z96s7E9k1dyDdtK0Dm+5tXr949dDscAc2HXjTuonTFnfg5KZtHXjaTXifu607kG7a1oGtOxPZed868OZOZ7LbugPp5rTFHdh0E23rQHMH0o33ufvVnYnsmjuQbtrWgU33Nq9fvHpodrgDmw68ad3EaYs7cHLTtg487Sa8z93WHUg3bevA1p2J7LxvHXhzpzPZbd2BdHPa4g5suom2daC5A+nG+9z96s5Eds0dSDdt68Cme5vXL149NDvcgU0H3rRu4rTFHTi5aVsHnnYT3udu6w6km7Z1YOvORHbetw68udOZ7LbuQLo5bXEHNt1E2zrQ3IF0433ufnVnIrvmDqSbtnVg073N6xevHpod7sCmA29aN3Ha4g6c3LStA0+7Ce9zt3UH0k3bOrB1ZyI771sH3tzpTHZbdyDdnLa4A5tuom0daO5AuvE+d7+6M5FdcwfSTds6sOne5vWLVw/NDndg04E3rZs4bXEHTm7a1oGn3YT3udu6A+mmbR3YujORnfetA2/udCa7rTuQbk5b3IFNN9G2DjR3IN14n7tf3ZnIrrkD6aZtHdh0b/P6xauHZoc7sOnAm9ZNnLa4Ayc3bevA027C+9xt3YF007YObN2ZyM771oE3dzqT3dYdSDenLe7ApptoWweaO5BuvM/dr+5MZNfcgXTTtg5surd5/eLVQ7PDHdh04E3rJk5b3IGTm7Z14Gk34X3utu5AumlbB7buTGTnfevAmzudyW7rDqSb0xZ3YNNNtK0DzR1IN97n7ld3JrJr7kC6aVsHNt3bvH7x6qHZ4Q5sOvCmdROnLe7AyU3bOvC0m/A+d1t3IN20rQNbdyay87514M2dzmS3dQfSzWmLO7DpJtrWgeYOpBvvc/erOxPZNXcg3bStA5vubV6/ePXQ7HAHNh1407qJ0xZ34OSmbR142k14n7utO5Bu2taBrTsT2XnfOvDmTmey27oD6ea0xR3YdBNt60BzB9KN97n71Z2J7Jo7kG7a1oFN9zavX7x6aHa4A5sOvGndxGmLO3By07YOPO0mvM/d1h1IN23rwNadiey8bx14c6cz2W3dgXRz2uIObLqJtnWguQPpxvvc/erORHbNHUg3bevApnub1y9ePTQ73IFNB960buK0xR04uWlbB552E97nbusOpJu2dWDrzkR23rcOvLnTmey27kC6OW1xBzbdRNs60NyBdON97n51ZyK75g6km7Z1YNO9zesXrx6aHe7ApgNvWjdx2uIOnNy0rQNPuwnvc7d1B9JN2zqwdWciO+9bB97c6Ux2W3cg3Zy2uAObbqJtHWjuQLrxPne/ujORXXMH0k3bOrDp3ub1i1cPzQ53YNOBN62bOG1xB05u2taBp92E97nbugPppm0d2LozkZ33rQNv7nQmu607kG5OW9yBTTfRtg40dyDdeJ+7X92ZyK65A+mmbR3YdG/z+sWrh2aHO7DpwJvWTZy2uAMnN23rwNNuwvvcbd2BdNO2DmzdmcjO+9aBN3c6k93WHUg3py3uwKabaFsHmjuQbrzP3a/uTGTX3IF007YObLq3ef/ix8fHx8f/Kb4vgo+Pj49/nO+L4OPj4+Mf5/si+Pj4+PjH+b4IPj4+Pv5xvi+Cj4+Pj3+c74vg4+Pj4x/n+yL4+Pj4+Mf5vgg+/irtP7/wH2OmwNQRc9XBWxu46k93snfMVffx8SbfX9fHX+XuB5j3m9+dNvmztzamdb/+W8nmzsfHW3x/WR9/hT8fWmRLbk+/e9XTbTZX5OaPk+Tqnrur3Yknv/vx0fj+qj7+Knc+uHJ7+t2rnm6zuaJtpp9v/63Nv9t48rsfH43vr+rjr7L94Jp2f36WSU4/m3q46v7wy+9OP8+f/fHMljvbj48t31/Vx19l+8H1ZPfnZ46Z9jB17U5yuru9A5vd9tbHx12+v6yPv8rf+IDzfvrd/FnbTD83V33r2r+14Zd/7+PjDb6/ro+/yuYD7O6HHPs7H5x/3OFnJ9pm+vnVvbf/rY+PN/n+wj7+KqcPsV8+5Pidq9/d3H2ymX7+N96z+b2Pj6d8f2Uff5XTB9kvH3T8ztXvvvXvtt308yfv+UNuNr/z8fEG31/ax1/lyYfj1G8+LN+4+4erO63b3Pl18/Hxt/j+2j7+Cn8+yDLJ9LPkdOMPp82ph80uN9Pu1P/htMne+fh4m++v6uPj4+Mf5/si+Pj4+PjH+b4IPj4+Pv5xvi+Cj4+Pj3+c74vg4+Pj4x/n+yL4+Pj4+Mf5vgg+Pj4+/nG+L4KPj4+Pf5r//e//AYQWEYJwHQKsAAAAAElFTkSuQmCC</_dlc_BarcodeImage>
+    <DLCPolicyLabelLock xmlns="e2656bbd-0e15-4aa0-af00-25744e385561" xsi:nil="true"/>
+    <_dlc_BarcodeValue xmlns="e2656bbd-0e15-4aa0-af00-25744e385561">1758931852</_dlc_BarcodeValue>
+    <_dlc_BarcodePreview xmlns="e2656bbd-0e15-4aa0-af00-25744e385561">
+      <Url>https://surgiceye.sharepoint.com/dev/_layouts/15/barcodeimagefromitem.aspx?ID=419111&amp;list=e2656bbd-0e15-4aa0-af00-25744e385561</Url>
+      <Description>Barcode: 1758931852</Description>
+    </_dlc_BarcodePreview>
+    <DLCPolicyLabelValue xmlns="e2656bbd-0e15-4aa0-af00-25744e385561">0.3</DLCPolicyLabelValue>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="SurgicEye WordTemplate" ma:contentTypeID="0x01010074A3F29CB79E8A41A92E73E19AE321CB00098C261D3F46DB49AEA371869FEC377C" ma:contentTypeVersion="17" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="d27efd9bfa2cf0dc081f61d6777772ee">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="e2656bbd-0e15-4aa0-af00-25744e385561" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="53fececc5845ce19907e3af2573e5d2e" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -11606,7 +16444,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <p:Policy xmlns:p="office.server.policy" id="" local="true">
   <p:Name>SurgicEye WordTemplate</p:Name>
@@ -11633,7 +16471,7 @@
 </p:Policy>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -11642,23 +16480,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DLCPolicyLabelClientValue xmlns="e2656bbd-0e15-4aa0-af00-25744e385561">{_UIVersionString}</DLCPolicyLabelClientValue>
-    <_dlc_BarcodeImage xmlns="e2656bbd-0e15-4aa0-af00-25744e385561">iVBORw0KGgoAAAANSUhEUgAAAYIAAABtCAYAAACsn2ZqAAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAABp9SURBVHhe7ZvBihzbsiz3///0eeiBgeGE54qsTA0uSgMfWLt3aA2aqpH++9/Hx8fHxz/N90Xw8fHx8Y/zfRF8fHx8/ON8XwQfHx8f/zjfF8HHx8fHP873RfDx8fHxj/P6F8F///33/zORHe7ApgNvWjdx2uIOnNy0rQNPuwnvc7d1B9JN2zqwdWciO+9bB97c6Ux2W3cg3Zy2uAObbqJtHWjuQLrxPne/ujORXXMH0k3bOrDp3ub1i1cPzQ53YNOBN62bOG1xB05u2taBp92E97nbugPppm0d2LozkZ33rQNv7nQmu607kG5OW9yBTTfRtg40dyDdeJ+7X92ZyK65A+mmbR3YdG/z+sWrh2aHO7DpwJvWTZy2uAMnN23rwNNuwvvcbd2BdNO2DmzdmcjO+9aBN3c6k93WHUg3py3uwKabaFsHmjuQbrzP3a/uTGTX3IF007YObLq3ef3i1UOzwx3YdOBN6yZOW9yBk5u2deBpN+F97rbuQLppWwe27kxk533rwJs7nclu6w6km9MWd2DTTbStA80dSDfe5+5Xdyaya+5AumlbBzbd27x+8eqh2eEObDrwpnUTpy3uwMlN2zrwtJvwPndbdyDdtK0DW3cmsvO+deDNnc5kt3UH0s1pizuw6Sba1oHmDqQb73P3qzsT2TV3IN20rQOb7m1ev3j10OxwBzYdeNO6idMWd+Dkpm0deNpNeJ+7rTuQbtrWga07E9l53zrw5k5nstu6A+nmtMUd2HQTbetAcwfSjfe5+9WdieyaO5Bu2taBTfc2r1+8emh2uAObDrxp3cRpiztwctO2DjztJrzP3dYdSDdt68DWnYnsvG8deHOnM9lt3YF0c9riDmy6ibZ1oLkD6cb73P3qzkR2zR1IN23rwKZ7m9cvXj00O9yBTQfetG7itMUdOLlpWweedhPe527rDqSbtnVg685Edt63Dry505nstu5AujltcQc23UTbOtDcgXTjfe5+dWciu+YOpJu2dWDTvc3rF68emh3uwKYDb1o3cdriDpzctK0DT7sJ73O3dQfSTds6sHVnIjvvWwfe3OlMdlt3IN2ctrgDm26ibR1o7kC68T53v7ozkV1zB9JN2zqw6d7m9YtXD80Od2DTgTetmzhtcQdObtrWgafdhPe527oD6aZtHdi6M5Gd960Db+50JrutO5BuTlvcgU030bYONHcg3Xifu1/dmciuuQPppm0d2HRv8/rFq4dmhzuw6cCb1k2ctrgDJzdt68DTbsL73G3dgXTTtg5s3ZnIzvvWgTd3OpPd1h1IN6ct7sCmm2hbB5o7kG68z92v7kxk19yBdNO2Dmy6t3n94tVDs8Md2HTgTesmTlvcgZObtnXgaTfhfe627kC6aVsHtu5MZOd968CbO53JbusOpJvTFndg0020rQPNHUg33ufuV3cmsmvuQLppWwc23du8fvHqodnhDmw68KZ1E6ct7sDJTds68LSb8D53W3cg3bStA1t3JrLzvnXgzZ3OZLd1B9LNaYs7sOkm2taB5g6kG+9z96s7E9k1dyDdtK0Dm+5tXr949dDscAc2HXjTuonTFnfg5KZtHXjaTXifu607kG7a1oGtOxPZed868OZOZ7LbugPp5rTFHdh0E23rQHMH0o33ufvVnYnsmjuQbtrWgU33Nq9fvHpodrgDmw68ad3EaYs7cHLTtg487Sa8z93WHUg3bevA1p2J7LxvHXhzpzPZbd2BdHPa4g5suom2daC5A+nG+9z96s5Eds0dSDdt68Cme5vXL149NDvcgU0H3rRu4rTFHTi5aVsHnnYT3udu6w6km7Z1YOvORHbetw68udOZ7LbuQLo5bXEHNt1E2zrQ3IF0433ufnVnIrvmDqSbtnVg073N6xevHpod7sCmA29aN3Ha4g6c3LStA0+7Ce9zt3UH0k3bOrB1ZyI771sH3tzpTHZbdyDdnLa4A5tuom0daO5AuvE+d7+6M5FdcwfSTds6sOne5vWLVw/NDndg04E3rZs4bXEHTm7a1oGn3YT3udu6A+mmbR3YujORnfetA2/udCa7rTuQbk5b3IFNN9G2DjR3IN14n7tf3ZnIrrkD6aZtHdh0b/P6xauHZoc7sOnAm9ZNnLa4Ayc3bevA027C+9xt3YF007YObN2ZyM771oE3dzqT3dYdSDenLe7ApptoWweaO5BuvM/dr+5MZNfcgXTTtg5surd5/eLVQ7PDHdh04E3rJk5b3IGTm7Z14Gk34X3utu5AumlbB7buTGTnfevAmzudyW7rDqSb0xZ3YNNNtK0DzR1IN97n7ld3JrJr7kC6aVsHNt3bvH7x6qHZ4Q5sOvCmdROnLe7AyU3bOvC0m/A+d1t3IN20rQNbdyay87514M2dzmS3dQfSzWmLO7DpJtrWgeYOpBvvc/erOxPZNXcg3bStA5vubV6/ePXQ7HAHNh1407qJ0xZ34OSmbR142k14n7utO5Bu2taBrTsT2XnfOvDmTmey27oD6ea0xR3YdBNt60BzB9KN97n71Z2J7Jo7kG7a1oFN9zavX7x6aHa4A5sOvGndxGmLO3By07YOPO0mvM/d1h1IN23rwNadiey8bx14c6cz2W3dgXRz2uIObLqJtnWguQPpxvvc/erORHbNHUg3bevApnub1y9ePTQ73IFNB960buK0xR04uWlbB552E97nbusOpJu2dWDrzkR23rcOvLnTmey27kC6OW1xBzbdRNs60NyBdON97n51ZyK75g6km7Z1YNO9zesXrx6aHe7ApgNvWjdx2uIOnNy0rQNPuwnvc7d1B9JN2zqwdWciO+9bB97c6Ux2W3cg3Zy2uAObbqJtHWjuQLrxPne/ujORXXMH0k3bOrDp3ub1i1cPzQ53YNOBN62bOG1xB05u2taBp92E97nbugPppm0d2LozkZ33rQNv7nQmu607kG5OW9yBTTfRtg40dyDdeJ+7X92ZyK65A+mmbR3YdG/z+sWrh2aHO7DpwJvWTZy2uAMnN23rwNNuwvvcbd2BdNO2DmzdmcjO+9aBN3c6k93WHUg3py3uwKabaFsHmjuQbrzP3a/uTGTX3IF007YObLq3ef3i1UOzwx3YdOBN6yZOW9yBk5u2deBpN+F97rbuQLppWwe27kxk533rwJs7nclu6w6km9MWd2DTTbStA80dSDfe5+5Xdyaya+5AumlbBzbd27x+8eqh2eEObDrwpnUTpy3uwMlN2zrwtJvwPndbdyDdtK0DW3cmsvO+deDNnc5kt3UH0s1pizuw6Sba1oHmDqQb73P3qzsT2TV3IN20rQOb7m1ev3j10OxwBzYdeNO6idMWd+Dkpm0deNpNeJ+7rTuQbtrWga07E9l53zrw5k5nstu6A+nmtMUd2HQTbetAcwfSjfe5+9WdieyaO5Bu2taBTfc2r1+8emh2uAObDrxp3cRpiztwctO2DjztJrzP3dYdSDdt68DWnYnsvG8deHOnM9lt3YF0c9riDmy6ibZ1oLkD6cb73P3qzkR2zR1IN23rwKZ7m9cvXj00O9yBTQfetG7itMUdOLlpWweedhPe527rDqSbtnVg685Edt63Dry505nstu5AujltcQc23UTbOtDcgXTjfe5+dWciu+YOpJu2dWDTvc3rF68emh3uwKYDb1o3cdriDpzctK0DT7sJ73O3dQfSTds6sHVnIjvvWwfe3OlMdlt3IN2ctrgDm26ibR1o7kC68T53v7ozkV1zB9JN2zqw6d7m9YtXD80Od2DTgTetmzhtcQdObtrWgafdhPe527oD6aZtHdi6M5Gd960Db+50JrutO5BuTlvcgU030bYONHcg3Xifu1/dmciuuQPppm0d2HRv8/rFq4dmhzuw6cCb1k2ctrgDJzdt68DTbsL73G3dgXTTtg5s3ZnIzvvWgTd3OpPd1h1IN6ct7sCmm2hbB5o7kG68z92v7kxk19yBdNO2Dmy6t3n94tVDs8Md2HTgTesmTlvcgZObtnXgaTfhfe627kC6aVsHtu5MZOd968CbO53JbusOpJvTFndg0020rQPNHUg33ufuV3cmsmvuQLppWwc23du8fvHqodnhDmw68KZ1E6ct7sDJTds68LSb8D53W3cg3bStA1t3JrLzvnXgzZ3OZLd1B9LNaYs7sOkm2taB5g6kG+9z96s7E9k1dyDdtK0Dm+5tXr949dDscAc2HXjTuonTFnfg5KZtHXjaTXifu607kG7a1oGtOxPZed868OZOZ7LbugPp5rTFHdh0E23rQHMH0o33ufvVnYnsmjuQbtrWgU33Nq9fvHpodrgDmw68ad3EaYs7cHLTtg487Sa8z93WHUg3bevA1p2J7LxvHXhzpzPZbd2BdHPa4g5suom2daC5A+nG+9z96s5Eds0dSDdt68Cme5vXL149NDvcgU0H3rRu4rTFHTi5aVsHnnYT3udu6w6km7Z1YOvORHbetw68udOZ7LbuQLo5bXEHNt1E2zrQ3IF0433ufnVnIrvmDqSbtnVg073N6xevHpod7sCmA29aN3Ha4g6c3LStA0+7Ce9zt3UH0k3bOrB1ZyI771sH3tzpTHZbdyDdnLa4A5tuom0daO5AuvE+d7+6M5FdcwfSTds6sOne5vWLVw/NDndg04E3rZs4bXEHTm7a1oGn3YT3udu6A+mmbR3YujORnfetA2/udCa7rTuQbk5b3IFNN9G2DjR3IN14n7tf3ZnIrrkD6aZtHdh0b/P6xauHZoc7sOnAm9ZNnLa4Ayc3bevA027C+9xt3YF007YObN2ZyM771oE3dzqT3dYdSDenLe7ApptoWweaO5BuvM/dr+5MZNfcgXTTtg5surd5/eLVQ7PDHdh04E3rJk5b3IGTm7Z14Gk34X3utu5AumlbB7buTGTnfevAmzudyW7rDqSb0xZ3YNNNtK0DzR1IN97n7ld3JrJr7kC6aVsHNt3bvH7x6qHZ4Q5sOvCmdROnLe7AyU3bOvC0m/A+d1t3IN20rQNbdyay87514M2dzmS3dQfSzWmLO7DpJtrWgeYOpBvvc/erOxPZNXcg3bStA5vubV6/ePXQ7HAHNh1407qJ0xZ34OSmbR142k14n7utO5Bu2taBrTsT2XnfOvDmTmey27oD6ea0xR3YdBNt60BzB9KN97n71Z2J7Jo7kG7a1oFN9zavX7x6aHa4A5sOvGndxGmLO3By07YOPO0mvM/d1h1IN23rwNadiey8bx14c6cz2W3dgXRz2uIObLqJtnWguQPpxvvc/erORHbNHUg3bevApnub1y9ePTQ73IFNB960buK0xR04uWlbB552E97nbusOpJu2dWDrzkR23rcOvLnTmey27kC6OW1xBzbdRNs60NyBdON97n51ZyK75g6km7Z1YNO9zesXrx6aHe7ApgNvWjdx2uIOnNy0rQNPuwnvc7d1B9JN2zqwdWciO+9bB97c6Ux2W3cg3Zy2uAObbqJtHWjuQLrxPne/ujORXXMH0k3bOrDp3ub1i1cPzQ53YNOBN62bOG1xB05u2taBp92E97nbugPppm0d2LozkZ33rQNv7nQmu607kG5OW9yBTTfRtg40dyDdeJ+7X92ZyK65A+mmbR3YdG/z+sWrh2aHO7DpwJvWTZy2uAMnN23rwNNuwvvcbd2BdNO2DmzdmcjO+9aBN3c6k93WHUg3py3uwKabaFsHmjuQbrzP3a/uTGTX3IF007YObLq3ef3i1UOzwx3YdOBN6yZOW9yBk5u2deBpN+F97rbuQLppWwe27kxk533rwJs7nclu6w6km9MWd2DTTbStA80dSDfe5+5Xdyaya+5AumlbBzbd27x+8eqh2eEObDrwpnUTpy3uwMlN2zrwtJvwPndbdyDdtK0DW3cmsvO+deDNnc5kt3UH0s1pizuw6Sba1oHmDqQb73P3qzsT2TV3IN20rQOb7m1ev3j10OxwBzYdeNO6idMWd+Dkpm0deNpNeJ+7rTuQbtrWga07E9l53zrw5k5nstu6A+nmtMUd2HQTbetAcwfSjfe5+9WdieyaO5Bu2taBTfc2r1+8emh2uAObDrxp3cRpiztwctO2DjztJrzP3dYdSDdt68DWnYnsvG8deHOnM9lt3YF0c9riDmy6ibZ1oLkD6cb73P3qzkR2zR1IN23rwKZ7m9cvXj00O9yBTQfetG7itMUdOLlpWweedhPe527rDqSbtnVg685Edt63Dry505nstu5AujltcQc23UTbOtDcgXTjfe5+dWciu+YOpJu2dWDTvc3rF68emh3uwKYDb1o3cdriDpzctK0DT7sJ73O3dQfSTds6sHVnIjvvWwfe3OlMdlt3IN2ctrgDm26ibR1o7kC68T53v7ozkV1zB9JN2zqw6d7m9YtXD80Od2DTgTetmzhtcQdObtrWgafdhPe527oD6aZtHdi6M5Gd960Db+50JrutO5BuTlvcgU030bYONHcg3Xifu1/dmciuuQPppm0d2HRv8/rFq4dmhzuw6cCb1k2ctrgDJzdt68DTbsL73G3dgXTTtg5s3ZnIzvvWgTd3OpPd1h1IN6ct7sCmm2hbB5o7kG68z92v7kxk19yBdNO2Dmy6t3n94tVDs8Md2HTgTesmTlvcgZObtnXgaTfhfe627kC6aVsHtu5MZOd968CbO53JbusOpJvTFndg0020rQPNHUg33ufuV3cmsmvuQLppWwc23du8fvHqodnhDmw68KZ1E6ct7sDJTds68LSb8D53W3cg3bStA1t3JrLzvnXgzZ3OZLd1B9LNaYs7sOkm2taB5g6kG+9z96s7E9k1dyDdtK0Dm+5tXr949dDscAc2HXjTuonTFnfg5KZtHXjaTXifu607kG7a1oGtOxPZed868OZOZ7LbugPp5rTFHdh0E23rQHMH0o33ufvVnYnsmjuQbtrWgU33Nq9fvHpodrgDmw68ad3EaYs7cHLTtg487Sa8z93WHUg3bevA1p2J7LxvHXhzpzPZbd2BdHPa4g5suom2daC5A+nG+9z96s5Eds0dSDdt68Cme5vXL149NDvcgU0H3rRu4rTFHTi5aVsHnnYT3udu6w6km7Z1YOvORHbetw68udOZ7LbuQLo5bXEHNt1E2zrQ3IF0433ufnVnIrvmDqSbtnVg073N6xevHpod7sCmA29aN3Ha4g6c3LStA0+7Ce9zt3UH0k3bOrB1ZyI771sH3tzpTHZbdyDdnLa4A5tuom0daO5AuvE+d7+6M5FdcwfSTds6sOne5vWLVw/NDndg04E3rZs4bXEHTm7a1oGn3YT3udu6A+mmbR3YujORnfetA2/udCa7rTuQbk5b3IFNN9G2DjR3IN14n7tf3ZnIrrkD6aZtHdh0b/P6xauHZoc7sOnAm9ZNnLa4Ayc3bevA027C+9xt3YF007YObN2ZyM771oE3dzqT3dYdSDenLe7ApptoWweaO5BuvM/dr+5MZNfcgXTTtg5surd5/eLVQ7PDHdh04E3rJk5b3IGTm7Z14Gk34X3utu5AumlbB7buTGTnfevAmzudyW7rDqSb0xZ3YNNNtK0DzR1IN97n7ld3JrJr7kC6aVsHNt3bvH7x6qHZ4Q5sOvCmdROnLe7AyU3bOvC0m/A+d1t3IN20rQNbdyay87514M2dzmS3dQfSzWmLO7DpJtrWgeYOpBvvc/erOxPZNXcg3bStA5vubV6/ePXQ7HAHNh1407qJ0xZ34OSmbR142k14n7utO5Bu2taBrTsT2XnfOvDmTmey27oD6ea0xR3YdBNt60BzB9KN97n71Z2J7Jo7kG7a1oFN9zavX7x6aHa4A5sOvGndxGmLO3By07YOPO0mvM/d1h1IN23rwNadiey8bx14c6cz2W3dgXRz2uIObLqJtnWguQPpxvvc/erORHbNHUg3bevApnub1y9ePTQ73IFNB960buK0xR04uWlbB552E97nbusOpJu2dWDrzkR23rcOvLnTmey27kC6OW1xBzbdRNs60NyBdON97n51ZyK75g6km7Z1YNO9zesXrx6aHe7ApgNvWjdx2uIOnNy0rQNPuwnvc7d1B9JN2zqwdWciO+9bB97c6Ux2W3cg3Zy2uAObbqJtHWjuQLrxPne/ujORXXMH0k3bOrDp3ub1i1cPzQ53YNOBN62bOG1xB05u2taBp92E97nbugPppm0d2LozkZ33rQNv7nQmu607kG5OW9yBTTfRtg40dyDdeJ+7X92ZyK65A+mmbR3YdG/z+sWrh2aHO7DpwJvWTZy2uAMnN23rwNNuwvvcbd2BdNO2DmzdmcjO+9aBN3c6k93WHUg3py3uwKabaFsHmjuQbrzP3a/uTGTX3IF007YObLq3ef/ix8fHx8f/Kb4vgo+Pj49/nO+L4OPj4+Mf5/si+Pj4+PjH+b4IPj4+Pv5xvi+Cj4+Pj3+c74vg4+Pj4x/n+yL4+Pj4+Mf5vgg+/irtP7/wH2OmwNQRc9XBWxu46k93snfMVffx8SbfX9fHX+XuB5j3m9+dNvmztzamdb/+W8nmzsfHW3x/WR9/hT8fWmRLbk+/e9XTbTZX5OaPk+Tqnrur3Yknv/vx0fj+qj7+Knc+uHJ7+t2rnm6zuaJtpp9v/63Nv9t48rsfH43vr+rjr7L94Jp2f36WSU4/m3q46v7wy+9OP8+f/fHMljvbj48t31/Vx19l+8H1ZPfnZ46Z9jB17U5yuru9A5vd9tbHx12+v6yPv8rf+IDzfvrd/FnbTD83V33r2r+14Zd/7+PjDb6/ro+/yuYD7O6HHPs7H5x/3OFnJ9pm+vnVvbf/rY+PN/n+wj7+KqcPsV8+5Pidq9/d3H2ymX7+N96z+b2Pj6d8f2Uff5XTB9kvH3T8ztXvvvXvtt308yfv+UNuNr/z8fEG31/ax1/lyYfj1G8+LN+4+4erO63b3Pl18/Hxt/j+2j7+Cn8+yDLJ9LPkdOMPp82ph80uN9Pu1P/htMne+fh4m++v6uPj4+Mf5/si+Pj4+PjH+b4IPj4+Pv5xvi+Cj4+Pj3+c74vg4+Pj4x/n+yL4+Pj4+Mf5vgg+Pj4+/nG+L4KPj4+Pf5r//e//AYQWEYJwHQKsAAAAAElFTkSuQmCC</_dlc_BarcodeImage>
-    <DLCPolicyLabelLock xmlns="e2656bbd-0e15-4aa0-af00-25744e385561" xsi:nil="true"/>
-    <_dlc_BarcodeValue xmlns="e2656bbd-0e15-4aa0-af00-25744e385561">1758931852</_dlc_BarcodeValue>
-    <_dlc_BarcodePreview xmlns="e2656bbd-0e15-4aa0-af00-25744e385561">
-      <Url>https://surgiceye.sharepoint.com/dev/_layouts/15/barcodeimagefromitem.aspx?ID=419111&amp;list=e2656bbd-0e15-4aa0-af00-25744e385561</Url>
-      <Description>Barcode: 1758931852</Description>
-    </_dlc_BarcodePreview>
-    <DLCPolicyLabelValue xmlns="e2656bbd-0e15-4aa0-af00-25744e385561">0.3</DLCPolicyLabelValue>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAB86876-AAC8-4339-8E74-E0DFE2CA9AC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="e2656bbd-0e15-4aa0-af00-25744e385561"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8953B42-7F0B-4652-8904-3F0A580F556B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11677,7 +16516,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37A933A0-2E29-4D82-A4A8-6FECA8CC0598}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="office.server.policy"/>
@@ -11685,27 +16524,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3611D48C-6B4F-4CD9-8579-A2A41CE94ADA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAB86876-AAC8-4339-8E74-E0DFE2CA9AC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e2656bbd-0e15-4aa0-af00-25744e385561"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>